--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8.000000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>34.17721518987343</v>
+      </c>
       <c r="L12" t="n">
         <v>39.92</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8.400000000000006</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9.090909090909111</v>
+      </c>
       <c r="L13" t="n">
         <v>40.15000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9.200000000000003</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20.54794520547946</v>
+      </c>
       <c r="L14" t="n">
         <v>40.29000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>9.300000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>62.96296296296295</v>
+      </c>
       <c r="L15" t="n">
         <v>40.43000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.66666666666672</v>
+      </c>
       <c r="L16" t="n">
         <v>40.65000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11.6</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20.00000000000005</v>
+      </c>
       <c r="L17" t="n">
         <v>40.70000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>11.9</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-38.46153846153855</v>
+      </c>
       <c r="L18" t="n">
         <v>40.56000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>13.2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-22.03389830508473</v>
+      </c>
       <c r="L19" t="n">
         <v>40.49000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>13.8</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>40.42000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16.6</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-37.20930232558145</v>
+      </c>
       <c r="L21" t="n">
         <v>40.05000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>17.8</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-17.0212765957447</v>
+      </c>
       <c r="L22" t="n">
         <v>39.85000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>7.608695652173942</v>
+        <v>-18.27956989247306</v>
       </c>
       <c r="L23" t="n">
         <v>39.76000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5847953216374352</v>
+        <v>-12.49999999999995</v>
       </c>
       <c r="L24" t="n">
         <v>39.63000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>19.3</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.149425287356297</v>
+        <v>-4.545454545454527</v>
       </c>
       <c r="L25" t="n">
         <v>39.47000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>20.70000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>2.380952380952372</v>
+        <v>-7.692307692307716</v>
       </c>
       <c r="L26" t="n">
         <v>39.29000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>22.30000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>7.865168539325833</v>
+        <v>11.53846153846148</v>
       </c>
       <c r="L27" t="n">
         <v>39.38000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>23.00000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.32544378698224</v>
+        <v>-8.16326530612241</v>
       </c>
       <c r="L28" t="n">
         <v>39.43000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-13.95348837209305</v>
+        <v>-22.77227722772278</v>
       </c>
       <c r="L29" t="n">
         <v>39.26000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K30" t="n">
-        <v>-12.6436781609195</v>
+        <v>16.0493827160494</v>
       </c>
       <c r="L30" t="n">
         <v>39.11000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>24.90000000000002</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.94252873563218</v>
+        <v>-1.408450704225369</v>
       </c>
       <c r="L31" t="n">
         <v>39.22000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>26.30000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-19.12568306010928</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L32" t="n">
         <v>39.07000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.75409836065574</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L33" t="n">
         <v>38.89</v>
@@ -1962,7 +1984,7 @@
         <v>27.50000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-23.49726775956281</v>
+        <v>-31.70731707317071</v>
       </c>
       <c r="L34" t="n">
         <v>38.59</v>
@@ -2013,7 +2035,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-25.53191489361699</v>
+        <v>-24.32432432432427</v>
       </c>
       <c r="L35" t="n">
         <v>38.27</v>
@@ -2064,7 +2086,7 @@
         <v>28.60000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.12707182320441</v>
+        <v>-46.03174603174598</v>
       </c>
       <c r="L36" t="n">
         <v>38.14</v>
@@ -2115,7 +2137,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-15.73033707865166</v>
+        <v>-46.87499999999996</v>
       </c>
       <c r="L37" t="n">
         <v>37.77</v>
@@ -2166,7 +2188,7 @@
         <v>31.60000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.522842639593929</v>
+        <v>1.298701298701318</v>
       </c>
       <c r="L38" t="n">
         <v>37.69</v>
@@ -2217,7 +2239,7 @@
         <v>31.8</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.67741935483869</v>
+        <v>-12.67605633802817</v>
       </c>
       <c r="L39" t="n">
         <v>37.68</v>
@@ -2268,7 +2290,7 @@
         <v>31.9</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.70718232044201</v>
+        <v>-8.571428571428617</v>
       </c>
       <c r="L40" t="n">
         <v>37.6</v>
@@ -2319,7 +2341,7 @@
         <v>31.99999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>2.597402597402636</v>
+        <v>12.28070175438607</v>
       </c>
       <c r="L41" t="n">
         <v>37.53</v>
@@ -2370,7 +2392,7 @@
         <v>32.3</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.586206896551738</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>37.57</v>
@@ -2421,7 +2443,7 @@
         <v>32.6</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.63829787234043</v>
+        <v>21.56862745098048</v>
       </c>
       <c r="L43" t="n">
         <v>37.6</v>
@@ -2472,7 +2494,7 @@
         <v>32.7</v>
       </c>
       <c r="K44" t="n">
-        <v>-13.04347826086961</v>
+        <v>39.1304347826088</v>
       </c>
       <c r="L44" t="n">
         <v>37.72</v>
@@ -2523,7 +2545,7 @@
         <v>33.7</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.66666666666671</v>
+        <v>5.882352941176438</v>
       </c>
       <c r="L45" t="n">
         <v>37.8</v>
@@ -2574,7 +2596,7 @@
         <v>34.8</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7092198581560392</v>
+        <v>40.74074074074078</v>
       </c>
       <c r="L46" t="n">
         <v>37.94</v>
@@ -2625,7 +2647,7 @@
         <v>35.2</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.72868217054264</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L47" t="n">
         <v>38.12</v>
@@ -2676,7 +2698,7 @@
         <v>35.49999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.00000000000001</v>
+        <v>-13.51351351351356</v>
       </c>
       <c r="L48" t="n">
         <v>38.05</v>
@@ -2727,7 +2749,7 @@
         <v>35.79999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.521008403361325</v>
+        <v>-7.692307692307636</v>
       </c>
       <c r="L49" t="n">
         <v>38.03</v>
@@ -2778,7 +2800,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.521008403361387</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L50" t="n">
         <v>38.08</v>
@@ -2829,7 +2851,7 @@
         <v>36.89999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>1.666666666666694</v>
+        <v>26.08695652173922</v>
       </c>
       <c r="L51" t="n">
         <v>38.17</v>
@@ -2880,7 +2902,7 @@
         <v>37.7</v>
       </c>
       <c r="K52" t="n">
-        <v>7.017543859649111</v>
+        <v>1.960784313725381</v>
       </c>
       <c r="L52" t="n">
         <v>38.21000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>38.3</v>
       </c>
       <c r="K53" t="n">
-        <v>8.620689655172429</v>
+        <v>10.71428571428574</v>
       </c>
       <c r="L53" t="n">
         <v>38.28000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>38.3</v>
       </c>
       <c r="K54" t="n">
-        <v>16.66666666666666</v>
+        <v>34.78260869565219</v>
       </c>
       <c r="L54" t="n">
         <v>38.34</v>
@@ -3033,7 +3055,7 @@
         <v>38.5</v>
       </c>
       <c r="K55" t="n">
-        <v>25.00000000000005</v>
+        <v>18.91891891891898</v>
       </c>
       <c r="L55" t="n">
         <v>38.52</v>
@@ -3084,7 +3106,7 @@
         <v>38.6</v>
       </c>
       <c r="K56" t="n">
-        <v>20.00000000000003</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L56" t="n">
         <v>38.58000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>39.1</v>
       </c>
       <c r="K57" t="n">
-        <v>23.71134020618556</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L57" t="n">
         <v>38.63000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>39.2</v>
       </c>
       <c r="K58" t="n">
-        <v>2.63157894736846</v>
+        <v>17.64705882352939</v>
       </c>
       <c r="L58" t="n">
         <v>38.72000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>39.2</v>
       </c>
       <c r="K59" t="n">
-        <v>5.405405405405387</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L59" t="n">
         <v>38.78000000000002</v>
@@ -3288,7 +3310,7 @@
         <v>39.3</v>
       </c>
       <c r="K60" t="n">
-        <v>2.702702702702739</v>
+        <v>-24.99999999999993</v>
       </c>
       <c r="L60" t="n">
         <v>38.75000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>39.3</v>
       </c>
       <c r="K61" t="n">
-        <v>4.109589041095845</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L61" t="n">
         <v>38.69000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>39.40000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>7.042253521126753</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L62" t="n">
         <v>38.7</v>
@@ -3441,7 +3463,7 @@
         <v>40.1</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.666666666666667</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L63" t="n">
         <v>38.58000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>40.3</v>
       </c>
       <c r="K64" t="n">
-        <v>-5.263157894736822</v>
+        <v>-66.66666666666693</v>
       </c>
       <c r="L64" t="n">
         <v>38.48</v>
@@ -3543,7 +3565,7 @@
         <v>41</v>
       </c>
       <c r="K65" t="n">
-        <v>17.80821917808224</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L65" t="n">
         <v>38.43000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>42.2</v>
       </c>
       <c r="K66" t="n">
-        <v>-13.5135135135135</v>
+        <v>-35.48387096774196</v>
       </c>
       <c r="L66" t="n">
         <v>38.27</v>
@@ -3645,7 +3667,7 @@
         <v>42.2</v>
       </c>
       <c r="K67" t="n">
-        <v>-8.571428571428582</v>
+        <v>-40.0000000000001</v>
       </c>
       <c r="L67" t="n">
         <v>38.16</v>
@@ -3696,7 +3718,7 @@
         <v>42.40000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-1.449275362318859</v>
+        <v>-31.24999999999997</v>
       </c>
       <c r="L68" t="n">
         <v>38.06</v>
@@ -3747,7 +3769,7 @@
         <v>42.60000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.823529411764703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>37.94</v>
@@ -3798,7 +3820,7 @@
         <v>43.00000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.62499999999995</v>
+        <v>-18.91891891891898</v>
       </c>
       <c r="L70" t="n">
         <v>37.87</v>
@@ -3849,7 +3871,7 @@
         <v>43.50000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-27.27272727272727</v>
+        <v>-26.82926829268295</v>
       </c>
       <c r="L71" t="n">
         <v>37.75</v>
@@ -3900,7 +3922,7 @@
         <v>43.60000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-15.25423728813554</v>
+        <v>-8.571428571428676</v>
       </c>
       <c r="L72" t="n">
         <v>37.65</v>
@@ -3951,7 +3973,7 @@
         <v>44.20000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.25423728813554</v>
+        <v>2.564102564102592</v>
       </c>
       <c r="L73" t="n">
         <v>37.68</v>
@@ -4002,7 +4024,7 @@
         <v>44.80000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>-23.07692307692303</v>
+        <v>-31.57894736842103</v>
       </c>
       <c r="L74" t="n">
         <v>37.63</v>
@@ -4053,7 +4075,7 @@
         <v>44.80000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-26.98412698412698</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>37.51</v>
@@ -4104,7 +4126,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-18.1818181818182</v>
+        <v>13.33333333333326</v>
       </c>
       <c r="L76" t="n">
         <v>37.55</v>
@@ -4155,7 +4177,7 @@
         <v>45.70000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.03030303030307</v>
+        <v>21.21212121212105</v>
       </c>
       <c r="L77" t="n">
         <v>37.64</v>
@@ -4206,7 +4228,7 @@
         <v>46.40000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>-13.88888888888888</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L78" t="n">
         <v>37.64</v>
@@ -4257,7 +4279,7 @@
         <v>46.8</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.894736842105281</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L79" t="n">
         <v>37.7</v>
@@ -4308,7 +4330,7 @@
         <v>47.2</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.39240506329112</v>
+        <v>8.108108108108231</v>
       </c>
       <c r="L80" t="n">
         <v>37.68000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>47.6</v>
       </c>
       <c r="K81" t="n">
-        <v>-6.024096385542171</v>
+        <v>15.00000000000006</v>
       </c>
       <c r="L81" t="n">
         <v>37.75000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>47.7</v>
       </c>
       <c r="K82" t="n">
-        <v>-3.614457831325268</v>
+        <v>2.857142857142903</v>
       </c>
       <c r="L82" t="n">
         <v>37.82000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>47.8</v>
       </c>
       <c r="K83" t="n">
-        <v>3.896103896103858</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L83" t="n">
         <v>37.82000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>48.1</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.564102564102508</v>
+        <v>9.090909090909248</v>
       </c>
       <c r="L84" t="n">
         <v>37.85000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>48.3</v>
       </c>
       <c r="K85" t="n">
-        <v>-9.589041095890453</v>
+        <v>3.225806451612962</v>
       </c>
       <c r="L85" t="n">
         <v>37.90000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>48.5</v>
       </c>
       <c r="K86" t="n">
-        <v>11.11111111111116</v>
+        <v>-7.142857142857016</v>
       </c>
       <c r="L86" t="n">
         <v>37.93000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>48.5</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111116</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L87" t="n">
         <v>37.91000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>48.7</v>
       </c>
       <c r="K88" t="n">
-        <v>4.761904761904718</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L88" t="n">
         <v>37.94000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>48.8</v>
       </c>
       <c r="K89" t="n">
-        <v>9.67741935483874</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L89" t="n">
         <v>37.94000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>49.1</v>
       </c>
       <c r="K90" t="n">
-        <v>8.196721311475418</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L90" t="n">
         <v>38.01000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>49.4</v>
       </c>
       <c r="K91" t="n">
-        <v>11.86440677966108</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L91" t="n">
         <v>38.01000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>49.8</v>
       </c>
       <c r="K92" t="n">
-        <v>16.12903225806455</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
         <v>38.04000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>49.8</v>
       </c>
       <c r="K93" t="n">
-        <v>7.142857142857134</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L93" t="n">
         <v>38.08</v>
@@ -5022,7 +5044,7 @@
         <v>49.8</v>
       </c>
       <c r="K94" t="n">
-        <v>20.00000000000006</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>38.15</v>
@@ -5073,7 +5095,7 @@
         <v>49.9</v>
       </c>
       <c r="K95" t="n">
-        <v>17.64705882352943</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L95" t="n">
         <v>38.19</v>
@@ -5124,7 +5146,7 @@
         <v>50.3</v>
       </c>
       <c r="K96" t="n">
-        <v>17.64705882352954</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>38.25</v>
@@ -5175,7 +5197,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>6.382978723404352</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L97" t="n">
         <v>38.3</v>
@@ -5226,7 +5248,7 @@
         <v>50.8</v>
       </c>
       <c r="K98" t="n">
-        <v>31.8181818181818</v>
+        <v>50</v>
       </c>
       <c r="L98" t="n">
         <v>38.41</v>
@@ -5277,7 +5299,7 @@
         <v>50.90000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>26.82926829268295</v>
+        <v>44.44444444444458</v>
       </c>
       <c r="L99" t="n">
         <v>38.52</v>
@@ -5328,7 +5350,7 @@
         <v>51.1</v>
       </c>
       <c r="K100" t="n">
-        <v>43.5897435897435</v>
+        <v>76.47058823529382</v>
       </c>
       <c r="L100" t="n">
         <v>38.62</v>
@@ -5379,7 +5401,7 @@
         <v>51.5</v>
       </c>
       <c r="K101" t="n">
-        <v>23.07692307692305</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L101" t="n">
         <v>38.71</v>
@@ -5430,7 +5452,7 @@
         <v>51.9</v>
       </c>
       <c r="K102" t="n">
-        <v>28.5714285714285</v>
+        <v>42.85714285714276</v>
       </c>
       <c r="L102" t="n">
         <v>38.8</v>
@@ -5481,7 +5503,7 @@
         <v>52.09999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>25.5813953488373</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L103" t="n">
         <v>38.87000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>52.29999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>38.09523809523807</v>
+        <v>41.66666666666681</v>
       </c>
       <c r="L104" t="n">
         <v>38.96000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>52.29999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>35.00000000000003</v>
+        <v>29.99999999999993</v>
       </c>
       <c r="L105" t="n">
         <v>39.06000000000002</v>
@@ -5634,7 +5656,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>16.2790697674418</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L106" t="n">
         <v>39.07000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>16.2790697674418</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L107" t="n">
         <v>39.09000000000002</v>
@@ -5736,7 +5758,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>21.95121951219516</v>
+        <v>-15.78947368421088</v>
       </c>
       <c r="L108" t="n">
         <v>39.07000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>20</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L109" t="n">
         <v>39.04000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>13.51351351351356</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L110" t="n">
         <v>38.99000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>23.52941176470586</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L111" t="n">
         <v>38.98000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>52.79999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>13.33333333333332</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L112" t="n">
         <v>38.93000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>52.89999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>9.677419354838888</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>38.89000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>52.89999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>9.677419354838888</v>
+        <v>-100</v>
       </c>
       <c r="L114" t="n">
         <v>38.83000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>52.89999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>13.33333333333359</v>
+        <v>-100</v>
       </c>
       <c r="L115" t="n">
         <v>38.77000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>52.89999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L116" t="n">
         <v>38.76000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>52.99999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>38.76000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>53.29999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>-20.00000000000023</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L118" t="n">
         <v>38.73</v>
@@ -6297,7 +6319,7 @@
         <v>53.29999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-25.00000000000037</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L119" t="n">
         <v>38.7</v>
@@ -6348,7 +6370,7 @@
         <v>53.29999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>-36.36363636363666</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L120" t="n">
         <v>38.67</v>
@@ -6399,7 +6421,7 @@
         <v>53.39999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>-26.31578947368453</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L121" t="n">
         <v>38.63</v>
@@ -6450,7 +6472,7 @@
         <v>53.59999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>-41.17647058823549</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L122" t="n">
         <v>38.61</v>
@@ -6501,7 +6523,7 @@
         <v>53.79999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>-17.64705882352985</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L123" t="n">
         <v>38.62</v>
@@ -6552,7 +6574,7 @@
         <v>53.79999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>-33.33333333333365</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L124" t="n">
         <v>38.63000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>53.99999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>-17.64705882352936</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L125" t="n">
         <v>38.66000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>54.29999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>6.666666666666793</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L127" t="n">
         <v>38.68000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>54.39999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L128" t="n">
         <v>38.71000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>55.39999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>-38.46153846153855</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>38.64000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>55.99999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>38.63000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>56.19999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>-17.64705882352929</v>
+        <v>-15.38461538461532</v>
       </c>
       <c r="L131" t="n">
         <v>38.61000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>56.19999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>-17.64705882352929</v>
+        <v>-24.9999999999997</v>
       </c>
       <c r="L132" t="n">
         <v>38.57000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>56.39999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>-20.00000000000008</v>
+        <v>-30.76923076923056</v>
       </c>
       <c r="L133" t="n">
         <v>38.49</v>
@@ -7062,7 +7084,7 @@
         <v>56.39999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-20.00000000000008</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L134" t="n">
         <v>38.41</v>
@@ -7113,7 +7135,7 @@
         <v>56.39999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-20.00000000000008</v>
+        <v>-36.36363636363619</v>
       </c>
       <c r="L135" t="n">
         <v>38.31</v>
@@ -7164,7 +7186,7 @@
         <v>57.19999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>-34.88372093023258</v>
+        <v>-58.6206896551723</v>
       </c>
       <c r="L136" t="n">
         <v>38.15</v>
@@ -7215,7 +7237,7 @@
         <v>57.19999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>-38.09523809523793</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="L137" t="n">
         <v>37.98</v>
@@ -7266,7 +7288,7 @@
         <v>57.89999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>-13.04347826086959</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L138" t="n">
         <v>37.89</v>
@@ -7317,7 +7339,7 @@
         <v>58.39999999999998</v>
       </c>
       <c r="K139" t="n">
-        <v>-21.56862745098041</v>
+        <v>-41.66666666666681</v>
       </c>
       <c r="L139" t="n">
         <v>37.84999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>-23.07692307692312</v>
+        <v>-39.13043478260899</v>
       </c>
       <c r="L140" t="n">
         <v>37.73999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>-21.56862745098041</v>
+        <v>-39.13043478260899</v>
       </c>
       <c r="L141" t="n">
         <v>37.65</v>
@@ -7470,7 +7492,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>-26.53061224489806</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L142" t="n">
         <v>37.56</v>
@@ -7521,7 +7543,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>-31.91489361702126</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L143" t="n">
         <v>37.49</v>
@@ -7572,7 +7594,7 @@
         <v>58.89999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>-37.25490196078427</v>
+        <v>-44.00000000000018</v>
       </c>
       <c r="L144" t="n">
         <v>37.38</v>
@@ -7623,7 +7645,7 @@
         <v>59.19999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>-46.15384615384616</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L145" t="n">
         <v>37.24</v>
@@ -7674,7 +7696,7 @@
         <v>59.79999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>-28.5714285714285</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>37.24</v>
@@ -7725,7 +7747,7 @@
         <v>60.39999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>-37.70491803278687</v>
+        <v>-51.99999999999989</v>
       </c>
       <c r="L147" t="n">
         <v>37.18000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>60.39999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>-36.66666666666664</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L148" t="n">
         <v>37.05000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>60.49999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-21.5686274509803</v>
+        <v>-29.99999999999972</v>
       </c>
       <c r="L149" t="n">
         <v>36.98000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>60.59999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-39.13043478260868</v>
+        <v>-33.33333333333311</v>
       </c>
       <c r="L150" t="n">
         <v>36.91000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>60.69999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-37.77777777777784</v>
+        <v>-36.36363636363619</v>
       </c>
       <c r="L151" t="n">
         <v>36.83000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>60.69999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>-37.77777777777784</v>
+        <v>-36.36363636363619</v>
       </c>
       <c r="L152" t="n">
         <v>36.75000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>61.29999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-18.36734693877549</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L153" t="n">
         <v>36.73000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>62.19999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>46.66666666666651</v>
       </c>
       <c r="L154" t="n">
         <v>36.84000000000002</v>
@@ -8133,7 +8155,7 @@
         <v>62.49999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>4.918032786885204</v>
+        <v>40.74074074074049</v>
       </c>
       <c r="L155" t="n">
         <v>37.01000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>62.99999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>10.3448275862068</v>
+        <v>46.15384615384596</v>
       </c>
       <c r="L156" t="n">
         <v>37.07000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>63.69999999999997</v>
       </c>
       <c r="K157" t="n">
-        <v>-1.538461538461562</v>
+        <v>15.15151515151517</v>
       </c>
       <c r="L157" t="n">
         <v>37.12000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>63.69999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>-13.79310344827582</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L158" t="n">
         <v>37.17000000000002</v>
@@ -8337,7 +8359,7 @@
         <v>64.99999999999997</v>
       </c>
       <c r="K159" t="n">
-        <v>15.15151515151517</v>
+        <v>40.90909090909092</v>
       </c>
       <c r="L159" t="n">
         <v>37.34000000000002</v>
@@ -8388,7 +8410,7 @@
         <v>65.49999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>22.8571428571429</v>
+        <v>50.00000000000008</v>
       </c>
       <c r="L160" t="n">
         <v>37.57000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>65.59999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>23.94366197183107</v>
+        <v>51.02040816326547</v>
       </c>
       <c r="L161" t="n">
         <v>37.82000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>65.79999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>26.02739726027409</v>
+        <v>46.66666666666684</v>
       </c>
       <c r="L162" t="n">
         <v>38.09000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>65.99999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>22.66666666666673</v>
+        <v>26.31578947368428</v>
       </c>
       <c r="L163" t="n">
         <v>38.28000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>66.49999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>21.0526315789474</v>
+        <v>5.00000000000008</v>
       </c>
       <c r="L164" t="n">
         <v>38.33000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>35.71428571428575</v>
+        <v>39.13043478260889</v>
       </c>
       <c r="L165" t="n">
         <v>38.46000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>67.69999999999996</v>
       </c>
       <c r="K166" t="n">
-        <v>29.11392405063293</v>
+        <v>60.00000000000018</v>
       </c>
       <c r="L166" t="n">
         <v>38.63000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>67.79999999999995</v>
       </c>
       <c r="K167" t="n">
-        <v>37.83783783783792</v>
+        <v>56.09756097560996</v>
       </c>
       <c r="L167" t="n">
         <v>38.86</v>
@@ -8796,7 +8818,7 @@
         <v>69.39999999999995</v>
       </c>
       <c r="K168" t="n">
-        <v>13.33333333333333</v>
+        <v>-13.63636363636374</v>
       </c>
       <c r="L168" t="n">
         <v>38.93</v>
@@ -8847,7 +8869,7 @@
         <v>70.69999999999996</v>
       </c>
       <c r="K169" t="n">
-        <v>23.52941176470591</v>
+        <v>3.846153846153909</v>
       </c>
       <c r="L169" t="n">
         <v>39.00000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>70.99999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>21.15384615384613</v>
+        <v>-3.703703703703753</v>
       </c>
       <c r="L170" t="n">
         <v>38.99000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>71.09999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>21.15384615384621</v>
+        <v>-9.433962264150948</v>
       </c>
       <c r="L171" t="n">
         <v>38.96000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>71.69999999999996</v>
       </c>
       <c r="K172" t="n">
-        <v>25.45454545454548</v>
+        <v>5.263157894736803</v>
       </c>
       <c r="L172" t="n">
         <v>38.97000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>72.09999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>16.66666666666666</v>
+        <v>7.142857142857125</v>
       </c>
       <c r="L173" t="n">
         <v>38.96000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>72.59999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>3.846153846153838</v>
+        <v>-24.00000000000006</v>
       </c>
       <c r="L174" t="n">
         <v>38.95</v>
@@ -9153,7 +9175,7 @@
         <v>73.49999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>9.090909090909097</v>
+        <v>-3.448275862069008</v>
       </c>
       <c r="L175" t="n">
         <v>38.92</v>
@@ -9204,7 +9226,7 @@
         <v>74.99999999999997</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-22.22222222222219</v>
       </c>
       <c r="L176" t="n">
         <v>38.75000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>74.99999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>6.194690265486689</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>38.59000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>75.49999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>1.694915254237252</v>
+        <v>-37.5</v>
       </c>
       <c r="L178" t="n">
         <v>38.54000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>77.39999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>6.451612903225838</v>
+        <v>6.250000000000083</v>
       </c>
       <c r="L179" t="n">
         <v>38.55</v>
@@ -9408,7 +9430,7 @@
         <v>78.49999999999997</v>
       </c>
       <c r="K180" t="n">
-        <v>-6.153846153846132</v>
+        <v>-8.108108108108121</v>
       </c>
       <c r="L180" t="n">
         <v>38.48</v>
@@ -9459,7 +9481,7 @@
         <v>78.59999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>-7.692307692307693</v>
+        <v>-18.84057971014487</v>
       </c>
       <c r="L181" t="n">
         <v>38.41000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>78.99999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-6.060606060606092</v>
+        <v>-7.246376811594198</v>
       </c>
       <c r="L182" t="n">
         <v>38.32000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>78.99999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-4.615384615384626</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>38.27</v>
@@ -9612,7 +9634,7 @@
         <v>79.69999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>4.545454545454556</v>
+        <v>-3.225806451612833</v>
       </c>
       <c r="L184" t="n">
         <v>38.34000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>80.79999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-12.12121212121212</v>
+        <v>3.448275862069008</v>
       </c>
       <c r="L185" t="n">
         <v>38.21000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>81.79999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>-17.73049645390068</v>
+        <v>-11.76470588235288</v>
       </c>
       <c r="L186" t="n">
         <v>38.13000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>82.09999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>-18.88111888111882</v>
+        <v>-9.090909090908992</v>
       </c>
       <c r="L187" t="n">
         <v>38.02</v>
@@ -9816,7 +9838,7 @@
         <v>83.39999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>1.428571428571446</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L188" t="n">
         <v>38.09</v>
@@ -9867,7 +9889,7 @@
         <v>84.39999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-15.32846715328466</v>
+        <v>-18.64406779661018</v>
       </c>
       <c r="L189" t="n">
         <v>37.87</v>
@@ -9918,7 +9940,7 @@
         <v>85.99999999999997</v>
       </c>
       <c r="K190" t="n">
-        <v>-22.66666666666666</v>
+        <v>-35.13513513513512</v>
       </c>
       <c r="L190" t="n">
         <v>37.6</v>
@@ -9969,7 +9991,7 @@
         <v>88.39999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.202312138728353</v>
+        <v>-6.382978723404266</v>
       </c>
       <c r="L191" t="n">
         <v>37.58</v>
@@ -10020,7 +10042,7 @@
         <v>89.49999999999997</v>
       </c>
       <c r="K192" t="n">
-        <v>-14.60674157303367</v>
+        <v>-16.19047619047615</v>
       </c>
       <c r="L192" t="n">
         <v>37.41</v>
@@ -10071,7 +10093,7 @@
         <v>89.69999999999997</v>
       </c>
       <c r="K193" t="n">
-        <v>-13.63636363636362</v>
+        <v>-26.00000000000001</v>
       </c>
       <c r="L193" t="n">
         <v>37.22000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>89.69999999999997</v>
       </c>
       <c r="K194" t="n">
-        <v>-11.1111111111111</v>
+        <v>-16.85393258426968</v>
       </c>
       <c r="L194" t="n">
         <v>36.96</v>
@@ -10173,7 +10195,7 @@
         <v>90.59999999999997</v>
       </c>
       <c r="K195" t="n">
-        <v>-21.63742690058478</v>
+        <v>-15.90909090909092</v>
       </c>
       <c r="L195" t="n">
         <v>36.72000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>92.79999999999995</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>10.28037383177567</v>
       </c>
       <c r="L196" t="n">
         <v>36.8</v>
@@ -10275,7 +10297,7 @@
         <v>93.09999999999997</v>
       </c>
       <c r="K197" t="n">
-        <v>1.657458563535936</v>
+        <v>1.030927835051562</v>
       </c>
       <c r="L197" t="n">
         <v>36.94000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>93.09999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>4.545454545454572</v>
+        <v>12.64367816091957</v>
       </c>
       <c r="L198" t="n">
         <v>36.95000000000001</v>

--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="C2" t="n">
-        <v>39.4</v>
+        <v>38.4</v>
       </c>
       <c r="D2" t="n">
-        <v>39.9</v>
+        <v>39.2</v>
       </c>
       <c r="E2" t="n">
-        <v>39.4</v>
+        <v>38.4</v>
       </c>
       <c r="F2" t="n">
-        <v>56343.65878168</v>
+        <v>4616.3091</v>
       </c>
       <c r="G2" t="n">
-        <v>35.30499999999998</v>
+        <v>35.40333333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.2</v>
+        <v>38.4</v>
       </c>
       <c r="C3" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D3" t="n">
         <v>38.4</v>
       </c>
-      <c r="D3" t="n">
-        <v>39.2</v>
-      </c>
       <c r="E3" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F3" t="n">
-        <v>4616.3091</v>
+        <v>9332.308199999999</v>
       </c>
       <c r="G3" t="n">
-        <v>35.40333333333331</v>
+        <v>35.50999999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.4</v>
+        <v>39.1</v>
       </c>
       <c r="C4" t="n">
-        <v>38.3</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>38.4</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="F4" t="n">
-        <v>9332.308199999999</v>
+        <v>76599.30708925</v>
       </c>
       <c r="G4" t="n">
-        <v>35.50999999999998</v>
+        <v>35.63499999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.1</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>39.1</v>
+        <v>39.9</v>
       </c>
       <c r="F5" t="n">
-        <v>76599.30708925</v>
+        <v>7556.7375</v>
       </c>
       <c r="G5" t="n">
-        <v>35.63499999999998</v>
+        <v>35.75833333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="C6" t="n">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="E6" t="n">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="F6" t="n">
-        <v>7556.7375</v>
+        <v>51096.5501</v>
       </c>
       <c r="G6" t="n">
-        <v>35.75833333333332</v>
+        <v>35.85833333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.6</v>
+        <v>38.5</v>
       </c>
       <c r="C7" t="n">
-        <v>37.9</v>
+        <v>38.5</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6</v>
+        <v>38.5</v>
       </c>
       <c r="E7" t="n">
-        <v>37.9</v>
+        <v>38.5</v>
       </c>
       <c r="F7" t="n">
-        <v>51096.5501</v>
+        <v>7164.6753</v>
       </c>
       <c r="G7" t="n">
-        <v>35.85833333333332</v>
+        <v>35.96833333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C8" t="n">
-        <v>38.5</v>
+        <v>40.1</v>
       </c>
       <c r="D8" t="n">
-        <v>38.5</v>
+        <v>40.1</v>
       </c>
       <c r="E8" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F8" t="n">
-        <v>7164.6753</v>
+        <v>199758.84459104</v>
       </c>
       <c r="G8" t="n">
-        <v>35.96833333333332</v>
+        <v>36.10499999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.4</v>
+        <v>40.1</v>
       </c>
       <c r="C9" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="D9" t="n">
-        <v>40.1</v>
+        <v>41.4</v>
       </c>
       <c r="E9" t="n">
-        <v>38.4</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>199758.84459104</v>
+        <v>253282.41317447</v>
       </c>
       <c r="G9" t="n">
-        <v>36.10499999999998</v>
+        <v>36.25166666666664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.1</v>
+        <v>41.2</v>
       </c>
       <c r="C10" t="n">
-        <v>40.7</v>
+        <v>41.3</v>
       </c>
       <c r="D10" t="n">
         <v>41.4</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F10" t="n">
-        <v>253282.41317447</v>
+        <v>107154.43902028</v>
       </c>
       <c r="G10" t="n">
-        <v>36.25166666666664</v>
+        <v>36.39833333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="C11" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="D11" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E11" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="F11" t="n">
-        <v>107154.43902028</v>
+        <v>223980.59732784</v>
       </c>
       <c r="G11" t="n">
-        <v>36.39833333333331</v>
+        <v>36.54666666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="C12" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D12" t="n">
         <v>41.5</v>
       </c>
       <c r="E12" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>223980.59732784</v>
+        <v>22690.3373</v>
       </c>
       <c r="G12" t="n">
-        <v>36.54666666666665</v>
+        <v>36.68666666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,25 +821,25 @@
         <v>41.4</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="D13" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F13" t="n">
-        <v>22690.3373</v>
+        <v>104026.47043497</v>
       </c>
       <c r="G13" t="n">
-        <v>36.68666666666665</v>
+        <v>36.81999999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C14" t="n">
         <v>41.4</v>
       </c>
-      <c r="C14" t="n">
-        <v>40.6</v>
-      </c>
       <c r="D14" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="E14" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="F14" t="n">
-        <v>104026.47043497</v>
+        <v>232978.00945072</v>
       </c>
       <c r="G14" t="n">
-        <v>36.81999999999998</v>
+        <v>36.96666666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -888,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D15" t="n">
         <v>41.4</v>
@@ -900,16 +900,16 @@
         <v>40.1</v>
       </c>
       <c r="F15" t="n">
-        <v>232978.00945072</v>
+        <v>116682.53923341</v>
       </c>
       <c r="G15" t="n">
-        <v>36.96666666666665</v>
+        <v>37.11166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -926,19 +926,19 @@
         <v>40.4</v>
       </c>
       <c r="C16" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D16" t="n">
         <v>41.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>41.4</v>
       </c>
       <c r="E16" t="n">
         <v>40.1</v>
       </c>
       <c r="F16" t="n">
-        <v>116682.53923341</v>
+        <v>54431.817</v>
       </c>
       <c r="G16" t="n">
-        <v>37.11166666666666</v>
+        <v>37.23666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.1</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>41.3</v>
       </c>
       <c r="E17" t="n">
-        <v>40.1</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
-        <v>54431.817</v>
+        <v>116342.2227</v>
       </c>
       <c r="G17" t="n">
-        <v>37.23666666666666</v>
+        <v>37.34499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.1</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="D18" t="n">
-        <v>41.3</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>39</v>
+        <v>38.1</v>
       </c>
       <c r="F18" t="n">
-        <v>116342.2227</v>
+        <v>525375.0274418</v>
       </c>
       <c r="G18" t="n">
-        <v>37.34499999999999</v>
+        <v>37.44666666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>41.5</v>
       </c>
       <c r="C19" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="E19" t="n">
-        <v>38.1</v>
+        <v>38.6</v>
       </c>
       <c r="F19" t="n">
-        <v>525375.0274418</v>
+        <v>188996.6405</v>
       </c>
       <c r="G19" t="n">
-        <v>37.44666666666665</v>
+        <v>37.57999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="D20" t="n">
-        <v>41.8</v>
+        <v>41.3</v>
       </c>
       <c r="E20" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="F20" t="n">
-        <v>188996.6405</v>
+        <v>512256.12140764</v>
       </c>
       <c r="G20" t="n">
-        <v>37.57999999999999</v>
+        <v>37.72333333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="C21" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D21" t="n">
         <v>40.6</v>
       </c>
-      <c r="D21" t="n">
-        <v>41.3</v>
-      </c>
       <c r="E21" t="n">
-        <v>38.3</v>
+        <v>36.4</v>
       </c>
       <c r="F21" t="n">
-        <v>512256.12140764</v>
+        <v>791735.1452</v>
       </c>
       <c r="G21" t="n">
-        <v>37.72333333333332</v>
+        <v>37.82166666666665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n">
-        <v>37.8</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n">
-        <v>40.6</v>
+        <v>39.1</v>
       </c>
       <c r="E22" t="n">
-        <v>36.4</v>
+        <v>37.4</v>
       </c>
       <c r="F22" t="n">
-        <v>791735.1452</v>
+        <v>295185.2788</v>
       </c>
       <c r="G22" t="n">
-        <v>37.82166666666665</v>
+        <v>37.91833333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="D23" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="E23" t="n">
-        <v>37.4</v>
+        <v>38.5</v>
       </c>
       <c r="F23" t="n">
-        <v>295185.2788</v>
+        <v>71528.7325</v>
       </c>
       <c r="G23" t="n">
-        <v>37.91833333333332</v>
+        <v>38.04499999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38.5</v>
+        <v>39.2</v>
       </c>
       <c r="C24" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="D24" t="n">
-        <v>39.7</v>
+        <v>40.4</v>
       </c>
       <c r="E24" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="F24" t="n">
-        <v>71528.7325</v>
+        <v>230266.54725396</v>
       </c>
       <c r="G24" t="n">
-        <v>38.04499999999999</v>
+        <v>38.16166666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>39.2</v>
       </c>
       <c r="C25" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D25" t="n">
         <v>40.1</v>
       </c>
-      <c r="D25" t="n">
-        <v>40.4</v>
-      </c>
       <c r="E25" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="F25" t="n">
-        <v>230266.54725396</v>
+        <v>28635.47787493</v>
       </c>
       <c r="G25" t="n">
-        <v>38.16166666666665</v>
+        <v>38.27166666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="C26" t="n">
-        <v>39.7</v>
+        <v>38.3</v>
       </c>
       <c r="D26" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="E26" t="n">
-        <v>39.1</v>
+        <v>38.3</v>
       </c>
       <c r="F26" t="n">
-        <v>28635.47787493</v>
+        <v>237894.2505</v>
       </c>
       <c r="G26" t="n">
-        <v>38.27166666666665</v>
+        <v>38.35833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>39.6</v>
+        <v>38.2</v>
       </c>
       <c r="C27" t="n">
-        <v>38.3</v>
+        <v>39.9</v>
       </c>
       <c r="D27" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="E27" t="n">
-        <v>38.3</v>
+        <v>37.6</v>
       </c>
       <c r="F27" t="n">
-        <v>237894.2505</v>
+        <v>458572.42980122</v>
       </c>
       <c r="G27" t="n">
-        <v>38.35833333333333</v>
+        <v>38.48999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38.2</v>
+        <v>39.4</v>
       </c>
       <c r="C28" t="n">
-        <v>39.9</v>
+        <v>39.2</v>
       </c>
       <c r="D28" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="E28" t="n">
-        <v>37.6</v>
+        <v>39.2</v>
       </c>
       <c r="F28" t="n">
-        <v>458572.42980122</v>
+        <v>12074.0652</v>
       </c>
       <c r="G28" t="n">
-        <v>38.48999999999999</v>
+        <v>38.59333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="C29" t="n">
-        <v>39.2</v>
+        <v>38.3</v>
       </c>
       <c r="D29" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="E29" t="n">
-        <v>39.2</v>
+        <v>38.2</v>
       </c>
       <c r="F29" t="n">
-        <v>12074.0652</v>
+        <v>247224.86238988</v>
       </c>
       <c r="G29" t="n">
-        <v>38.59333333333333</v>
+        <v>38.69833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C30" t="n">
         <v>39.1</v>
       </c>
-      <c r="C30" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D30" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="E30" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F30" t="n">
-        <v>247224.86238988</v>
+        <v>28955.68852634</v>
       </c>
       <c r="G30" t="n">
-        <v>38.69833333333333</v>
+        <v>38.77499999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="C31" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="D31" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="E31" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="F31" t="n">
-        <v>28955.68852634</v>
+        <v>28363.7017</v>
       </c>
       <c r="G31" t="n">
-        <v>38.77499999999999</v>
+        <v>38.83166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.9</v>
+        <v>38.2</v>
       </c>
       <c r="C32" t="n">
-        <v>38.9</v>
+        <v>37.5</v>
       </c>
       <c r="D32" t="n">
-        <v>38.9</v>
+        <v>38.2</v>
       </c>
       <c r="E32" t="n">
-        <v>38.9</v>
+        <v>37.2</v>
       </c>
       <c r="F32" t="n">
-        <v>28363.7017</v>
+        <v>145274.6708</v>
       </c>
       <c r="G32" t="n">
-        <v>38.83166666666666</v>
+        <v>38.86499999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38.2</v>
+        <v>37.5</v>
       </c>
       <c r="C33" t="n">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="D33" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E33" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="F33" t="n">
-        <v>145274.6708</v>
+        <v>161725.775</v>
       </c>
       <c r="G33" t="n">
-        <v>38.86499999999999</v>
+        <v>38.90166666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>37.5</v>
       </c>
       <c r="C34" t="n">
-        <v>37.9</v>
+        <v>37.1</v>
       </c>
       <c r="D34" t="n">
-        <v>38.3</v>
+        <v>37.5</v>
       </c>
       <c r="E34" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F34" t="n">
-        <v>161725.775</v>
+        <v>54852.0855</v>
       </c>
       <c r="G34" t="n">
-        <v>38.90166666666666</v>
+        <v>38.93666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="C35" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D35" t="n">
         <v>37.1</v>
       </c>
-      <c r="D35" t="n">
-        <v>37.5</v>
-      </c>
       <c r="E35" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="F35" t="n">
-        <v>54852.0855</v>
+        <v>61357.1426</v>
       </c>
       <c r="G35" t="n">
-        <v>38.93666666666666</v>
+        <v>38.91</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>37.1</v>
+        <v>36.6</v>
       </c>
       <c r="C36" t="n">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E36" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F36" t="n">
-        <v>61357.1426</v>
+        <v>87514.0793</v>
       </c>
       <c r="G36" t="n">
-        <v>38.91</v>
+        <v>38.94</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>36.2</v>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>38.2</v>
       </c>
       <c r="E37" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="F37" t="n">
-        <v>87514.0793</v>
+        <v>713980.07380338</v>
       </c>
       <c r="G37" t="n">
-        <v>38.94</v>
+        <v>38.95333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="C38" t="n">
-        <v>36.2</v>
+        <v>38.4</v>
       </c>
       <c r="D38" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E38" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="F38" t="n">
-        <v>713980.07380338</v>
+        <v>1766477.39972362</v>
       </c>
       <c r="G38" t="n">
-        <v>38.95333333333333</v>
+        <v>39.00333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="C39" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="D39" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E39" t="n">
-        <v>35.9</v>
+        <v>36.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1766477.39972362</v>
+        <v>612652.7502475301</v>
       </c>
       <c r="G39" t="n">
-        <v>39.00333333333333</v>
+        <v>39.05499999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37.1</v>
+        <v>37.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D40" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E40" t="n">
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="F40" t="n">
-        <v>612652.7502475301</v>
+        <v>176918.14913726</v>
       </c>
       <c r="G40" t="n">
-        <v>39.05499999999999</v>
+        <v>39.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>37.5</v>
+        <v>38.2</v>
       </c>
       <c r="C41" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D41" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E41" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="F41" t="n">
-        <v>176918.14913726</v>
+        <v>213850.14906483</v>
       </c>
       <c r="G41" t="n">
-        <v>39.1</v>
+        <v>39.13666666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="D42" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="E42" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F42" t="n">
-        <v>213850.14906483</v>
+        <v>10491.1379</v>
       </c>
       <c r="G42" t="n">
-        <v>39.13666666666666</v>
+        <v>39.14333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E43" t="n">
         <v>37.9</v>
       </c>
-      <c r="D43" t="n">
-        <v>38</v>
-      </c>
-      <c r="E43" t="n">
-        <v>37.4</v>
-      </c>
       <c r="F43" t="n">
-        <v>10491.1379</v>
+        <v>81365.1076</v>
       </c>
       <c r="G43" t="n">
         <v>39.14333333333333</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>37.9</v>
+        <v>38.3</v>
       </c>
       <c r="C44" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D44" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E44" t="n">
         <v>37.9</v>
       </c>
       <c r="F44" t="n">
-        <v>81365.1076</v>
+        <v>27479.09925613</v>
       </c>
       <c r="G44" t="n">
-        <v>39.14333333333333</v>
+        <v>39.145</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="C45" t="n">
-        <v>38.3</v>
+        <v>37.3</v>
       </c>
       <c r="D45" t="n">
         <v>38.3</v>
       </c>
       <c r="E45" t="n">
-        <v>37.9</v>
+        <v>37.2</v>
       </c>
       <c r="F45" t="n">
-        <v>27479.09925613</v>
+        <v>293367.86080587</v>
       </c>
       <c r="G45" t="n">
-        <v>39.145</v>
+        <v>39.11000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="C46" t="n">
-        <v>37.3</v>
+        <v>38.4</v>
       </c>
       <c r="D46" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="E46" t="n">
-        <v>37.2</v>
+        <v>38</v>
       </c>
       <c r="F46" t="n">
-        <v>293367.86080587</v>
+        <v>82962.17905727999</v>
       </c>
       <c r="G46" t="n">
-        <v>39.11000000000001</v>
+        <v>39.09333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C47" t="n">
         <v>38</v>
       </c>
-      <c r="C47" t="n">
-        <v>38.4</v>
-      </c>
       <c r="D47" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
-        <v>38</v>
+        <v>37.3</v>
       </c>
       <c r="F47" t="n">
-        <v>82962.17905727999</v>
+        <v>73</v>
       </c>
       <c r="G47" t="n">
-        <v>39.09333333333334</v>
+        <v>39.06333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="E48" t="n">
-        <v>37.3</v>
+        <v>37.7</v>
       </c>
       <c r="F48" t="n">
-        <v>73</v>
+        <v>34756.57051852</v>
       </c>
       <c r="G48" t="n">
-        <v>39.06333333333334</v>
+        <v>39.03</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>38</v>
       </c>
       <c r="C49" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="D49" t="n">
         <v>38.3</v>
@@ -2090,10 +2090,10 @@
         <v>37.7</v>
       </c>
       <c r="F49" t="n">
-        <v>34756.57051852</v>
+        <v>76655.36159320999</v>
       </c>
       <c r="G49" t="n">
-        <v>39.03</v>
+        <v>38.99833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="C50" t="n">
-        <v>38</v>
+        <v>38.8</v>
       </c>
       <c r="D50" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="E50" t="n">
         <v>37.7</v>
       </c>
       <c r="F50" t="n">
-        <v>76655.36159320999</v>
+        <v>170139.4495709</v>
       </c>
       <c r="G50" t="n">
-        <v>38.99833333333333</v>
+        <v>38.97833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>37.7</v>
+        <v>38.9</v>
       </c>
       <c r="C51" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E51" t="n">
         <v>38.8</v>
       </c>
-      <c r="D51" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="E51" t="n">
-        <v>37.7</v>
-      </c>
       <c r="F51" t="n">
-        <v>170139.4495709</v>
+        <v>56778.5026378</v>
       </c>
       <c r="G51" t="n">
-        <v>38.97833333333334</v>
+        <v>38.99166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38.9</v>
+        <v>38.5</v>
       </c>
       <c r="C52" t="n">
-        <v>39.1</v>
+        <v>38.3</v>
       </c>
       <c r="D52" t="n">
-        <v>39.1</v>
+        <v>38.6</v>
       </c>
       <c r="E52" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="F52" t="n">
-        <v>56778.5026378</v>
+        <v>1225.4434</v>
       </c>
       <c r="G52" t="n">
-        <v>38.99166666666667</v>
+        <v>38.99333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="C53" t="n">
-        <v>38.3</v>
+        <v>38.9</v>
       </c>
       <c r="D53" t="n">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
       <c r="E53" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1225.4434</v>
+        <v>20953.24191979</v>
       </c>
       <c r="G53" t="n">
-        <v>38.99333333333334</v>
+        <v>38.97666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C54" t="n">
         <v>38.9</v>
@@ -2262,13 +2262,13 @@
         <v>38.9</v>
       </c>
       <c r="E54" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="F54" t="n">
-        <v>20953.24191979</v>
+        <v>55</v>
       </c>
       <c r="G54" t="n">
-        <v>38.97666666666667</v>
+        <v>38.96500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38.9</v>
+        <v>38.5</v>
       </c>
       <c r="C55" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="D55" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="E55" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="F55" t="n">
-        <v>55</v>
+        <v>79712.44215488</v>
       </c>
       <c r="G55" t="n">
-        <v>38.96500000000001</v>
+        <v>38.95666666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="D56" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="E56" t="n">
-        <v>38.4</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
-        <v>79712.44215488</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>38.95666666666668</v>
+        <v>38.95333333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="C57" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="D57" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E57" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>386.6196</v>
       </c>
       <c r="G57" t="n">
-        <v>38.95333333333335</v>
+        <v>38.96000000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>38.5</v>
       </c>
       <c r="C58" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="D58" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="E58" t="n">
         <v>38.5</v>
       </c>
       <c r="F58" t="n">
-        <v>386.6196</v>
+        <v>1054.9172</v>
       </c>
       <c r="G58" t="n">
-        <v>38.96000000000002</v>
+        <v>38.93500000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="C59" t="n">
         <v>38.6</v>
       </c>
       <c r="D59" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E59" t="n">
         <v>38.6</v>
       </c>
-      <c r="E59" t="n">
-        <v>38.5</v>
-      </c>
       <c r="F59" t="n">
-        <v>1054.9172</v>
+        <v>2939.3556</v>
       </c>
       <c r="G59" t="n">
-        <v>38.93500000000002</v>
+        <v>38.92000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="C60" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="D60" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="E60" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F60" t="n">
-        <v>2939.3556</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>38.92000000000001</v>
+        <v>38.90166666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="C61" t="n">
         <v>38.5</v>
       </c>
       <c r="D61" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="E61" t="n">
         <v>38.5</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>39780.6196</v>
       </c>
       <c r="G61" t="n">
-        <v>38.90166666666668</v>
+        <v>38.88666666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="C62" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D62" t="n">
         <v>38.5</v>
       </c>
-      <c r="D62" t="n">
-        <v>38.6</v>
-      </c>
       <c r="E62" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F62" t="n">
-        <v>39780.6196</v>
+        <v>36836.4827</v>
       </c>
       <c r="G62" t="n">
         <v>38.88666666666668</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="C63" t="n">
-        <v>38.4</v>
+        <v>37.7</v>
       </c>
       <c r="D63" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
-        <v>38.4</v>
+        <v>37.7</v>
       </c>
       <c r="F63" t="n">
-        <v>36836.4827</v>
+        <v>34214.284</v>
       </c>
       <c r="G63" t="n">
-        <v>38.88666666666668</v>
+        <v>38.87666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="C64" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E64" t="n">
-        <v>37.7</v>
+        <v>36.3</v>
       </c>
       <c r="F64" t="n">
-        <v>34214.284</v>
+        <v>200346.52829761</v>
       </c>
       <c r="G64" t="n">
-        <v>38.87666666666667</v>
+        <v>38.84166666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="C65" t="n">
-        <v>37.9</v>
+        <v>38.6</v>
       </c>
       <c r="D65" t="n">
-        <v>37.9</v>
+        <v>38.6</v>
       </c>
       <c r="E65" t="n">
-        <v>36.3</v>
+        <v>37.1</v>
       </c>
       <c r="F65" t="n">
-        <v>200346.52829761</v>
+        <v>275112.02764118</v>
       </c>
       <c r="G65" t="n">
-        <v>38.84166666666668</v>
+        <v>38.82000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="C66" t="n">
-        <v>38.6</v>
+        <v>37.4</v>
       </c>
       <c r="D66" t="n">
-        <v>38.6</v>
+        <v>37.4</v>
       </c>
       <c r="E66" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F66" t="n">
-        <v>275112.02764118</v>
+        <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>38.82000000000001</v>
+        <v>38.81166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>37.2</v>
+        <v>38.2</v>
       </c>
       <c r="C67" t="n">
         <v>37.4</v>
       </c>
       <c r="D67" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E67" t="n">
         <v>37.4</v>
       </c>
-      <c r="E67" t="n">
-        <v>37.2</v>
-      </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="n">
-        <v>38.81166666666667</v>
+        <v>38.79333333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>38.2</v>
+        <v>37.3</v>
       </c>
       <c r="C68" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="D68" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="E68" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F68" t="n">
-        <v>21</v>
+        <v>4102.2917</v>
       </c>
       <c r="G68" t="n">
-        <v>38.79333333333334</v>
+        <v>38.75166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="C69" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="D69" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="E69" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F69" t="n">
-        <v>4102.2917</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>38.75166666666667</v>
+        <v>38.69666666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,10 +2813,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C70" t="n">
         <v>37.8</v>
-      </c>
-      <c r="C70" t="n">
-        <v>37.4</v>
       </c>
       <c r="D70" t="n">
         <v>37.8</v>
@@ -2825,10 +2825,10 @@
         <v>37.4</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>28913.9658</v>
       </c>
       <c r="G70" t="n">
-        <v>38.69666666666668</v>
+        <v>38.63833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="C71" t="n">
-        <v>37.8</v>
+        <v>37.3</v>
       </c>
       <c r="D71" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="E71" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F71" t="n">
-        <v>28913.9658</v>
+        <v>52010.1663</v>
       </c>
       <c r="G71" t="n">
-        <v>38.63833333333334</v>
+        <v>38.56833333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="C72" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="D72" t="n">
-        <v>37.9</v>
+        <v>37.4</v>
       </c>
       <c r="E72" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F72" t="n">
-        <v>52010.1663</v>
+        <v>44</v>
       </c>
       <c r="G72" t="n">
-        <v>38.56833333333335</v>
+        <v>38.50833333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="C73" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="D73" t="n">
-        <v>37.4</v>
+        <v>38.2</v>
       </c>
       <c r="E73" t="n">
         <v>37.4</v>
       </c>
       <c r="F73" t="n">
-        <v>44</v>
+        <v>199341.12668166</v>
       </c>
       <c r="G73" t="n">
-        <v>38.50833333333335</v>
+        <v>38.46500000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="C74" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D74" t="n">
         <v>38</v>
-      </c>
-      <c r="D74" t="n">
-        <v>38.2</v>
       </c>
       <c r="E74" t="n">
         <v>37.4</v>
       </c>
       <c r="F74" t="n">
-        <v>199341.12668166</v>
+        <v>1082.52631578</v>
       </c>
       <c r="G74" t="n">
-        <v>38.46500000000002</v>
+        <v>38.39833333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C75" t="n">
         <v>37.4</v>
       </c>
       <c r="D75" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E75" t="n">
         <v>37.4</v>
       </c>
       <c r="F75" t="n">
-        <v>1082.52631578</v>
+        <v>2005.4881</v>
       </c>
       <c r="G75" t="n">
-        <v>38.39833333333335</v>
+        <v>38.33333333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="C76" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="D76" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="E76" t="n">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="F76" t="n">
-        <v>2005.4881</v>
+        <v>16571.59226931</v>
       </c>
       <c r="G76" t="n">
-        <v>38.33333333333335</v>
+        <v>38.29500000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="C77" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E77" t="n">
         <v>37.8</v>
       </c>
-      <c r="D77" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E77" t="n">
-        <v>37.7</v>
-      </c>
       <c r="F77" t="n">
-        <v>16571.59226931</v>
+        <v>98793.33222916001</v>
       </c>
       <c r="G77" t="n">
-        <v>38.29500000000002</v>
+        <v>38.28333333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="C78" t="n">
-        <v>38.3</v>
+        <v>37.6</v>
       </c>
       <c r="D78" t="n">
-        <v>38.3</v>
+        <v>37.6</v>
       </c>
       <c r="E78" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="F78" t="n">
-        <v>98793.33222916001</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>38.28333333333335</v>
+        <v>38.26500000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="C79" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="E79" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>2274.6842</v>
       </c>
       <c r="G79" t="n">
-        <v>38.26500000000002</v>
+        <v>38.23166666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="C80" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="D80" t="n">
         <v>38</v>
       </c>
       <c r="E80" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2274.6842</v>
+        <v>33020</v>
       </c>
       <c r="G80" t="n">
-        <v>38.23166666666669</v>
+        <v>38.18166666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="C81" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>38</v>
       </c>
       <c r="E81" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="F81" t="n">
-        <v>33020</v>
+        <v>6758.9026</v>
       </c>
       <c r="G81" t="n">
-        <v>38.18166666666669</v>
+        <v>38.18500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="C82" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D82" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="E82" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F82" t="n">
-        <v>6758.9026</v>
+        <v>15780.7472</v>
       </c>
       <c r="G82" t="n">
-        <v>38.18500000000002</v>
+        <v>38.17000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="E83" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F83" t="n">
-        <v>15780.7472</v>
+        <v>2814.3775</v>
       </c>
       <c r="G83" t="n">
-        <v>38.17000000000002</v>
+        <v>38.14166666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="C84" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="D84" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="E84" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="F84" t="n">
-        <v>2814.3775</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>38.14166666666669</v>
+        <v>38.10166666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="C85" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="D85" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="E85" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="F85" t="n">
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>38.10166666666669</v>
+        <v>38.07166666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C86" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="D86" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="E86" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>21215.9723</v>
       </c>
       <c r="G86" t="n">
-        <v>38.07166666666669</v>
+        <v>38.06833333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="C87" t="n">
         <v>38.1</v>
@@ -3417,13 +3417,13 @@
         <v>38.1</v>
       </c>
       <c r="E87" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F87" t="n">
-        <v>21215.9723</v>
+        <v>10360.4305</v>
       </c>
       <c r="G87" t="n">
-        <v>38.06833333333336</v>
+        <v>38.03833333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="C88" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="D88" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="E88" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="F88" t="n">
-        <v>10360.4305</v>
+        <v>1531.6493</v>
       </c>
       <c r="G88" t="n">
-        <v>38.03833333333335</v>
+        <v>38.01666666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C89" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E89" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="F89" t="n">
-        <v>1531.6493</v>
+        <v>683.5195</v>
       </c>
       <c r="G89" t="n">
-        <v>38.01666666666669</v>
+        <v>38.01166666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="D90" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="E90" t="n">
         <v>38</v>
       </c>
       <c r="F90" t="n">
-        <v>683.5195</v>
+        <v>4453.1519</v>
       </c>
       <c r="G90" t="n">
-        <v>38.01166666666668</v>
+        <v>37.99833333333336</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>38</v>
       </c>
       <c r="C91" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E91" t="n">
         <v>38</v>
       </c>
       <c r="F91" t="n">
-        <v>4453.1519</v>
+        <v>1249.4928</v>
       </c>
       <c r="G91" t="n">
-        <v>37.99833333333336</v>
+        <v>37.98333333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="C92" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="D92" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="E92" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="F92" t="n">
-        <v>1249.4928</v>
+        <v>38373.3854</v>
       </c>
       <c r="G92" t="n">
-        <v>37.98333333333336</v>
+        <v>37.99833333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3624,16 +3624,16 @@
         <v>38.4</v>
       </c>
       <c r="D93" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
       <c r="E93" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F93" t="n">
-        <v>38373.3854</v>
+        <v>16744.63748062</v>
       </c>
       <c r="G93" t="n">
-        <v>37.99833333333336</v>
+        <v>38.00666666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3659,16 +3659,16 @@
         <v>38.4</v>
       </c>
       <c r="D94" t="n">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="E94" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="F94" t="n">
-        <v>16744.63748062</v>
+        <v>19799.622</v>
       </c>
       <c r="G94" t="n">
-        <v>38.00666666666669</v>
+        <v>38.02833333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="C95" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="D95" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="E95" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="F95" t="n">
-        <v>19799.622</v>
+        <v>25961.6187</v>
       </c>
       <c r="G95" t="n">
-        <v>38.02833333333336</v>
+        <v>38.05833333333337</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="C96" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E96" t="n">
         <v>38.3</v>
       </c>
-      <c r="D96" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>38.2</v>
-      </c>
       <c r="F96" t="n">
-        <v>25961.6187</v>
+        <v>26565.13865865</v>
       </c>
       <c r="G96" t="n">
-        <v>38.05833333333337</v>
+        <v>38.08666666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>38.3</v>
+        <v>38.7</v>
       </c>
       <c r="C97" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="D97" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E97" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="F97" t="n">
-        <v>26565.13865865</v>
+        <v>90373.51304135</v>
       </c>
       <c r="G97" t="n">
-        <v>38.08666666666669</v>
+        <v>38.12666666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="C98" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="D98" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="E98" t="n">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
       <c r="F98" t="n">
-        <v>90373.51304135</v>
+        <v>6665.5945</v>
       </c>
       <c r="G98" t="n">
-        <v>38.12666666666669</v>
+        <v>38.13666666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>39</v>
       </c>
       <c r="C99" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E99" t="n">
         <v>39</v>
       </c>
-      <c r="D99" t="n">
-        <v>39</v>
-      </c>
-      <c r="E99" t="n">
-        <v>38.9</v>
-      </c>
       <c r="F99" t="n">
-        <v>6665.5945</v>
+        <v>65470.74883455</v>
       </c>
       <c r="G99" t="n">
-        <v>38.13666666666669</v>
+        <v>38.15166666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="C100" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="D100" t="n">
         <v>39.3</v>
       </c>
       <c r="E100" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="F100" t="n">
-        <v>65470.74883455</v>
+        <v>605.5724244199999</v>
       </c>
       <c r="G100" t="n">
-        <v>38.15166666666669</v>
+        <v>38.16833333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="C101" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="D101" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="E101" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="F101" t="n">
-        <v>605.5724244199999</v>
+        <v>28379.8578</v>
       </c>
       <c r="G101" t="n">
-        <v>38.16833333333336</v>
+        <v>38.18000000000004</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="C102" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="D102" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="E102" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="F102" t="n">
-        <v>28379.8578</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>38.18000000000004</v>
+        <v>38.20333333333337</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C103" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="D103" t="n">
         <v>39.3</v>
       </c>
       <c r="E103" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>205583.7608</v>
       </c>
       <c r="G103" t="n">
-        <v>38.20333333333337</v>
+        <v>38.21833333333337</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="C104" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="D104" t="n">
         <v>39.3</v>
       </c>
       <c r="E104" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="F104" t="n">
-        <v>205583.7608</v>
+        <v>24730.9669</v>
       </c>
       <c r="G104" t="n">
-        <v>38.21833333333337</v>
+        <v>38.23500000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>39.3</v>
       </c>
       <c r="F105" t="n">
-        <v>24730.9669</v>
+        <v>21552.6463</v>
       </c>
       <c r="G105" t="n">
-        <v>38.23500000000003</v>
+        <v>38.26833333333337</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>39.3</v>
       </c>
       <c r="C106" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="D106" t="n">
         <v>39.3</v>
       </c>
       <c r="E106" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="F106" t="n">
-        <v>21552.6463</v>
+        <v>69787.13340000001</v>
       </c>
       <c r="G106" t="n">
-        <v>38.26833333333337</v>
+        <v>38.27500000000004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="C107" t="n">
         <v>38.8</v>
       </c>
       <c r="D107" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="E107" t="n">
         <v>38.8</v>
       </c>
       <c r="F107" t="n">
-        <v>69787.13340000001</v>
+        <v>677.3587</v>
       </c>
       <c r="G107" t="n">
-        <v>38.27500000000004</v>
+        <v>38.28833333333338</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>38.8</v>
       </c>
       <c r="F108" t="n">
-        <v>677.3587</v>
+        <v>96.0668</v>
       </c>
       <c r="G108" t="n">
-        <v>38.28833333333338</v>
+        <v>38.30666666666671</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C109" t="n">
         <v>38.8</v>
@@ -4187,13 +4187,13 @@
         <v>38.8</v>
       </c>
       <c r="E109" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F109" t="n">
-        <v>96.0668</v>
+        <v>9029.933199999999</v>
       </c>
       <c r="G109" t="n">
-        <v>38.30666666666671</v>
+        <v>38.32000000000005</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>38.7</v>
       </c>
       <c r="F110" t="n">
-        <v>9029.933199999999</v>
+        <v>4428.4241</v>
       </c>
       <c r="G110" t="n">
         <v>38.32000000000005</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="C111" t="n">
         <v>38.8</v>
       </c>
       <c r="D111" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E111" t="n">
         <v>38.8</v>
       </c>
-      <c r="E111" t="n">
-        <v>38.7</v>
-      </c>
       <c r="F111" t="n">
-        <v>4428.4241</v>
+        <v>42638.94594241</v>
       </c>
       <c r="G111" t="n">
-        <v>38.32000000000005</v>
+        <v>38.31500000000005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C112" t="n">
         <v>38.8</v>
       </c>
       <c r="D112" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E112" t="n">
         <v>38.8</v>
       </c>
       <c r="F112" t="n">
-        <v>42638.94594241</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>38.31500000000005</v>
+        <v>38.32333333333339</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>38.8</v>
       </c>
       <c r="C113" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D113" t="n">
         <v>38.8</v>
       </c>
       <c r="E113" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>5946.6374</v>
       </c>
       <c r="G113" t="n">
-        <v>38.32333333333339</v>
+        <v>38.32000000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C114" t="n">
         <v>38.7</v>
       </c>
       <c r="D114" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E114" t="n">
         <v>38.7</v>
       </c>
       <c r="F114" t="n">
-        <v>5946.6374</v>
+        <v>843.4366</v>
       </c>
       <c r="G114" t="n">
-        <v>38.32000000000005</v>
+        <v>38.31666666666671</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>38.7</v>
       </c>
       <c r="F115" t="n">
-        <v>843.4366</v>
+        <v>2583.97932816</v>
       </c>
       <c r="G115" t="n">
-        <v>38.31666666666671</v>
+        <v>38.31000000000004</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>38.7</v>
       </c>
       <c r="F116" t="n">
-        <v>2583.97932816</v>
+        <v>83832.96567183999</v>
       </c>
       <c r="G116" t="n">
-        <v>38.31000000000004</v>
+        <v>38.30500000000004</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C117" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D117" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E117" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F117" t="n">
-        <v>83832.96567183999</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>38.30500000000004</v>
+        <v>38.31000000000004</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C118" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="D118" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E118" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>21275.8626</v>
       </c>
       <c r="G118" t="n">
-        <v>38.31000000000004</v>
+        <v>38.30833333333338</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="C119" t="n">
         <v>38.5</v>
       </c>
       <c r="D119" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="E119" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="F119" t="n">
-        <v>21275.8626</v>
+        <v>85700.1197</v>
       </c>
       <c r="G119" t="n">
-        <v>38.30833333333338</v>
+        <v>38.30666666666671</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,19 +4563,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C120" t="n">
         <v>38.5</v>
       </c>
       <c r="D120" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E120" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="F120" t="n">
-        <v>85700.1197</v>
+        <v>259.948</v>
       </c>
       <c r="G120" t="n">
         <v>38.30666666666671</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C121" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="D121" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="E121" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F121" t="n">
-        <v>259.948</v>
+        <v>844.544</v>
       </c>
       <c r="G121" t="n">
-        <v>38.30666666666671</v>
+        <v>38.30500000000005</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>38.4</v>
       </c>
       <c r="C122" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="D122" t="n">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="E122" t="n">
         <v>38.4</v>
       </c>
       <c r="F122" t="n">
-        <v>844.544</v>
+        <v>11114.1474</v>
       </c>
       <c r="G122" t="n">
-        <v>38.30500000000005</v>
+        <v>38.30833333333338</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="C123" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="D123" t="n">
         <v>38.8</v>
       </c>
       <c r="E123" t="n">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="F123" t="n">
-        <v>11114.1474</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>38.30833333333338</v>
+        <v>38.32666666666672</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>38.8</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>37483.9358</v>
       </c>
       <c r="G124" t="n">
-        <v>38.32666666666672</v>
+        <v>38.34166666666672</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="C125" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="D125" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="E125" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="F125" t="n">
-        <v>37483.9358</v>
+        <v>29392.5128</v>
       </c>
       <c r="G125" t="n">
-        <v>38.34166666666672</v>
+        <v>38.34833333333339</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="C126" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D126" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E126" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F126" t="n">
-        <v>29392.5128</v>
+        <v>800</v>
       </c>
       <c r="G126" t="n">
-        <v>38.34833333333339</v>
+        <v>38.37166666666672</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C127" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="D127" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E127" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>38.37166666666672</v>
+        <v>38.39666666666673</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="C128" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="D128" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E128" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>2789.0941</v>
       </c>
       <c r="G128" t="n">
-        <v>38.39666666666673</v>
+        <v>38.41666666666673</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="C129" t="n">
-        <v>38.8</v>
+        <v>37.8</v>
       </c>
       <c r="D129" t="n">
-        <v>38.8</v>
+        <v>38.2</v>
       </c>
       <c r="E129" t="n">
-        <v>38.6</v>
+        <v>37.8</v>
       </c>
       <c r="F129" t="n">
-        <v>2789.0941</v>
+        <v>112151.7203</v>
       </c>
       <c r="G129" t="n">
-        <v>38.41666666666673</v>
+        <v>38.4233333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C130" t="n">
-        <v>37.8</v>
+        <v>38.4</v>
       </c>
       <c r="D130" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E130" t="n">
-        <v>37.8</v>
+        <v>38.4</v>
       </c>
       <c r="F130" t="n">
-        <v>112151.7203</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>38.4233333333334</v>
+        <v>38.43333333333339</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="C131" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="D131" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E131" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>6824.0641</v>
       </c>
       <c r="G131" t="n">
-        <v>38.43333333333339</v>
+        <v>38.44833333333339</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>38.2</v>
       </c>
       <c r="F132" t="n">
-        <v>6824.0641</v>
+        <v>1300.8049</v>
       </c>
       <c r="G132" t="n">
-        <v>38.44833333333339</v>
+        <v>38.46166666666672</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,19 +5018,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="C133" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="E133" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="F133" t="n">
-        <v>1300.8049</v>
+        <v>21470.1298</v>
       </c>
       <c r="G133" t="n">
         <v>38.46166666666672</v>
@@ -5065,10 +5065,10 @@
         <v>38</v>
       </c>
       <c r="F134" t="n">
-        <v>21470.1298</v>
+        <v>1607.7165</v>
       </c>
       <c r="G134" t="n">
-        <v>38.46166666666672</v>
+        <v>38.47166666666671</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="C135" t="n">
         <v>38</v>
@@ -5097,13 +5097,13 @@
         <v>38</v>
       </c>
       <c r="E135" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="F135" t="n">
-        <v>1607.7165</v>
+        <v>23107.5978</v>
       </c>
       <c r="G135" t="n">
-        <v>38.47166666666671</v>
+        <v>38.48166666666671</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="C136" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="D136" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="E136" t="n">
-        <v>37.8</v>
+        <v>37.2</v>
       </c>
       <c r="F136" t="n">
-        <v>23107.5978</v>
+        <v>148472.5803</v>
       </c>
       <c r="G136" t="n">
-        <v>38.48166666666671</v>
+        <v>38.47166666666671</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>38.1</v>
+        <v>37.3</v>
       </c>
       <c r="C137" t="n">
         <v>37.2</v>
       </c>
       <c r="D137" t="n">
-        <v>38.1</v>
+        <v>37.3</v>
       </c>
       <c r="E137" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F137" t="n">
-        <v>148472.5803</v>
+        <v>72730.16959999999</v>
       </c>
       <c r="G137" t="n">
-        <v>38.47166666666671</v>
+        <v>38.45333333333337</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>37.3</v>
+        <v>37.9</v>
       </c>
       <c r="C138" t="n">
-        <v>37.2</v>
+        <v>37.9</v>
       </c>
       <c r="D138" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="E138" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="F138" t="n">
-        <v>72730.16959999999</v>
+        <v>47891.5064</v>
       </c>
       <c r="G138" t="n">
-        <v>38.45333333333337</v>
+        <v>38.45833333333337</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>37.9</v>
+        <v>37.4</v>
       </c>
       <c r="C139" t="n">
-        <v>37.9</v>
+        <v>37.4</v>
       </c>
       <c r="D139" t="n">
-        <v>38</v>
+        <v>37.4</v>
       </c>
       <c r="E139" t="n">
         <v>37.4</v>
       </c>
       <c r="F139" t="n">
-        <v>47891.5064</v>
+        <v>11179.6439</v>
       </c>
       <c r="G139" t="n">
-        <v>38.45833333333337</v>
+        <v>38.44833333333337</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C140" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="D140" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="E140" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F140" t="n">
-        <v>11179.6439</v>
+        <v>52232.7958</v>
       </c>
       <c r="G140" t="n">
-        <v>38.44833333333337</v>
+        <v>38.44333333333338</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="C141" t="n">
         <v>37.3</v>
       </c>
       <c r="D141" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="E141" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="F141" t="n">
-        <v>52232.7958</v>
+        <v>2131.4412</v>
       </c>
       <c r="G141" t="n">
-        <v>38.44333333333338</v>
+        <v>38.43166666666671</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>37.3</v>
       </c>
       <c r="F142" t="n">
-        <v>2131.4412</v>
+        <v>39912.4226</v>
       </c>
       <c r="G142" t="n">
-        <v>38.43166666666671</v>
+        <v>38.41833333333339</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>37.3</v>
       </c>
       <c r="F143" t="n">
-        <v>39912.4226</v>
+        <v>20017.3189</v>
       </c>
       <c r="G143" t="n">
-        <v>38.41833333333339</v>
+        <v>38.40666666666672</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="C144" t="n">
-        <v>37.3</v>
+        <v>36.9</v>
       </c>
       <c r="D144" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="E144" t="n">
-        <v>37.3</v>
+        <v>36.9</v>
       </c>
       <c r="F144" t="n">
-        <v>20017.3189</v>
+        <v>35738.3485</v>
       </c>
       <c r="G144" t="n">
-        <v>38.40666666666672</v>
+        <v>38.39333333333339</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="C145" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="D145" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="E145" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F145" t="n">
-        <v>35738.3485</v>
+        <v>8096.9722</v>
       </c>
       <c r="G145" t="n">
-        <v>38.39333333333339</v>
+        <v>38.37166666666672</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="C146" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="D146" t="n">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="E146" t="n">
         <v>36.6</v>
       </c>
       <c r="F146" t="n">
-        <v>8096.9722</v>
+        <v>67.9049</v>
       </c>
       <c r="G146" t="n">
-        <v>38.37166666666672</v>
+        <v>38.35666666666672</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5511,117 +5511,105 @@
         <v>36.6</v>
       </c>
       <c r="C147" t="n">
-        <v>37.2</v>
+        <v>36.6</v>
       </c>
       <c r="D147" t="n">
-        <v>37.2</v>
+        <v>36.6</v>
       </c>
       <c r="E147" t="n">
         <v>36.6</v>
       </c>
       <c r="F147" t="n">
-        <v>67.9049</v>
+        <v>25760.2646</v>
       </c>
       <c r="G147" t="n">
-        <v>38.35666666666672</v>
+        <v>38.33166666666672</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>36.6</v>
       </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="C148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>26344.7727</v>
+      </c>
+      <c r="G148" t="n">
+        <v>38.31000000000005</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10228.5694</v>
+      </c>
+      <c r="G149" t="n">
+        <v>38.28833333333338</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C148" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>25760.2646</v>
-      </c>
-      <c r="G148" t="n">
-        <v>38.33166666666672</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>26344.7727</v>
-      </c>
-      <c r="G149" t="n">
-        <v>38.31000000000005</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5631,10 +5619,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C150" t="n">
         <v>36.6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>36.7</v>
       </c>
       <c r="D150" t="n">
         <v>36.7</v>
@@ -5643,10 +5631,10 @@
         <v>36.6</v>
       </c>
       <c r="F150" t="n">
-        <v>10228.5694</v>
+        <v>59984.0839</v>
       </c>
       <c r="G150" t="n">
-        <v>38.28833333333338</v>
+        <v>38.26000000000004</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -5655,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
@@ -5672,31 +5660,31 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C151" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8128.0785</v>
+      </c>
+      <c r="G151" t="n">
+        <v>38.23500000000004</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
         <v>36.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>59984.0839</v>
-      </c>
-      <c r="G151" t="n">
-        <v>38.26000000000004</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>36.7</v>
       </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
@@ -5725,10 +5713,10 @@
         <v>36.5</v>
       </c>
       <c r="F152" t="n">
-        <v>8128.0785</v>
+        <v>4156.8924</v>
       </c>
       <c r="G152" t="n">
-        <v>38.23500000000004</v>
+        <v>38.20333333333338</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -5737,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
@@ -5754,22 +5742,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="C153" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="D153" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="E153" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="F153" t="n">
-        <v>4156.8924</v>
+        <v>45304.42044501</v>
       </c>
       <c r="G153" t="n">
-        <v>38.20333333333338</v>
+        <v>38.18166666666671</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -5795,31 +5783,31 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>38</v>
+      </c>
+      <c r="D154" t="n">
+        <v>38</v>
+      </c>
+      <c r="E154" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>70405.05460078</v>
+      </c>
+      <c r="G154" t="n">
+        <v>38.17500000000004</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
         <v>37.1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="F154" t="n">
-        <v>45304.42044501</v>
-      </c>
-      <c r="G154" t="n">
-        <v>38.18166666666671</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>36.5</v>
       </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
@@ -5836,19 +5824,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>36.9</v>
+        <v>38</v>
       </c>
       <c r="C155" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E155" t="n">
         <v>38</v>
       </c>
-      <c r="D155" t="n">
-        <v>38</v>
-      </c>
-      <c r="E155" t="n">
-        <v>36.9</v>
-      </c>
       <c r="F155" t="n">
-        <v>70405.05460078</v>
+        <v>58413.05998771</v>
       </c>
       <c r="G155" t="n">
         <v>38.17500000000004</v>
@@ -5860,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>37.1</v>
+        <v>38</v>
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
@@ -5877,30 +5865,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="C156" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>261.0966</v>
+      </c>
+      <c r="G156" t="n">
+        <v>38.16000000000005</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
         <v>38.3</v>
       </c>
-      <c r="D156" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>38</v>
-      </c>
-      <c r="F156" t="n">
-        <v>58413.05998771</v>
-      </c>
-      <c r="G156" t="n">
-        <v>38.17500000000004</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -5916,30 +5906,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14250.7354</v>
+      </c>
+      <c r="G157" t="n">
+        <v>38.13500000000004</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>37.8</v>
       </c>
-      <c r="C157" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>261.0966</v>
-      </c>
-      <c r="G157" t="n">
-        <v>38.16000000000005</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -5967,18 +5959,20 @@
         <v>37.1</v>
       </c>
       <c r="F158" t="n">
-        <v>14250.7354</v>
+        <v>11792.5565</v>
       </c>
       <c r="G158" t="n">
-        <v>38.13500000000004</v>
+        <v>38.10333333333337</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>37.1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -5994,30 +5988,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="C159" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>37</v>
+      </c>
+      <c r="F159" t="n">
+        <v>122827.47567581</v>
+      </c>
+      <c r="G159" t="n">
+        <v>38.09166666666671</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
         <v>37.1</v>
       </c>
-      <c r="D159" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>11792.5565</v>
-      </c>
-      <c r="G159" t="n">
-        <v>38.10333333333337</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6033,30 +6029,32 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>38.4</v>
       </c>
       <c r="C160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E160" t="n">
         <v>38.4</v>
       </c>
-      <c r="D160" t="n">
+      <c r="F160" t="n">
+        <v>80403.44894261</v>
+      </c>
+      <c r="G160" t="n">
+        <v>38.08500000000004</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
         <v>38.4</v>
       </c>
-      <c r="E160" t="n">
-        <v>37</v>
-      </c>
-      <c r="F160" t="n">
-        <v>122827.47567581</v>
-      </c>
-      <c r="G160" t="n">
-        <v>38.09166666666671</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6072,30 +6070,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C161" t="n">
+        <v>39</v>
+      </c>
+      <c r="D161" t="n">
+        <v>39</v>
+      </c>
+      <c r="E161" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>62502.68394739</v>
+      </c>
+      <c r="G161" t="n">
+        <v>38.08666666666671</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
         <v>38.9</v>
       </c>
-      <c r="D161" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>80403.44894261</v>
-      </c>
-      <c r="G161" t="n">
-        <v>38.08500000000004</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6111,22 +6111,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="C162" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="D162" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E162" t="n">
-        <v>38.5</v>
+        <v>37.8</v>
       </c>
       <c r="F162" t="n">
-        <v>62502.68394739</v>
+        <v>200299.00422937</v>
       </c>
       <c r="G162" t="n">
-        <v>38.08666666666671</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6150,22 +6150,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C163" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D163" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="E163" t="n">
-        <v>37.8</v>
+        <v>39</v>
       </c>
       <c r="F163" t="n">
-        <v>200299.00422937</v>
+        <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>38.08500000000004</v>
+        <v>38.08333333333337</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6189,22 +6189,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C164" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="D164" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="E164" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>187455.90744655</v>
       </c>
       <c r="G164" t="n">
-        <v>38.08333333333337</v>
+        <v>38.07000000000004</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6228,22 +6228,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>38.9</v>
+        <v>39.6</v>
       </c>
       <c r="C165" t="n">
-        <v>38.5</v>
+        <v>39.6</v>
       </c>
       <c r="D165" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="E165" t="n">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="F165" t="n">
-        <v>187455.90744655</v>
+        <v>2254.87039141</v>
       </c>
       <c r="G165" t="n">
-        <v>38.07000000000004</v>
+        <v>38.07500000000003</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6267,22 +6267,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="C166" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="D166" t="n">
         <v>39.6</v>
       </c>
       <c r="E166" t="n">
-        <v>39.5</v>
+        <v>37.4</v>
       </c>
       <c r="F166" t="n">
-        <v>2254.87039141</v>
+        <v>155984.43713535</v>
       </c>
       <c r="G166" t="n">
-        <v>38.07500000000003</v>
+        <v>38.08666666666669</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6306,22 +6306,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C167" t="n">
         <v>39.4</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>39.5</v>
       </c>
-      <c r="D167" t="n">
-        <v>39.6</v>
-      </c>
       <c r="E167" t="n">
-        <v>37.4</v>
+        <v>39.4</v>
       </c>
       <c r="F167" t="n">
-        <v>155984.43713535</v>
+        <v>20</v>
       </c>
       <c r="G167" t="n">
-        <v>38.08666666666669</v>
+        <v>38.09666666666669</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6345,22 +6345,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="C168" t="n">
-        <v>39.4</v>
+        <v>37.8</v>
       </c>
       <c r="D168" t="n">
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="E168" t="n">
-        <v>39.4</v>
+        <v>37.8</v>
       </c>
       <c r="F168" t="n">
-        <v>20</v>
+        <v>1274.6315</v>
       </c>
       <c r="G168" t="n">
-        <v>38.09666666666669</v>
+        <v>38.08000000000003</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6384,22 +6384,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>38</v>
+        <v>39.1</v>
       </c>
       <c r="C169" t="n">
-        <v>37.8</v>
+        <v>39.1</v>
       </c>
       <c r="D169" t="n">
-        <v>38</v>
+        <v>39.1</v>
       </c>
       <c r="E169" t="n">
-        <v>37.8</v>
+        <v>39.1</v>
       </c>
       <c r="F169" t="n">
-        <v>1274.6315</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
-        <v>38.08000000000003</v>
+        <v>38.08500000000002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6423,16 +6423,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="C170" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="D170" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="E170" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="F170" t="n">
         <v>10</v>
@@ -6462,22 +6462,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="C171" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D171" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E171" t="n">
-        <v>38.8</v>
+        <v>37.8</v>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>3853.6156</v>
       </c>
       <c r="G171" t="n">
-        <v>38.08500000000002</v>
+        <v>38.08333333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6501,22 +6501,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>37.9</v>
+        <v>38.6</v>
       </c>
       <c r="C172" t="n">
-        <v>38.7</v>
+        <v>39.3</v>
       </c>
       <c r="D172" t="n">
-        <v>38.7</v>
+        <v>39.3</v>
       </c>
       <c r="E172" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="F172" t="n">
-        <v>3853.6156</v>
+        <v>199602.80645493</v>
       </c>
       <c r="G172" t="n">
-        <v>38.08333333333335</v>
+        <v>38.09166666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6540,22 +6540,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>38.6</v>
+        <v>39.3</v>
       </c>
       <c r="C173" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="D173" t="n">
         <v>39.3</v>
       </c>
       <c r="E173" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="F173" t="n">
-        <v>199602.80645493</v>
+        <v>238294.4746</v>
       </c>
       <c r="G173" t="n">
-        <v>38.09166666666668</v>
+        <v>38.09500000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6579,22 +6579,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
       <c r="C174" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="D174" t="n">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
       <c r="E174" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="F174" t="n">
-        <v>238294.4746</v>
+        <v>90939.4375</v>
       </c>
       <c r="G174" t="n">
-        <v>38.09500000000002</v>
+        <v>38.09000000000002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6618,22 +6618,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="C175" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="D175" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="E175" t="n">
-        <v>37.8</v>
+        <v>36.7</v>
       </c>
       <c r="F175" t="n">
-        <v>90939.4375</v>
+        <v>217783.27572762</v>
       </c>
       <c r="G175" t="n">
-        <v>38.09000000000002</v>
+        <v>38.10000000000003</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6657,22 +6657,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="C176" t="n">
-        <v>39.3</v>
+        <v>37.8</v>
       </c>
       <c r="D176" t="n">
-        <v>39.3</v>
+        <v>37.8</v>
       </c>
       <c r="E176" t="n">
-        <v>36.7</v>
+        <v>37.8</v>
       </c>
       <c r="F176" t="n">
-        <v>217783.27572762</v>
+        <v>584.2592</v>
       </c>
       <c r="G176" t="n">
-        <v>38.10000000000003</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6708,10 +6708,10 @@
         <v>37.8</v>
       </c>
       <c r="F177" t="n">
-        <v>584.2592</v>
+        <v>71889.2328</v>
       </c>
       <c r="G177" t="n">
-        <v>38.08500000000004</v>
+        <v>38.06833333333337</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6730,45 +6730,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D178" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>71889.2328</v>
-      </c>
-      <c r="G178" t="n">
-        <v>38.06833333333337</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="C2" t="n">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="D2" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E2" t="n">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="F2" t="n">
-        <v>4616.3091</v>
+        <v>56343.65878168</v>
       </c>
       <c r="G2" t="n">
-        <v>35.40333333333331</v>
+        <v>35.30499999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C3" t="n">
         <v>38.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D3" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E3" t="n">
         <v>38.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>38.3</v>
-      </c>
       <c r="F3" t="n">
-        <v>9332.308199999999</v>
+        <v>4616.3091</v>
       </c>
       <c r="G3" t="n">
-        <v>35.50999999999998</v>
+        <v>35.40333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>38.3</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="E4" t="n">
-        <v>39.1</v>
+        <v>38.3</v>
       </c>
       <c r="F4" t="n">
-        <v>76599.30708925</v>
+        <v>9332.308199999999</v>
       </c>
       <c r="G4" t="n">
-        <v>35.63499999999998</v>
+        <v>35.50999999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C5" t="n">
         <v>40</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39.9</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>39.9</v>
+        <v>39.1</v>
       </c>
       <c r="F5" t="n">
-        <v>7556.7375</v>
+        <v>76599.30708925</v>
       </c>
       <c r="G5" t="n">
-        <v>35.75833333333332</v>
+        <v>35.63499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="D6" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="F6" t="n">
-        <v>51096.5501</v>
+        <v>7556.7375</v>
       </c>
       <c r="G6" t="n">
-        <v>35.85833333333332</v>
+        <v>35.75833333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.5</v>
+        <v>39.6</v>
       </c>
       <c r="C7" t="n">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5</v>
+        <v>39.6</v>
       </c>
       <c r="E7" t="n">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
       <c r="F7" t="n">
-        <v>7164.6753</v>
+        <v>51096.5501</v>
       </c>
       <c r="G7" t="n">
-        <v>35.96833333333332</v>
+        <v>35.85833333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="E8" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="F8" t="n">
-        <v>199758.84459104</v>
+        <v>7164.6753</v>
       </c>
       <c r="G8" t="n">
-        <v>36.10499999999998</v>
+        <v>35.96833333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C9" t="n">
         <v>40.1</v>
       </c>
-      <c r="C9" t="n">
-        <v>40.7</v>
-      </c>
       <c r="D9" t="n">
-        <v>41.4</v>
+        <v>40.1</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="F9" t="n">
-        <v>253282.41317447</v>
+        <v>199758.84459104</v>
       </c>
       <c r="G9" t="n">
-        <v>36.25166666666664</v>
+        <v>36.10499999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2</v>
+        <v>40.1</v>
       </c>
       <c r="C10" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="D10" t="n">
         <v>41.4</v>
       </c>
       <c r="E10" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>107154.43902028</v>
+        <v>253282.41317447</v>
       </c>
       <c r="G10" t="n">
-        <v>36.39833333333331</v>
+        <v>36.25166666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C11" t="n">
         <v>41.3</v>
       </c>
-      <c r="C11" t="n">
-        <v>41.5</v>
-      </c>
       <c r="D11" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E11" t="n">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="F11" t="n">
-        <v>223980.59732784</v>
+        <v>107154.43902028</v>
       </c>
       <c r="G11" t="n">
-        <v>36.54666666666665</v>
+        <v>36.39833333333331</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="D12" t="n">
         <v>41.5</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="F12" t="n">
-        <v>22690.3373</v>
+        <v>223980.59732784</v>
       </c>
       <c r="G12" t="n">
-        <v>36.68666666666665</v>
+        <v>36.54666666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,25 +821,25 @@
         <v>41.4</v>
       </c>
       <c r="C13" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="E13" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>104026.47043497</v>
+        <v>22690.3373</v>
       </c>
       <c r="G13" t="n">
-        <v>36.81999999999998</v>
+        <v>36.68666666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="C14" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="D14" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="E14" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F14" t="n">
-        <v>232978.00945072</v>
+        <v>104026.47043497</v>
       </c>
       <c r="G14" t="n">
-        <v>36.96666666666665</v>
+        <v>36.81999999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="C15" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="D15" t="n">
         <v>41.4</v>
@@ -900,10 +900,10 @@
         <v>40.1</v>
       </c>
       <c r="F15" t="n">
-        <v>116682.53923341</v>
+        <v>232978.00945072</v>
       </c>
       <c r="G15" t="n">
-        <v>37.11166666666666</v>
+        <v>36.96666666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,25 +926,25 @@
         <v>40.4</v>
       </c>
       <c r="C16" t="n">
-        <v>40.1</v>
+        <v>41.3</v>
       </c>
       <c r="D16" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="E16" t="n">
         <v>40.1</v>
       </c>
       <c r="F16" t="n">
-        <v>54431.817</v>
+        <v>116682.53923341</v>
       </c>
       <c r="G16" t="n">
-        <v>37.23666666666666</v>
+        <v>37.11166666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C17" t="n">
         <v>40.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>41.3</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>40.1</v>
       </c>
       <c r="F17" t="n">
-        <v>116342.2227</v>
+        <v>54431.817</v>
       </c>
       <c r="G17" t="n">
-        <v>37.34499999999999</v>
+        <v>37.23666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C18" t="n">
         <v>39</v>
       </c>
-      <c r="C18" t="n">
-        <v>38.7</v>
-      </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>41.3</v>
       </c>
       <c r="E18" t="n">
-        <v>38.1</v>
+        <v>39</v>
       </c>
       <c r="F18" t="n">
-        <v>525375.0274418</v>
+        <v>116342.2227</v>
       </c>
       <c r="G18" t="n">
-        <v>37.44666666666665</v>
+        <v>37.34499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>38.7</v>
       </c>
       <c r="D19" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="F19" t="n">
-        <v>188996.6405</v>
+        <v>525375.0274418</v>
       </c>
       <c r="G19" t="n">
-        <v>37.57999999999999</v>
+        <v>37.44666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>41.5</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>41.3</v>
+        <v>41.8</v>
       </c>
       <c r="E20" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="F20" t="n">
-        <v>512256.12140764</v>
+        <v>188996.6405</v>
       </c>
       <c r="G20" t="n">
-        <v>37.72333333333332</v>
+        <v>37.57999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.5</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>37.8</v>
+        <v>40.6</v>
       </c>
       <c r="D21" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="E21" t="n">
-        <v>36.4</v>
+        <v>38.3</v>
       </c>
       <c r="F21" t="n">
-        <v>791735.1452</v>
+        <v>512256.12140764</v>
       </c>
       <c r="G21" t="n">
-        <v>37.82166666666665</v>
+        <v>37.72333333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>40.5</v>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>37.8</v>
       </c>
       <c r="D22" t="n">
-        <v>39.1</v>
+        <v>40.6</v>
       </c>
       <c r="E22" t="n">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="F22" t="n">
-        <v>295185.2788</v>
+        <v>791735.1452</v>
       </c>
       <c r="G22" t="n">
-        <v>37.91833333333332</v>
+        <v>37.82166666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="E23" t="n">
-        <v>38.5</v>
+        <v>37.4</v>
       </c>
       <c r="F23" t="n">
-        <v>71528.7325</v>
+        <v>295185.2788</v>
       </c>
       <c r="G23" t="n">
-        <v>38.04499999999999</v>
+        <v>37.91833333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39.2</v>
+        <v>38.5</v>
       </c>
       <c r="C24" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="D24" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="E24" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="F24" t="n">
-        <v>230266.54725396</v>
+        <v>71528.7325</v>
       </c>
       <c r="G24" t="n">
-        <v>38.16166666666665</v>
+        <v>38.04499999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>39.2</v>
       </c>
       <c r="C25" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="D25" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="E25" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="F25" t="n">
-        <v>28635.47787493</v>
+        <v>230266.54725396</v>
       </c>
       <c r="G25" t="n">
-        <v>38.27166666666665</v>
+        <v>38.16166666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="C26" t="n">
-        <v>38.3</v>
+        <v>39.7</v>
       </c>
       <c r="D26" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="E26" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="F26" t="n">
-        <v>237894.2505</v>
+        <v>28635.47787493</v>
       </c>
       <c r="G26" t="n">
-        <v>38.35833333333333</v>
+        <v>38.27166666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38.2</v>
+        <v>39.6</v>
       </c>
       <c r="C27" t="n">
-        <v>39.9</v>
+        <v>38.3</v>
       </c>
       <c r="D27" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="E27" t="n">
-        <v>37.6</v>
+        <v>38.3</v>
       </c>
       <c r="F27" t="n">
-        <v>458572.42980122</v>
+        <v>237894.2505</v>
       </c>
       <c r="G27" t="n">
-        <v>38.48999999999999</v>
+        <v>38.35833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.4</v>
+        <v>38.2</v>
       </c>
       <c r="C28" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="D28" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="E28" t="n">
-        <v>39.2</v>
+        <v>37.6</v>
       </c>
       <c r="F28" t="n">
-        <v>12074.0652</v>
+        <v>458572.42980122</v>
       </c>
       <c r="G28" t="n">
-        <v>38.59333333333333</v>
+        <v>38.48999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="C29" t="n">
-        <v>38.3</v>
+        <v>39.2</v>
       </c>
       <c r="D29" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="E29" t="n">
-        <v>38.2</v>
+        <v>39.2</v>
       </c>
       <c r="F29" t="n">
-        <v>247224.86238988</v>
+        <v>12074.0652</v>
       </c>
       <c r="G29" t="n">
-        <v>38.69833333333333</v>
+        <v>38.59333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="C30" t="n">
-        <v>39.1</v>
+        <v>38.3</v>
       </c>
       <c r="D30" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="E30" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="F30" t="n">
-        <v>28955.68852634</v>
+        <v>247224.86238988</v>
       </c>
       <c r="G30" t="n">
-        <v>38.77499999999999</v>
+        <v>38.69833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="C31" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="D31" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="E31" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="F31" t="n">
-        <v>28363.7017</v>
+        <v>28955.68852634</v>
       </c>
       <c r="G31" t="n">
-        <v>38.83166666666666</v>
+        <v>38.77499999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.2</v>
+        <v>38.9</v>
       </c>
       <c r="C32" t="n">
-        <v>37.5</v>
+        <v>38.9</v>
       </c>
       <c r="D32" t="n">
-        <v>38.2</v>
+        <v>38.9</v>
       </c>
       <c r="E32" t="n">
-        <v>37.2</v>
+        <v>38.9</v>
       </c>
       <c r="F32" t="n">
-        <v>145274.6708</v>
+        <v>28363.7017</v>
       </c>
       <c r="G32" t="n">
-        <v>38.86499999999999</v>
+        <v>38.83166666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C33" t="n">
         <v>37.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>37.9</v>
-      </c>
       <c r="D33" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E33" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="F33" t="n">
-        <v>161725.775</v>
+        <v>145274.6708</v>
       </c>
       <c r="G33" t="n">
-        <v>38.90166666666666</v>
+        <v>38.86499999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>37.5</v>
       </c>
       <c r="C34" t="n">
-        <v>37.1</v>
+        <v>37.9</v>
       </c>
       <c r="D34" t="n">
-        <v>37.5</v>
+        <v>38.3</v>
       </c>
       <c r="E34" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="F34" t="n">
-        <v>54852.0855</v>
+        <v>161725.775</v>
       </c>
       <c r="G34" t="n">
-        <v>38.93666666666666</v>
+        <v>38.90166666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C35" t="n">
         <v>37.1</v>
       </c>
-      <c r="C35" t="n">
-        <v>36.5</v>
-      </c>
       <c r="D35" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E35" t="n">
         <v>37.1</v>
       </c>
-      <c r="E35" t="n">
-        <v>36.4</v>
-      </c>
       <c r="F35" t="n">
-        <v>61357.1426</v>
+        <v>54852.0855</v>
       </c>
       <c r="G35" t="n">
-        <v>38.91</v>
+        <v>38.93666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.6</v>
+        <v>37.1</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E36" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F36" t="n">
-        <v>87514.0793</v>
+        <v>61357.1426</v>
       </c>
       <c r="G36" t="n">
-        <v>38.94</v>
+        <v>38.91</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,31 +1658,35 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C37" t="n">
         <v>37</v>
       </c>
-      <c r="C37" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D37" t="n">
-        <v>38.2</v>
+        <v>37</v>
       </c>
       <c r="E37" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="F37" t="n">
-        <v>713980.07380338</v>
+        <v>87514.0793</v>
       </c>
       <c r="G37" t="n">
-        <v>38.95333333333333</v>
+        <v>38.94</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
@@ -1693,32 +1697,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>38.4</v>
+        <v>36.2</v>
       </c>
       <c r="D38" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E38" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="F38" t="n">
-        <v>1766477.39972362</v>
+        <v>713980.07380338</v>
       </c>
       <c r="G38" t="n">
-        <v>39.00333333333333</v>
+        <v>38.95333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>37</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,32 +1740,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="C39" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="D39" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E39" t="n">
-        <v>36.9</v>
+        <v>35.9</v>
       </c>
       <c r="F39" t="n">
-        <v>612652.7502475301</v>
+        <v>1766477.39972362</v>
       </c>
       <c r="G39" t="n">
-        <v>39.05499999999999</v>
+        <v>39.00333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1783,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="C40" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D40" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E40" t="n">
-        <v>37.5</v>
+        <v>36.9</v>
       </c>
       <c r="F40" t="n">
-        <v>176918.14913726</v>
+        <v>612652.7502475301</v>
       </c>
       <c r="G40" t="n">
-        <v>39.1</v>
+        <v>39.05499999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1807,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1824,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38.2</v>
+        <v>37.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D41" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E41" t="n">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="F41" t="n">
-        <v>213850.14906483</v>
+        <v>176918.14913726</v>
       </c>
       <c r="G41" t="n">
-        <v>39.13666666666666</v>
+        <v>39.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1848,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1865,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="C42" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="D42" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E42" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F42" t="n">
-        <v>10491.1379</v>
+        <v>213850.14906483</v>
       </c>
       <c r="G42" t="n">
-        <v>39.14333333333333</v>
+        <v>39.13666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1889,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1871,16 +1909,16 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="D43" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="E43" t="n">
-        <v>37.9</v>
+        <v>37.4</v>
       </c>
       <c r="F43" t="n">
-        <v>81365.1076</v>
+        <v>10491.1379</v>
       </c>
       <c r="G43" t="n">
         <v>39.14333333333333</v>
@@ -1892,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1947,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D44" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E44" t="n">
         <v>37.9</v>
       </c>
       <c r="F44" t="n">
-        <v>27479.09925613</v>
+        <v>81365.1076</v>
       </c>
       <c r="G44" t="n">
-        <v>39.145</v>
+        <v>39.14333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +1971,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1988,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="C45" t="n">
-        <v>37.3</v>
+        <v>38.3</v>
       </c>
       <c r="D45" t="n">
         <v>38.3</v>
       </c>
       <c r="E45" t="n">
-        <v>37.2</v>
+        <v>37.9</v>
       </c>
       <c r="F45" t="n">
-        <v>293367.86080587</v>
+        <v>27479.09925613</v>
       </c>
       <c r="G45" t="n">
-        <v>39.11000000000001</v>
+        <v>39.145</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2029,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="C46" t="n">
-        <v>38.4</v>
+        <v>37.3</v>
       </c>
       <c r="D46" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="E46" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="F46" t="n">
-        <v>82962.17905727999</v>
+        <v>293367.86080587</v>
       </c>
       <c r="G46" t="n">
-        <v>39.09333333333334</v>
+        <v>39.11000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2053,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2070,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="C47" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E47" t="n">
         <v>38</v>
       </c>
-      <c r="D47" t="n">
-        <v>38</v>
-      </c>
-      <c r="E47" t="n">
-        <v>37.3</v>
-      </c>
       <c r="F47" t="n">
-        <v>73</v>
+        <v>82962.17905727999</v>
       </c>
       <c r="G47" t="n">
-        <v>39.06333333333334</v>
+        <v>39.09333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2111,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C48" t="n">
         <v>38</v>
       </c>
-      <c r="C48" t="n">
-        <v>37.7</v>
-      </c>
       <c r="D48" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="E48" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="F48" t="n">
-        <v>34756.57051852</v>
+        <v>73</v>
       </c>
       <c r="G48" t="n">
-        <v>39.03</v>
+        <v>39.06333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,7 +2155,7 @@
         <v>38</v>
       </c>
       <c r="C49" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="D49" t="n">
         <v>38.3</v>
@@ -2090,10 +2164,10 @@
         <v>37.7</v>
       </c>
       <c r="F49" t="n">
-        <v>76655.36159320999</v>
+        <v>34756.57051852</v>
       </c>
       <c r="G49" t="n">
-        <v>38.99833333333333</v>
+        <v>39.03</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2176,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2193,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n">
-        <v>38.8</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="E50" t="n">
         <v>37.7</v>
       </c>
       <c r="F50" t="n">
-        <v>170139.4495709</v>
+        <v>76655.36159320999</v>
       </c>
       <c r="G50" t="n">
-        <v>38.97833333333334</v>
+        <v>38.99833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2217,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2234,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38.9</v>
+        <v>37.7</v>
       </c>
       <c r="C51" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="D51" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="E51" t="n">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="F51" t="n">
-        <v>56778.5026378</v>
+        <v>170139.4495709</v>
       </c>
       <c r="G51" t="n">
-        <v>38.99166666666667</v>
+        <v>38.97833333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="C52" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="D52" t="n">
-        <v>38.6</v>
+        <v>39.1</v>
       </c>
       <c r="E52" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="F52" t="n">
-        <v>1225.4434</v>
+        <v>56778.5026378</v>
       </c>
       <c r="G52" t="n">
-        <v>38.99333333333334</v>
+        <v>38.99166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2299,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2316,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C53" t="n">
-        <v>38.9</v>
+        <v>38.3</v>
       </c>
       <c r="D53" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="E53" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="F53" t="n">
-        <v>20953.24191979</v>
+        <v>1225.4434</v>
       </c>
       <c r="G53" t="n">
-        <v>38.97666666666667</v>
+        <v>38.99333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2340,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2357,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C54" t="n">
         <v>38.9</v>
@@ -2262,13 +2366,13 @@
         <v>38.9</v>
       </c>
       <c r="E54" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F54" t="n">
-        <v>55</v>
+        <v>20953.24191979</v>
       </c>
       <c r="G54" t="n">
-        <v>38.96500000000001</v>
+        <v>38.97666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2398,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="C55" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="D55" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="E55" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="F55" t="n">
-        <v>79712.44215488</v>
+        <v>55</v>
       </c>
       <c r="G55" t="n">
-        <v>38.95666666666668</v>
+        <v>38.96500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2439,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="C56" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="D56" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="E56" t="n">
-        <v>39</v>
+        <v>38.4</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>79712.44215488</v>
       </c>
       <c r="G56" t="n">
-        <v>38.95333333333335</v>
+        <v>38.95666666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2463,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2480,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="D57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="E57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="F57" t="n">
-        <v>386.6196</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>38.96000000000002</v>
+        <v>38.95333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2504,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2396,19 +2524,19 @@
         <v>38.5</v>
       </c>
       <c r="C58" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="D58" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="E58" t="n">
         <v>38.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1054.9172</v>
+        <v>386.6196</v>
       </c>
       <c r="G58" t="n">
-        <v>38.93500000000002</v>
+        <v>38.96000000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2545,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2562,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="C59" t="n">
         <v>38.6</v>
       </c>
       <c r="D59" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="E59" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F59" t="n">
-        <v>2939.3556</v>
+        <v>1054.9172</v>
       </c>
       <c r="G59" t="n">
-        <v>38.92000000000001</v>
+        <v>38.93500000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2586,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2603,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="C60" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="D60" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="E60" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>2939.3556</v>
       </c>
       <c r="G60" t="n">
-        <v>38.90166666666668</v>
+        <v>38.92000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2627,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2644,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="C61" t="n">
         <v>38.5</v>
       </c>
       <c r="D61" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="E61" t="n">
         <v>38.5</v>
       </c>
       <c r="F61" t="n">
-        <v>39780.6196</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>38.88666666666668</v>
+        <v>38.90166666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2668,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,19 +2685,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C62" t="n">
         <v>38.5</v>
       </c>
-      <c r="C62" t="n">
-        <v>38.4</v>
-      </c>
       <c r="D62" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E62" t="n">
         <v>38.5</v>
       </c>
-      <c r="E62" t="n">
-        <v>38.4</v>
-      </c>
       <c r="F62" t="n">
-        <v>36836.4827</v>
+        <v>39780.6196</v>
       </c>
       <c r="G62" t="n">
         <v>38.88666666666668</v>
@@ -2557,8 +2709,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2726,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="C63" t="n">
-        <v>37.7</v>
+        <v>38.4</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="E63" t="n">
-        <v>37.7</v>
+        <v>38.4</v>
       </c>
       <c r="F63" t="n">
-        <v>34214.284</v>
+        <v>36836.4827</v>
       </c>
       <c r="G63" t="n">
-        <v>38.87666666666667</v>
+        <v>38.88666666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2750,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2767,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="C64" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="D64" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>36.3</v>
+        <v>37.7</v>
       </c>
       <c r="F64" t="n">
-        <v>200346.52829761</v>
+        <v>34214.284</v>
       </c>
       <c r="G64" t="n">
-        <v>38.84166666666668</v>
+        <v>38.87666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2791,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2808,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="C65" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="D65" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="E65" t="n">
-        <v>37.1</v>
+        <v>36.3</v>
       </c>
       <c r="F65" t="n">
-        <v>275112.02764118</v>
+        <v>200346.52829761</v>
       </c>
       <c r="G65" t="n">
-        <v>38.82000000000001</v>
+        <v>38.84166666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2832,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2849,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="C66" t="n">
-        <v>37.4</v>
+        <v>38.6</v>
       </c>
       <c r="D66" t="n">
-        <v>37.4</v>
+        <v>38.6</v>
       </c>
       <c r="E66" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>275112.02764118</v>
       </c>
       <c r="G66" t="n">
-        <v>38.81166666666667</v>
+        <v>38.82000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2873,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2890,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38.2</v>
+        <v>37.2</v>
       </c>
       <c r="C67" t="n">
         <v>37.4</v>
       </c>
       <c r="D67" t="n">
-        <v>38.2</v>
+        <v>37.4</v>
       </c>
       <c r="E67" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>38.79333333333334</v>
+        <v>38.81166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2914,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2931,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>37.3</v>
+        <v>38.2</v>
       </c>
       <c r="C68" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="D68" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="E68" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F68" t="n">
-        <v>4102.2917</v>
+        <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>38.75166666666667</v>
+        <v>38.79333333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2955,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2972,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>37.8</v>
+        <v>37.3</v>
       </c>
       <c r="C69" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="D69" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="E69" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>4102.2917</v>
       </c>
       <c r="G69" t="n">
-        <v>38.69666666666668</v>
+        <v>38.75166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2996,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,10 +3013,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C70" t="n">
         <v>37.4</v>
-      </c>
-      <c r="C70" t="n">
-        <v>37.8</v>
       </c>
       <c r="D70" t="n">
         <v>37.8</v>
@@ -2825,10 +3025,10 @@
         <v>37.4</v>
       </c>
       <c r="F70" t="n">
-        <v>28913.9658</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>38.63833333333334</v>
+        <v>38.69666666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3037,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3054,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C71" t="n">
         <v>37.8</v>
       </c>
-      <c r="C71" t="n">
-        <v>37.3</v>
-      </c>
       <c r="D71" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="E71" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F71" t="n">
-        <v>52010.1663</v>
+        <v>28913.9658</v>
       </c>
       <c r="G71" t="n">
-        <v>38.56833333333335</v>
+        <v>38.63833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3078,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3095,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="C72" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="D72" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="E72" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F72" t="n">
-        <v>44</v>
+        <v>52010.1663</v>
       </c>
       <c r="G72" t="n">
-        <v>38.50833333333335</v>
+        <v>38.56833333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3119,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3136,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="C73" t="n">
-        <v>38</v>
+        <v>37.4</v>
       </c>
       <c r="D73" t="n">
-        <v>38.2</v>
+        <v>37.4</v>
       </c>
       <c r="E73" t="n">
         <v>37.4</v>
       </c>
       <c r="F73" t="n">
-        <v>199341.12668166</v>
+        <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>38.46500000000002</v>
+        <v>38.50833333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3160,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3177,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C74" t="n">
         <v>38</v>
       </c>
-      <c r="C74" t="n">
-        <v>37.4</v>
-      </c>
       <c r="D74" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E74" t="n">
         <v>37.4</v>
       </c>
       <c r="F74" t="n">
-        <v>1082.52631578</v>
+        <v>199341.12668166</v>
       </c>
       <c r="G74" t="n">
-        <v>38.39833333333335</v>
+        <v>38.46500000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3201,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3218,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C75" t="n">
         <v>37.4</v>
       </c>
       <c r="D75" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E75" t="n">
         <v>37.4</v>
       </c>
       <c r="F75" t="n">
-        <v>2005.4881</v>
+        <v>1082.52631578</v>
       </c>
       <c r="G75" t="n">
-        <v>38.33333333333335</v>
+        <v>38.39833333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3242,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3259,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="C76" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="D76" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="E76" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="F76" t="n">
-        <v>16571.59226931</v>
+        <v>2005.4881</v>
       </c>
       <c r="G76" t="n">
-        <v>38.29500000000002</v>
+        <v>38.33333333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3283,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3300,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C77" t="n">
         <v>37.8</v>
       </c>
-      <c r="C77" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D77" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="E77" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="F77" t="n">
-        <v>98793.33222916001</v>
+        <v>16571.59226931</v>
       </c>
       <c r="G77" t="n">
-        <v>38.28333333333335</v>
+        <v>38.29500000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3341,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="C78" t="n">
-        <v>37.6</v>
+        <v>38.3</v>
       </c>
       <c r="D78" t="n">
-        <v>37.6</v>
+        <v>38.3</v>
       </c>
       <c r="E78" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>98793.33222916001</v>
       </c>
       <c r="G78" t="n">
-        <v>38.26500000000002</v>
+        <v>38.28333333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3365,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3382,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="F79" t="n">
-        <v>2274.6842</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>38.23166666666669</v>
+        <v>38.26500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3406,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3423,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="C80" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>38</v>
       </c>
       <c r="E80" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="F80" t="n">
-        <v>33020</v>
+        <v>2274.6842</v>
       </c>
       <c r="G80" t="n">
-        <v>38.18166666666669</v>
+        <v>38.23166666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3447,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3464,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="C81" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="D81" t="n">
         <v>38</v>
       </c>
       <c r="E81" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="F81" t="n">
-        <v>6758.9026</v>
+        <v>33020</v>
       </c>
       <c r="G81" t="n">
-        <v>38.18500000000002</v>
+        <v>38.18166666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3505,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="C82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="E82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F82" t="n">
-        <v>15780.7472</v>
+        <v>6758.9026</v>
       </c>
       <c r="G82" t="n">
-        <v>38.17000000000002</v>
+        <v>38.18500000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3529,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3546,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="C83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="E83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F83" t="n">
-        <v>2814.3775</v>
+        <v>15780.7472</v>
       </c>
       <c r="G83" t="n">
-        <v>38.14166666666669</v>
+        <v>38.17000000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3587,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>2814.3775</v>
       </c>
       <c r="G84" t="n">
-        <v>38.10166666666669</v>
+        <v>38.14166666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3628,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="C85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="D85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="E85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="F85" t="n">
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>38.07166666666669</v>
+        <v>38.10166666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3669,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C86" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="D86" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="E86" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F86" t="n">
-        <v>21215.9723</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>38.06833333333336</v>
+        <v>38.07166666666669</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3710,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="C87" t="n">
         <v>38.1</v>
@@ -3417,13 +3719,13 @@
         <v>38.1</v>
       </c>
       <c r="E87" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F87" t="n">
-        <v>10360.4305</v>
+        <v>21215.9723</v>
       </c>
       <c r="G87" t="n">
-        <v>38.03833333333335</v>
+        <v>38.06833333333336</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3751,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="C88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="D88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="E88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1531.6493</v>
+        <v>10360.4305</v>
       </c>
       <c r="G88" t="n">
-        <v>38.01666666666669</v>
+        <v>38.03833333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3775,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3792,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F89" t="n">
-        <v>683.5195</v>
+        <v>1531.6493</v>
       </c>
       <c r="G89" t="n">
-        <v>38.01166666666668</v>
+        <v>38.01666666666669</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3816,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3836,19 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="D90" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E90" t="n">
         <v>38</v>
       </c>
       <c r="F90" t="n">
-        <v>4453.1519</v>
+        <v>683.5195</v>
       </c>
       <c r="G90" t="n">
-        <v>37.99833333333336</v>
+        <v>38.01166666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3877,19 @@
         <v>38</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="E91" t="n">
         <v>38</v>
       </c>
       <c r="F91" t="n">
-        <v>1249.4928</v>
+        <v>4453.1519</v>
       </c>
       <c r="G91" t="n">
-        <v>37.98333333333336</v>
+        <v>37.99833333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3915,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="F92" t="n">
-        <v>38373.3854</v>
+        <v>1249.4928</v>
       </c>
       <c r="G92" t="n">
-        <v>37.99833333333336</v>
+        <v>37.98333333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3624,16 +3962,16 @@
         <v>38.4</v>
       </c>
       <c r="D93" t="n">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="E93" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="F93" t="n">
-        <v>16744.63748062</v>
+        <v>38373.3854</v>
       </c>
       <c r="G93" t="n">
-        <v>38.00666666666669</v>
+        <v>37.99833333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3659,16 +4003,16 @@
         <v>38.4</v>
       </c>
       <c r="D94" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
       <c r="E94" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F94" t="n">
-        <v>19799.622</v>
+        <v>16744.63748062</v>
       </c>
       <c r="G94" t="n">
-        <v>38.02833333333336</v>
+        <v>38.00666666666669</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +4038,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C95" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="D95" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="E95" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F95" t="n">
-        <v>25961.6187</v>
+        <v>19799.622</v>
       </c>
       <c r="G95" t="n">
-        <v>38.05833333333337</v>
+        <v>38.02833333333336</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +4062,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4079,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C96" t="n">
         <v>38.3</v>
       </c>
-      <c r="C96" t="n">
-        <v>38.7</v>
-      </c>
       <c r="D96" t="n">
-        <v>38.7</v>
+        <v>38.3</v>
       </c>
       <c r="E96" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="F96" t="n">
-        <v>26565.13865865</v>
+        <v>25961.6187</v>
       </c>
       <c r="G96" t="n">
-        <v>38.08666666666669</v>
+        <v>38.05833333333337</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4120,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C97" t="n">
         <v>38.7</v>
       </c>
-      <c r="C97" t="n">
-        <v>38.6</v>
-      </c>
       <c r="D97" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E97" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="F97" t="n">
-        <v>90373.51304135</v>
+        <v>26565.13865865</v>
       </c>
       <c r="G97" t="n">
-        <v>38.12666666666669</v>
+        <v>38.08666666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4161,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="C98" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="D98" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E98" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="F98" t="n">
-        <v>6665.5945</v>
+        <v>90373.51304135</v>
       </c>
       <c r="G98" t="n">
-        <v>38.13666666666669</v>
+        <v>38.12666666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3831,19 +4205,19 @@
         <v>39</v>
       </c>
       <c r="C99" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="D99" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="E99" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F99" t="n">
-        <v>65470.74883455</v>
+        <v>6665.5945</v>
       </c>
       <c r="G99" t="n">
-        <v>38.15166666666669</v>
+        <v>38.13666666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4243,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="C100" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="D100" t="n">
         <v>39.3</v>
       </c>
       <c r="E100" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="F100" t="n">
-        <v>605.5724244199999</v>
+        <v>65470.74883455</v>
       </c>
       <c r="G100" t="n">
-        <v>38.16833333333336</v>
+        <v>38.15166666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4267,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4284,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="C101" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="D101" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="E101" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="F101" t="n">
-        <v>28379.8578</v>
+        <v>605.5724244199999</v>
       </c>
       <c r="G101" t="n">
-        <v>38.18000000000004</v>
+        <v>38.16833333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4308,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4325,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="C102" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="D102" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="E102" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>28379.8578</v>
       </c>
       <c r="G102" t="n">
-        <v>38.20333333333337</v>
+        <v>38.18000000000004</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4366,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="C103" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="D103" t="n">
         <v>39.3</v>
       </c>
       <c r="E103" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="F103" t="n">
-        <v>205583.7608</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>38.21833333333337</v>
+        <v>38.20333333333337</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4407,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C104" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="D104" t="n">
         <v>39.3</v>
       </c>
       <c r="E104" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="F104" t="n">
-        <v>24730.9669</v>
+        <v>205583.7608</v>
       </c>
       <c r="G104" t="n">
-        <v>38.23500000000003</v>
+        <v>38.21833333333337</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4431,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4050,10 +4460,10 @@
         <v>39.3</v>
       </c>
       <c r="F105" t="n">
-        <v>21552.6463</v>
+        <v>24730.9669</v>
       </c>
       <c r="G105" t="n">
-        <v>38.26833333333337</v>
+        <v>38.23500000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4076,19 +4492,19 @@
         <v>39.3</v>
       </c>
       <c r="C106" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="D106" t="n">
         <v>39.3</v>
       </c>
       <c r="E106" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="F106" t="n">
-        <v>69787.13340000001</v>
+        <v>21552.6463</v>
       </c>
       <c r="G106" t="n">
-        <v>38.27500000000004</v>
+        <v>38.26833333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4513,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4530,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="C107" t="n">
         <v>38.8</v>
       </c>
       <c r="D107" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="E107" t="n">
         <v>38.8</v>
       </c>
       <c r="F107" t="n">
-        <v>677.3587</v>
+        <v>69787.13340000001</v>
       </c>
       <c r="G107" t="n">
-        <v>38.28833333333338</v>
+        <v>38.27500000000004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,10 +4583,10 @@
         <v>38.8</v>
       </c>
       <c r="F108" t="n">
-        <v>96.0668</v>
+        <v>677.3587</v>
       </c>
       <c r="G108" t="n">
-        <v>38.30666666666671</v>
+        <v>38.28833333333338</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4595,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,7 +4612,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C109" t="n">
         <v>38.8</v>
@@ -4187,13 +4621,13 @@
         <v>38.8</v>
       </c>
       <c r="E109" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F109" t="n">
-        <v>9029.933199999999</v>
+        <v>96.0668</v>
       </c>
       <c r="G109" t="n">
-        <v>38.32000000000005</v>
+        <v>38.30666666666671</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4225,7 +4665,7 @@
         <v>38.7</v>
       </c>
       <c r="F110" t="n">
-        <v>4428.4241</v>
+        <v>9029.933199999999</v>
       </c>
       <c r="G110" t="n">
         <v>38.32000000000005</v>
@@ -4237,8 +4677,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4694,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="C111" t="n">
         <v>38.8</v>
       </c>
       <c r="D111" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E111" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F111" t="n">
-        <v>42638.94594241</v>
+        <v>4428.4241</v>
       </c>
       <c r="G111" t="n">
-        <v>38.31500000000005</v>
+        <v>38.32000000000005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4735,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C112" t="n">
         <v>38.8</v>
       </c>
       <c r="D112" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E112" t="n">
         <v>38.8</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>42638.94594241</v>
       </c>
       <c r="G112" t="n">
-        <v>38.32333333333339</v>
+        <v>38.31500000000005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4759,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4321,19 +4779,19 @@
         <v>38.8</v>
       </c>
       <c r="C113" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D113" t="n">
         <v>38.8</v>
       </c>
       <c r="E113" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F113" t="n">
-        <v>5946.6374</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>38.32000000000005</v>
+        <v>38.32333333333339</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4800,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4817,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C114" t="n">
         <v>38.7</v>
       </c>
       <c r="D114" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E114" t="n">
         <v>38.7</v>
       </c>
       <c r="F114" t="n">
-        <v>843.4366</v>
+        <v>5946.6374</v>
       </c>
       <c r="G114" t="n">
-        <v>38.31666666666671</v>
+        <v>38.32000000000005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,10 +4870,10 @@
         <v>38.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2583.97932816</v>
+        <v>843.4366</v>
       </c>
       <c r="G115" t="n">
-        <v>38.31000000000004</v>
+        <v>38.31666666666671</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4911,10 @@
         <v>38.7</v>
       </c>
       <c r="F116" t="n">
-        <v>83832.96567183999</v>
+        <v>2583.97932816</v>
       </c>
       <c r="G116" t="n">
-        <v>38.30500000000004</v>
+        <v>38.31000000000004</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4923,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4940,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>83832.96567183999</v>
       </c>
       <c r="G117" t="n">
-        <v>38.31000000000004</v>
+        <v>38.30500000000004</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4981,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="C118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="D118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="E118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="F118" t="n">
-        <v>21275.8626</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>38.30833333333338</v>
+        <v>38.31000000000004</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +5022,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C119" t="n">
         <v>38.5</v>
       </c>
       <c r="D119" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E119" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="F119" t="n">
-        <v>85700.1197</v>
+        <v>21275.8626</v>
       </c>
       <c r="G119" t="n">
-        <v>38.30666666666671</v>
+        <v>38.30833333333338</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,19 +5063,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="C120" t="n">
         <v>38.5</v>
       </c>
       <c r="D120" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="E120" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="F120" t="n">
-        <v>259.948</v>
+        <v>85700.1197</v>
       </c>
       <c r="G120" t="n">
         <v>38.30666666666671</v>
@@ -4587,8 +5087,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +5104,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="D121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="E121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="F121" t="n">
-        <v>844.544</v>
+        <v>259.948</v>
       </c>
       <c r="G121" t="n">
-        <v>38.30500000000005</v>
+        <v>38.30666666666671</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +5128,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4636,19 +5148,19 @@
         <v>38.4</v>
       </c>
       <c r="C122" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="D122" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="E122" t="n">
         <v>38.4</v>
       </c>
       <c r="F122" t="n">
-        <v>11114.1474</v>
+        <v>844.544</v>
       </c>
       <c r="G122" t="n">
-        <v>38.30833333333338</v>
+        <v>38.30500000000005</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +5169,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +5186,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="C123" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="D123" t="n">
         <v>38.8</v>
       </c>
       <c r="E123" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>11114.1474</v>
       </c>
       <c r="G123" t="n">
-        <v>38.32666666666672</v>
+        <v>38.30833333333338</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4715,10 +5239,10 @@
         <v>38.8</v>
       </c>
       <c r="F124" t="n">
-        <v>37483.9358</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>38.34166666666672</v>
+        <v>38.32666666666672</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +5268,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="C125" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D125" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E125" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F125" t="n">
-        <v>29392.5128</v>
+        <v>37483.9358</v>
       </c>
       <c r="G125" t="n">
-        <v>38.34833333333339</v>
+        <v>38.34166666666672</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +5292,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +5309,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="C126" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="D126" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="E126" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>29392.5128</v>
       </c>
       <c r="G126" t="n">
-        <v>38.37166666666672</v>
+        <v>38.34833333333339</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +5350,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="D127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G127" t="n">
-        <v>38.39666666666673</v>
+        <v>38.37166666666672</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +5391,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="C128" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="D128" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E128" t="n">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
       <c r="F128" t="n">
-        <v>2789.0941</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>38.41666666666673</v>
+        <v>38.39666666666673</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +5415,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +5432,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="C129" t="n">
-        <v>37.8</v>
+        <v>38.8</v>
       </c>
       <c r="D129" t="n">
-        <v>38.2</v>
+        <v>38.8</v>
       </c>
       <c r="E129" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="F129" t="n">
-        <v>112151.7203</v>
+        <v>2789.0941</v>
       </c>
       <c r="G129" t="n">
-        <v>38.4233333333334</v>
+        <v>38.41666666666673</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5456,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5473,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="C130" t="n">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="D130" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E130" t="n">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>112151.7203</v>
       </c>
       <c r="G130" t="n">
-        <v>38.43333333333339</v>
+        <v>38.4233333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5497,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5514,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="D131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F131" t="n">
-        <v>6824.0641</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>38.44833333333339</v>
+        <v>38.43333333333339</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4995,10 +5567,10 @@
         <v>38.2</v>
       </c>
       <c r="F132" t="n">
-        <v>1300.8049</v>
+        <v>6824.0641</v>
       </c>
       <c r="G132" t="n">
-        <v>38.46166666666672</v>
+        <v>38.44833333333339</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,19 +5596,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="C133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="D133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="F133" t="n">
-        <v>21470.1298</v>
+        <v>1300.8049</v>
       </c>
       <c r="G133" t="n">
         <v>38.46166666666672</v>
@@ -5042,8 +5620,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5065,10 +5649,10 @@
         <v>38</v>
       </c>
       <c r="F134" t="n">
-        <v>1607.7165</v>
+        <v>21470.1298</v>
       </c>
       <c r="G134" t="n">
-        <v>38.47166666666671</v>
+        <v>38.46166666666672</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5661,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,7 +5678,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="C135" t="n">
         <v>38</v>
@@ -5097,13 +5687,13 @@
         <v>38</v>
       </c>
       <c r="E135" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F135" t="n">
-        <v>23107.5978</v>
+        <v>1607.7165</v>
       </c>
       <c r="G135" t="n">
-        <v>38.48166666666671</v>
+        <v>38.47166666666671</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5719,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="C136" t="n">
-        <v>37.2</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="E136" t="n">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="F136" t="n">
-        <v>148472.5803</v>
+        <v>23107.5978</v>
       </c>
       <c r="G136" t="n">
-        <v>38.47166666666671</v>
+        <v>38.48166666666671</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5760,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="C137" t="n">
         <v>37.2</v>
       </c>
       <c r="D137" t="n">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="E137" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F137" t="n">
-        <v>72730.16959999999</v>
+        <v>148472.5803</v>
       </c>
       <c r="G137" t="n">
-        <v>38.45333333333337</v>
+        <v>38.47166666666671</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5801,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>37.9</v>
+        <v>37.3</v>
       </c>
       <c r="C138" t="n">
-        <v>37.9</v>
+        <v>37.2</v>
       </c>
       <c r="D138" t="n">
-        <v>38</v>
+        <v>37.3</v>
       </c>
       <c r="E138" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="F138" t="n">
-        <v>47891.5064</v>
+        <v>72730.16959999999</v>
       </c>
       <c r="G138" t="n">
-        <v>38.45833333333337</v>
+        <v>38.45333333333337</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5825,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5842,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="C139" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="D139" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="E139" t="n">
         <v>37.4</v>
       </c>
       <c r="F139" t="n">
-        <v>11179.6439</v>
+        <v>47891.5064</v>
       </c>
       <c r="G139" t="n">
-        <v>38.44833333333337</v>
+        <v>38.45833333333337</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5883,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="C140" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="D140" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="E140" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F140" t="n">
-        <v>52232.7958</v>
+        <v>11179.6439</v>
       </c>
       <c r="G140" t="n">
-        <v>38.44333333333338</v>
+        <v>38.44833333333337</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5907,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5924,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="C141" t="n">
         <v>37.3</v>
       </c>
       <c r="D141" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="E141" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="F141" t="n">
-        <v>2131.4412</v>
+        <v>52232.7958</v>
       </c>
       <c r="G141" t="n">
-        <v>38.43166666666671</v>
+        <v>38.44333333333338</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5345,10 +5977,10 @@
         <v>37.3</v>
       </c>
       <c r="F142" t="n">
-        <v>39912.4226</v>
+        <v>2131.4412</v>
       </c>
       <c r="G142" t="n">
-        <v>38.41833333333339</v>
+        <v>38.43166666666671</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5380,10 +6018,10 @@
         <v>37.3</v>
       </c>
       <c r="F143" t="n">
-        <v>20017.3189</v>
+        <v>39912.4226</v>
       </c>
       <c r="G143" t="n">
-        <v>38.40666666666672</v>
+        <v>38.41833333333339</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,8 +6030,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +6047,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="C144" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="D144" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="E144" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="F144" t="n">
-        <v>35738.3485</v>
+        <v>20017.3189</v>
       </c>
       <c r="G144" t="n">
-        <v>38.39333333333339</v>
+        <v>38.40666666666672</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,8 +6071,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +6088,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="C145" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="D145" t="n">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="E145" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="F145" t="n">
-        <v>8096.9722</v>
+        <v>35738.3485</v>
       </c>
       <c r="G145" t="n">
-        <v>38.37166666666672</v>
+        <v>38.39333333333339</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,8 +6112,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +6129,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C146" t="n">
         <v>36.6</v>
       </c>
-      <c r="C146" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D146" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="E146" t="n">
         <v>36.6</v>
       </c>
       <c r="F146" t="n">
-        <v>67.9049</v>
+        <v>8096.9722</v>
       </c>
       <c r="G146" t="n">
-        <v>38.35666666666672</v>
+        <v>38.37166666666672</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,8 +6153,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5511,19 +6173,19 @@
         <v>36.6</v>
       </c>
       <c r="C147" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="D147" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="E147" t="n">
         <v>36.6</v>
       </c>
       <c r="F147" t="n">
-        <v>25760.2646</v>
+        <v>67.9049</v>
       </c>
       <c r="G147" t="n">
-        <v>38.33166666666672</v>
+        <v>38.35666666666672</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,8 +6194,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5555,10 +6223,10 @@
         <v>36.6</v>
       </c>
       <c r="F148" t="n">
-        <v>26344.7727</v>
+        <v>25760.2646</v>
       </c>
       <c r="G148" t="n">
-        <v>38.31000000000005</v>
+        <v>38.33166666666672</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5581,33 +6255,33 @@
         <v>36.6</v>
       </c>
       <c r="C149" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D149" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E149" t="n">
         <v>36.6</v>
       </c>
       <c r="F149" t="n">
-        <v>10228.5694</v>
+        <v>26344.7727</v>
       </c>
       <c r="G149" t="n">
-        <v>38.28833333333338</v>
+        <v>38.31000000000005</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -5619,10 +6293,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C150" t="n">
         <v>36.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>36.6</v>
       </c>
       <c r="D150" t="n">
         <v>36.7</v>
@@ -5631,21 +6305,21 @@
         <v>36.6</v>
       </c>
       <c r="F150" t="n">
-        <v>59984.0839</v>
+        <v>10228.5694</v>
       </c>
       <c r="G150" t="n">
-        <v>38.26000000000004</v>
+        <v>38.28833333333338</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,33 +6334,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C151" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D151" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E151" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F151" t="n">
-        <v>8128.0785</v>
+        <v>59984.0839</v>
       </c>
       <c r="G151" t="n">
-        <v>38.23500000000004</v>
+        <v>38.26000000000004</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,21 +6387,21 @@
         <v>36.5</v>
       </c>
       <c r="F152" t="n">
-        <v>4156.8924</v>
+        <v>8128.0785</v>
       </c>
       <c r="G152" t="n">
-        <v>38.20333333333338</v>
+        <v>38.23500000000004</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,33 +6416,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="C153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="D153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="E153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="F153" t="n">
-        <v>45304.42044501</v>
+        <v>4156.8924</v>
       </c>
       <c r="G153" t="n">
-        <v>38.18166666666671</v>
+        <v>38.20333333333338</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,33 +6457,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="C154" t="n">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="D154" t="n">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="E154" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F154" t="n">
-        <v>70405.05460078</v>
+        <v>45304.42044501</v>
       </c>
       <c r="G154" t="n">
-        <v>38.17500000000004</v>
+        <v>38.18166666666671</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,33 +6498,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C155" t="n">
         <v>38</v>
       </c>
-      <c r="C155" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D155" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="E155" t="n">
-        <v>38</v>
+        <v>36.9</v>
       </c>
       <c r="F155" t="n">
-        <v>58413.05998771</v>
+        <v>70405.05460078</v>
       </c>
       <c r="G155" t="n">
         <v>38.17500000000004</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>38</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,33 +6539,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="C156" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="D156" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="E156" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F156" t="n">
-        <v>261.0966</v>
+        <v>58413.05998771</v>
       </c>
       <c r="G156" t="n">
-        <v>38.16000000000005</v>
+        <v>38.17500000000004</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,33 +6580,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="C157" t="n">
-        <v>37.1</v>
+        <v>37.8</v>
       </c>
       <c r="D157" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="E157" t="n">
-        <v>37.1</v>
+        <v>37.8</v>
       </c>
       <c r="F157" t="n">
-        <v>14250.7354</v>
+        <v>261.0966</v>
       </c>
       <c r="G157" t="n">
-        <v>38.13500000000004</v>
+        <v>38.16000000000005</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5959,21 +6633,21 @@
         <v>37.1</v>
       </c>
       <c r="F158" t="n">
-        <v>11792.5565</v>
+        <v>14250.7354</v>
       </c>
       <c r="G158" t="n">
-        <v>38.10333333333337</v>
+        <v>38.13500000000004</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,33 +6662,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="C159" t="n">
-        <v>38.4</v>
+        <v>37.1</v>
       </c>
       <c r="D159" t="n">
-        <v>38.4</v>
+        <v>37.3</v>
       </c>
       <c r="E159" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="F159" t="n">
-        <v>122827.47567581</v>
+        <v>11792.5565</v>
       </c>
       <c r="G159" t="n">
-        <v>38.09166666666671</v>
+        <v>38.10333333333337</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,33 +6703,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>37</v>
+      </c>
+      <c r="C160" t="n">
         <v>38.4</v>
       </c>
-      <c r="C160" t="n">
-        <v>38.9</v>
-      </c>
       <c r="D160" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="E160" t="n">
-        <v>38.4</v>
+        <v>37</v>
       </c>
       <c r="F160" t="n">
-        <v>80403.44894261</v>
+        <v>122827.47567581</v>
       </c>
       <c r="G160" t="n">
-        <v>38.08500000000004</v>
+        <v>38.09166666666671</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6070,33 +6744,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C161" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="E161" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F161" t="n">
-        <v>62502.68394739</v>
+        <v>80403.44894261</v>
       </c>
       <c r="G161" t="n">
-        <v>38.08666666666671</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,22 +6785,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>38.9</v>
+        <v>38.5</v>
       </c>
       <c r="C162" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D162" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="E162" t="n">
-        <v>37.8</v>
+        <v>38.5</v>
       </c>
       <c r="F162" t="n">
-        <v>200299.00422937</v>
+        <v>62502.68394739</v>
       </c>
       <c r="G162" t="n">
-        <v>38.08500000000004</v>
+        <v>38.08666666666671</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6135,7 +6809,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,22 +6826,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C163" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="D163" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E163" t="n">
-        <v>39</v>
+        <v>37.8</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>200299.00422937</v>
       </c>
       <c r="G163" t="n">
-        <v>38.08333333333337</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6174,7 +6850,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,22 +6867,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C164" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="D164" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="E164" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="F164" t="n">
-        <v>187455.90744655</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>38.07000000000004</v>
+        <v>38.08333333333337</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6213,7 +6891,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6228,22 +6908,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>39.6</v>
+        <v>38.9</v>
       </c>
       <c r="C165" t="n">
-        <v>39.6</v>
+        <v>38.5</v>
       </c>
       <c r="D165" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="E165" t="n">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="F165" t="n">
-        <v>2254.87039141</v>
+        <v>187455.90744655</v>
       </c>
       <c r="G165" t="n">
-        <v>38.07500000000003</v>
+        <v>38.07000000000004</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6252,7 +6932,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,22 +6949,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="C166" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D166" t="n">
         <v>39.6</v>
       </c>
       <c r="E166" t="n">
-        <v>37.4</v>
+        <v>39.5</v>
       </c>
       <c r="F166" t="n">
-        <v>155984.43713535</v>
+        <v>2254.87039141</v>
       </c>
       <c r="G166" t="n">
-        <v>38.08666666666669</v>
+        <v>38.07500000000003</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6291,7 +6973,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6306,22 +6990,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C167" t="n">
         <v>39.5</v>
       </c>
-      <c r="C167" t="n">
-        <v>39.4</v>
-      </c>
       <c r="D167" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="E167" t="n">
-        <v>39.4</v>
+        <v>37.4</v>
       </c>
       <c r="F167" t="n">
-        <v>20</v>
+        <v>155984.43713535</v>
       </c>
       <c r="G167" t="n">
-        <v>38.09666666666669</v>
+        <v>38.08666666666669</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6330,7 +7014,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,22 +7031,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="C168" t="n">
-        <v>37.8</v>
+        <v>39.4</v>
       </c>
       <c r="D168" t="n">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="E168" t="n">
-        <v>37.8</v>
+        <v>39.4</v>
       </c>
       <c r="F168" t="n">
-        <v>1274.6315</v>
+        <v>20</v>
       </c>
       <c r="G168" t="n">
-        <v>38.08000000000003</v>
+        <v>38.09666666666669</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6369,7 +7055,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,22 +7072,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>39.1</v>
+        <v>38</v>
       </c>
       <c r="C169" t="n">
-        <v>39.1</v>
+        <v>37.8</v>
       </c>
       <c r="D169" t="n">
-        <v>39.1</v>
+        <v>38</v>
       </c>
       <c r="E169" t="n">
-        <v>39.1</v>
+        <v>37.8</v>
       </c>
       <c r="F169" t="n">
-        <v>10</v>
+        <v>1274.6315</v>
       </c>
       <c r="G169" t="n">
-        <v>38.08500000000002</v>
+        <v>38.08000000000003</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6408,7 +7096,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,16 +7113,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="C170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="D170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="E170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="F170" t="n">
         <v>10</v>
@@ -6447,7 +7137,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6462,22 +7154,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>37.9</v>
+        <v>38.8</v>
       </c>
       <c r="C171" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D171" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E171" t="n">
-        <v>37.8</v>
+        <v>38.8</v>
       </c>
       <c r="F171" t="n">
-        <v>3853.6156</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>38.08333333333335</v>
+        <v>38.08500000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6486,7 +7178,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6501,22 +7195,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="C172" t="n">
-        <v>39.3</v>
+        <v>38.7</v>
       </c>
       <c r="D172" t="n">
-        <v>39.3</v>
+        <v>38.7</v>
       </c>
       <c r="E172" t="n">
-        <v>38.6</v>
+        <v>37.8</v>
       </c>
       <c r="F172" t="n">
-        <v>199602.80645493</v>
+        <v>3853.6156</v>
       </c>
       <c r="G172" t="n">
-        <v>38.09166666666668</v>
+        <v>38.08333333333335</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6525,7 +7219,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6540,22 +7236,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C173" t="n">
         <v>39.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>38.9</v>
       </c>
       <c r="D173" t="n">
         <v>39.3</v>
       </c>
       <c r="E173" t="n">
-        <v>37.9</v>
+        <v>38.6</v>
       </c>
       <c r="F173" t="n">
-        <v>238294.4746</v>
+        <v>199602.80645493</v>
       </c>
       <c r="G173" t="n">
-        <v>38.09500000000002</v>
+        <v>38.09166666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6564,7 +7260,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6579,22 +7277,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="C174" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="D174" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="E174" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="F174" t="n">
-        <v>90939.4375</v>
+        <v>238294.4746</v>
       </c>
       <c r="G174" t="n">
-        <v>38.09000000000002</v>
+        <v>38.09500000000002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6603,7 +7301,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6618,22 +7318,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="C175" t="n">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
       <c r="D175" t="n">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
       <c r="E175" t="n">
-        <v>36.7</v>
+        <v>37.8</v>
       </c>
       <c r="F175" t="n">
-        <v>217783.27572762</v>
+        <v>90939.4375</v>
       </c>
       <c r="G175" t="n">
-        <v>38.10000000000003</v>
+        <v>38.09000000000002</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6642,7 +7342,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6657,22 +7359,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="C176" t="n">
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="D176" t="n">
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="E176" t="n">
-        <v>37.8</v>
+        <v>36.7</v>
       </c>
       <c r="F176" t="n">
-        <v>584.2592</v>
+        <v>217783.27572762</v>
       </c>
       <c r="G176" t="n">
-        <v>38.08500000000004</v>
+        <v>38.10000000000003</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6681,7 +7383,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,25 +7412,68 @@
         <v>37.8</v>
       </c>
       <c r="F177" t="n">
+        <v>584.2592</v>
+      </c>
+      <c r="G177" t="n">
+        <v>38.08500000000004</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F178" t="n">
         <v>71889.2328</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G178" t="n">
         <v>38.06833333333337</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N246"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-119492.26176924</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-119474.38486924</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J3" t="n">
         <v>31.9</v>
       </c>
-      <c r="K3" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-119474.38486924</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="J4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="J5" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J6" t="n">
         <v>31.9</v>
       </c>
-      <c r="K6" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J7" t="n">
         <v>31.9</v>
       </c>
-      <c r="K7" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J8" t="n">
         <v>31.9</v>
       </c>
-      <c r="K8" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>-129829.66846924</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J9" t="n">
         <v>31.9</v>
       </c>
-      <c r="K9" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="J10" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J11" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J12" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,21 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +929,23 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J14" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +970,23 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J15" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1011,23 @@
         <v>-96484.60336923998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J16" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1052,21 @@
         <v>-94764.60336923998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1091,23 @@
         <v>-94789.00956923998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J18" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1132,23 @@
         <v>-94789.00956923998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>32</v>
-      </c>
-      <c r="K19" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1173,23 @@
         <v>-96356.40766923998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J20" t="n">
-        <v>32</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1214,23 @@
         <v>-32480.96380478999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J21" t="n">
         <v>31.9</v>
       </c>
-      <c r="K21" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,26 +1255,23 @@
         <v>-35825.51630478998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="J22" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1368,26 +1296,21 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1412,26 +1335,21 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1458,22 +1376,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1500,22 +1415,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1542,22 +1454,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1584,22 +1493,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1626,22 +1532,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1668,22 +1571,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1710,22 +1610,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1752,22 +1649,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1794,22 +1688,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1836,22 +1727,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1878,22 +1766,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1920,22 +1805,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1962,22 +1844,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2004,22 +1883,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2046,22 +1922,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2088,22 +1961,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2130,22 +2000,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2172,22 +2039,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2214,22 +2078,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2256,22 +2117,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2298,22 +2156,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2340,22 +2195,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2382,22 +2234,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2424,22 +2273,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2466,22 +2312,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2508,22 +2351,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2550,22 +2390,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2592,22 +2429,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2634,22 +2468,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2676,22 +2507,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2718,22 +2546,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2760,22 +2585,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2802,22 +2624,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2844,22 +2663,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2886,22 +2702,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2928,22 +2741,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2970,22 +2780,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3012,22 +2819,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3054,22 +2858,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3096,22 +2897,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3138,22 +2936,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3180,22 +2975,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3222,22 +3014,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3264,22 +3053,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3306,22 +3092,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3348,22 +3131,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3390,22 +3170,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3432,22 +3209,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3474,22 +3248,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3516,22 +3287,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3558,22 +3326,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3600,22 +3365,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3642,22 +3404,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3682,24 +3441,21 @@
         <v>1017159.027662729</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3726,22 +3482,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3766,24 +3519,21 @@
         <v>737680.0038703695</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3810,22 +3560,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3852,22 +3599,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3894,22 +3638,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3936,22 +3677,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3978,22 +3716,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4020,22 +3755,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4062,22 +3794,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4104,22 +3833,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4146,22 +3872,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4188,22 +3911,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4230,22 +3950,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4272,22 +3989,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4314,22 +4028,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4356,22 +4067,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4398,22 +4106,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4438,24 +4143,21 @@
         <v>541772.2046836995</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4480,24 +4182,21 @@
         <v>2308249.604407319</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4522,24 +4221,21 @@
         <v>1695596.854159789</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4566,22 +4262,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4606,24 +4299,21 @@
         <v>1658664.854232219</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4650,22 +4340,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4692,22 +4379,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4734,22 +4418,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4776,22 +4457,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4818,22 +4496,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4858,24 +4533,21 @@
         <v>1546539.241439759</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4902,22 +4574,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4944,22 +4613,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4984,24 +4650,21 @@
         <v>1758577.482085349</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5026,24 +4689,21 @@
         <v>1815355.984723149</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5070,22 +4730,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5112,22 +4769,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5154,22 +4808,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5196,22 +4847,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5238,22 +4886,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5280,22 +4925,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5322,22 +4964,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5364,22 +5003,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5406,22 +5042,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5448,22 +5081,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5490,22 +5120,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5532,22 +5159,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5574,22 +5198,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5616,22 +5237,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5658,22 +5276,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5698,24 +5313,21 @@
         <v>2319812.312236609</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5742,22 +5354,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5784,22 +5393,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5826,22 +5432,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5866,24 +5469,21 @@
         <v>2300798.403436609</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5910,22 +5510,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5952,22 +5549,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5994,22 +5588,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6034,24 +5625,21 @@
         <v>2499101.003802489</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6076,24 +5664,21 @@
         <v>2515672.596071798</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6118,24 +5703,21 @@
         <v>2614465.928300958</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6160,24 +5742,21 @@
         <v>2614455.928300958</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6202,24 +5781,21 @@
         <v>2616730.612500958</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6244,24 +5820,21 @@
         <v>2583710.612500958</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6288,22 +5861,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6330,22 +5900,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6372,22 +5939,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6414,22 +5978,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6456,22 +6017,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6498,22 +6056,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6540,22 +6095,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6582,24 +6134,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.183087774294671</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1.018808777429467</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6626,16 +6173,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6662,16 +6212,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6698,16 +6251,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6734,16 +6290,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6770,16 +6329,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6806,16 +6368,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6842,16 +6407,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6878,16 +6446,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6912,18 +6483,23 @@
         <v>2575610.778718258</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.205031347962383</v>
+      </c>
       <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>1.018808777429467</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6948,18 +6524,15 @@
         <v>2582276.373218258</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6984,18 +6557,15 @@
         <v>2647747.122052808</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7020,18 +6590,15 @@
         <v>2648352.694477228</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7056,18 +6623,15 @@
         <v>2619972.836677229</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7092,18 +6656,15 @@
         <v>2619982.836677229</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7128,18 +6689,15 @@
         <v>2414399.075877229</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7164,18 +6722,15 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7200,18 +6755,15 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7236,18 +6788,15 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7272,18 +6821,15 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7308,18 +6854,15 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7344,18 +6887,15 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7380,18 +6920,15 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7416,18 +6953,15 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7454,16 +6988,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7490,16 +7021,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7524,18 +7052,15 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7560,18 +7085,15 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7596,18 +7118,15 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7632,18 +7151,15 @@
         <v>2363406.271977229</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7668,18 +7184,15 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7704,18 +7217,15 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7740,18 +7250,15 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7776,18 +7283,15 @@
         <v>2341285.865377228</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7812,18 +7316,15 @@
         <v>2352400.012777228</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7848,18 +7349,15 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7884,18 +7382,15 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7920,18 +7415,15 @@
         <v>2381802.525577229</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7956,18 +7448,15 @@
         <v>2381002.525577229</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7992,18 +7481,15 @@
         <v>2381012.525577229</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8028,18 +7514,15 @@
         <v>2378223.431477229</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8064,18 +7547,15 @@
         <v>2266071.711177228</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8100,18 +7580,15 @@
         <v>2266081.711177228</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8136,18 +7613,15 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8174,16 +7648,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8210,16 +7681,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8246,16 +7714,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8282,16 +7747,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8318,16 +7780,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8354,16 +7813,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8390,16 +7846,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8426,16 +7879,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8462,16 +7912,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8498,16 +7945,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8534,16 +7978,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8570,16 +8011,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8606,16 +8044,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8642,16 +8077,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8678,16 +8110,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8714,16 +8143,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8750,16 +8176,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8786,16 +8209,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8822,16 +8242,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8858,16 +8275,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8892,18 +8306,15 @@
         <v>1946382.730277228</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8928,18 +8339,15 @@
         <v>1991687.150722238</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8964,18 +8372,15 @@
         <v>2062092.205323018</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9002,16 +8407,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9036,18 +8438,15 @@
         <v>2120244.168710728</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9074,16 +8473,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9110,16 +8506,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9146,16 +8539,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9182,16 +8572,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9218,16 +8605,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9254,16 +8638,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9290,16 +8671,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9326,16 +8704,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9362,16 +8737,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9398,16 +8770,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9434,16 +8803,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9470,16 +8836,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9506,16 +8869,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9540,18 +8900,15 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9576,18 +8933,15 @@
         <v>2225682.324815417</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9612,18 +8966,15 @@
         <v>2425285.131270347</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9648,18 +8999,15 @@
         <v>2186990.656670347</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9684,18 +9032,15 @@
         <v>2096051.219170347</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9722,16 +9067,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9758,16 +9100,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9794,16 +9133,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9830,16 +9166,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9866,16 +9199,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9902,16 +9232,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9938,16 +9265,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9974,16 +9298,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10010,16 +9331,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10046,16 +9364,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10082,16 +9397,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10118,16 +9430,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10154,18 +9463,15 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-119492.26176924</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-119474.38486924</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>31.9</v>
@@ -521,7 +521,7 @@
         <v>-119474.38486924</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>32.5</v>
@@ -562,7 +562,7 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>32.5</v>
@@ -603,7 +603,7 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>31.9</v>
@@ -644,7 +644,7 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>31.9</v>
@@ -685,7 +685,7 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>31.9</v>
@@ -726,7 +726,7 @@
         <v>-129829.66846924</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>31.9</v>
@@ -767,7 +767,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>32.5</v>
@@ -808,7 +808,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>32.6</v>
@@ -849,7 +849,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>32.6</v>
@@ -890,9 +890,11 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32.6</v>
+      </c>
       <c r="J13" t="n">
         <v>31.9</v>
       </c>
@@ -929,7 +931,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>32.6</v>
@@ -970,7 +972,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>32.6</v>
@@ -1011,7 +1013,7 @@
         <v>-96484.60336923998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>32.6</v>
@@ -1052,9 +1054,11 @@
         <v>-94764.60336923998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J17" t="n">
         <v>31.9</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>-94789.00956923998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>32.6</v>
@@ -1132,7 +1136,7 @@
         <v>-94789.00956923998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>32</v>
@@ -1173,7 +1177,7 @@
         <v>-96356.40766923998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>32</v>
@@ -1214,7 +1218,7 @@
         <v>-32480.96380478999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>31.9</v>
@@ -1255,7 +1259,7 @@
         <v>-35825.51630478998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>33.2</v>
@@ -1296,9 +1300,11 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32.1</v>
+      </c>
       <c r="J23" t="n">
         <v>31.9</v>
       </c>
@@ -1335,9 +1341,11 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J24" t="n">
         <v>31.9</v>
       </c>
@@ -1374,9 +1382,11 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J25" t="n">
         <v>31.9</v>
       </c>
@@ -1413,9 +1423,11 @@
         <v>-34240.70770478998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J26" t="n">
         <v>31.9</v>
       </c>
@@ -1452,9 +1464,11 @@
         <v>-34093.73810478998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
       <c r="J27" t="n">
         <v>31.9</v>
       </c>
@@ -1491,9 +1505,11 @@
         <v>-34154.90460478998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
       <c r="J28" t="n">
         <v>31.9</v>
       </c>
@@ -1530,9 +1546,11 @@
         <v>135584.44709566</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
       <c r="J29" t="n">
         <v>31.9</v>
       </c>
@@ -1569,9 +1587,11 @@
         <v>382494.4379572</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J30" t="n">
         <v>31.9</v>
       </c>
@@ -3441,7 +3461,7 @@
         <v>1017159.027662729</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3519,7 +3539,7 @@
         <v>737680.0038703695</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
@@ -4143,7 +4163,7 @@
         <v>541772.2046836995</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
@@ -4182,7 +4202,7 @@
         <v>2308249.604407319</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
@@ -4221,7 +4241,7 @@
         <v>1695596.854159789</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
@@ -4299,7 +4319,7 @@
         <v>1658664.854232219</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
@@ -4533,7 +4553,7 @@
         <v>1546539.241439759</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
@@ -4650,7 +4670,7 @@
         <v>1758577.482085349</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
@@ -4689,7 +4709,7 @@
         <v>1815355.984723149</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
@@ -5313,7 +5333,7 @@
         <v>2319812.312236609</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
@@ -5469,7 +5489,7 @@
         <v>2300798.403436609</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
@@ -5625,7 +5645,7 @@
         <v>2499101.003802489</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
@@ -5664,7 +5684,7 @@
         <v>2515672.596071798</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
@@ -5703,7 +5723,7 @@
         <v>2614465.928300958</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
@@ -5742,7 +5762,7 @@
         <v>2614455.928300958</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
@@ -5781,7 +5801,7 @@
         <v>2616730.612500958</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
@@ -5820,7 +5840,7 @@
         <v>2583710.612500958</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
@@ -6210,7 +6230,7 @@
         <v>2628256.879200958</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
@@ -6218,13 +6238,15 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>1.195626959247649</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.018808777429467</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6249,17 +6271,11 @@
         <v>2627007.386400958</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6288,17 +6304,11 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6327,17 +6337,11 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6366,17 +6370,11 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6405,17 +6403,11 @@
         <v>2639419.153100958</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6444,17 +6436,11 @@
         <v>2665984.291759608</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6483,23 +6469,15 @@
         <v>2575610.778718258</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>1.205031347962383</v>
-      </c>
-      <c r="M156" t="n">
-        <v>1.018808777429467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6524,7 +6502,7 @@
         <v>2582276.373218258</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6557,7 +6535,7 @@
         <v>2647747.122052808</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6590,7 +6568,7 @@
         <v>2648352.694477228</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6623,7 +6601,7 @@
         <v>2619972.836677229</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6656,7 +6634,7 @@
         <v>2619982.836677229</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6689,7 +6667,7 @@
         <v>2414399.075877229</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6722,7 +6700,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6755,7 +6733,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6788,7 +6766,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6821,7 +6799,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6854,7 +6832,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6887,7 +6865,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6920,7 +6898,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6953,7 +6931,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6986,7 +6964,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7019,7 +6997,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7052,7 +7030,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7085,7 +7063,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7118,7 +7096,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7151,7 +7129,7 @@
         <v>2363406.271977229</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7184,7 +7162,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7217,7 +7195,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7250,7 +7228,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7283,7 +7261,7 @@
         <v>2341285.865377228</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7316,7 +7294,7 @@
         <v>2352400.012777228</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7349,7 +7327,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7382,7 +7360,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7415,7 +7393,7 @@
         <v>2381802.525577229</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7448,7 +7426,7 @@
         <v>2381002.525577229</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7481,7 +7459,7 @@
         <v>2381012.525577229</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7514,7 +7492,7 @@
         <v>2378223.431477229</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7547,7 +7525,7 @@
         <v>2266071.711177228</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7580,7 +7558,7 @@
         <v>2266081.711177228</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7613,7 +7591,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7811,7 +7789,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7844,7 +7822,7 @@
         <v>2137206.443377228</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7877,7 +7855,7 @@
         <v>2126026.799477228</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7910,7 +7888,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7943,7 +7921,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7976,7 +7954,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8009,7 +7987,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8042,7 +8020,7 @@
         <v>2038055.655177228</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8075,7 +8053,7 @@
         <v>2029958.682977228</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8108,7 +8086,7 @@
         <v>2030026.587877228</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8141,7 +8119,7 @@
         <v>2004266.323277228</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8174,7 +8152,7 @@
         <v>2004266.323277228</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8207,7 +8185,7 @@
         <v>2014494.892677228</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8240,7 +8218,7 @@
         <v>1954510.808777228</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8273,7 +8251,7 @@
         <v>1946382.730277228</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8306,7 +8284,7 @@
         <v>1946382.730277228</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8339,7 +8317,7 @@
         <v>1991687.150722238</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8372,7 +8350,7 @@
         <v>2062092.205323018</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8405,7 +8383,7 @@
         <v>2120505.265310728</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8438,7 +8416,7 @@
         <v>2120244.168710728</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8471,7 +8449,7 @@
         <v>2105993.433310728</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8504,7 +8482,7 @@
         <v>2105993.433310728</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8537,7 +8515,7 @@
         <v>2228820.908986538</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8570,7 +8548,7 @@
         <v>2309224.357929148</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8603,7 +8581,7 @@
         <v>2371727.041876538</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8636,7 +8614,7 @@
         <v>2572026.046105908</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8669,7 +8647,7 @@
         <v>2572016.046105908</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8900,7 +8878,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8933,7 +8911,7 @@
         <v>2225682.324815417</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8966,7 +8944,7 @@
         <v>2425285.131270347</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8999,7 +8977,7 @@
         <v>2186990.656670347</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9032,7 +9010,7 @@
         <v>2096051.219170347</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9065,7 +9043,7 @@
         <v>2313834.494897967</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9098,7 +9076,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9131,7 +9109,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9164,7 +9142,7 @@
         <v>2114674.971872567</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9197,7 +9175,7 @@
         <v>2274229.348043987</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9230,7 +9208,7 @@
         <v>2269282.413943987</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9263,7 +9241,7 @@
         <v>2243041.844343987</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9296,7 +9274,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9329,7 +9307,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9362,7 +9340,7 @@
         <v>2364428.585014547</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9395,7 +9373,7 @@
         <v>2361428.585014547</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9428,7 +9406,7 @@
         <v>2249812.017214547</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9461,7 +9439,7 @@
         <v>2137620.790514547</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9472,6 +9450,6 @@
       <c r="M246" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1013,11 +1013,9 @@
         <v>-96484.60336923998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>31.9</v>
       </c>
@@ -1341,11 +1339,9 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>31.9</v>
       </c>
@@ -1382,11 +1378,9 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>31.9</v>
       </c>
@@ -1423,11 +1417,9 @@
         <v>-34240.70770478998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>31.9</v>
       </c>
@@ -1464,11 +1456,9 @@
         <v>-34093.73810478998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>31.9</v>
       </c>
@@ -1505,11 +1495,9 @@
         <v>-34154.90460478998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>31.9</v>
       </c>
@@ -1546,11 +1534,9 @@
         <v>135584.44709566</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>31.9</v>
       </c>
@@ -1587,11 +1573,9 @@
         <v>382494.4379572</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>31.9</v>
       </c>
@@ -1667,7 +1651,7 @@
         <v>467513.45238562</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
@@ -1675,13 +1659,15 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>1.114122257053292</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.018808777429467</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1706,17 +1692,11 @@
         <v>302645.94258481</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1745,17 +1725,11 @@
         <v>380371.67793485</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1784,17 +1758,11 @@
         <v>357757.13793485</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1823,17 +1791,11 @@
         <v>384942.00294036</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1862,17 +1824,11 @@
         <v>384942.00294036</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1901,17 +1857,11 @@
         <v>329676.09604036</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1940,17 +1890,11 @@
         <v>331750.89884036</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1979,17 +1923,11 @@
         <v>366273.61425012</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2018,17 +1956,11 @@
         <v>369347.94725012</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2057,17 +1989,11 @@
         <v>521460.98289188</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2096,17 +2022,11 @@
         <v>521460.98289188</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2135,17 +2055,11 @@
         <v>690702.02418412</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2174,17 +2088,11 @@
         <v>690702.02418412</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2213,17 +2121,11 @@
         <v>742946.29637129</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2252,17 +2154,11 @@
         <v>726640.11477129</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2333,14 +2223,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2372,14 +2256,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2289,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2450,14 +2322,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2489,14 +2355,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +2388,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2421,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2606,14 +2454,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2642,17 +2484,11 @@
         <v>906056.2385250397</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2684,14 +2520,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2553,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2762,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2801,14 +2619,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2840,14 +2652,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2879,14 +2685,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2718,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2751,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2996,14 +2784,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3035,14 +2817,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3074,14 +2850,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3113,14 +2883,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2916,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +2949,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +3015,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +3048,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +3081,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +3114,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +3147,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3464,14 +3180,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3213,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3246,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3581,14 +3279,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3312,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3698,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3411,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3444,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3477,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3510,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3543,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3576,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3609,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4049,14 +3675,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3708,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +3741,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +3807,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4244,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4283,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +3906,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +3939,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4400,14 +3972,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4439,14 +4005,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4478,14 +4038,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4517,14 +4071,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +4104,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4595,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4634,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4673,14 +4203,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4751,14 +4269,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4790,14 +4302,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4829,14 +4335,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4868,14 +4368,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4907,14 +4401,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4946,14 +4434,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4985,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5024,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5063,14 +4533,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5102,14 +4566,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +4599,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5180,14 +4632,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5219,14 +4665,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5258,14 +4698,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5297,14 +4731,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5336,14 +4764,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5375,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +4830,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5453,14 +4863,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5492,14 +4896,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5531,14 +4929,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5570,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5609,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5648,14 +5028,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5687,14 +5061,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5726,14 +5094,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +5127,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5804,14 +5160,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5843,14 +5193,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5882,14 +5226,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5921,14 +5259,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5960,14 +5292,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5999,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6038,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6077,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6116,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6155,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6194,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6230,23 +5520,15 @@
         <v>2628256.879200958</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>1.195626959247649</v>
-      </c>
-      <c r="M149" t="n">
-        <v>1.018808777429467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6271,7 +5553,7 @@
         <v>2627007.386400958</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6304,7 +5586,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6337,7 +5619,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6370,7 +5652,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6403,7 +5685,7 @@
         <v>2639419.153100958</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6436,7 +5718,7 @@
         <v>2665984.291759608</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6469,7 +5751,7 @@
         <v>2575610.778718258</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6502,7 +5784,7 @@
         <v>2582276.373218258</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6535,7 +5817,7 @@
         <v>2647747.122052808</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6568,7 +5850,7 @@
         <v>2648352.694477228</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6601,7 +5883,7 @@
         <v>2619972.836677229</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6634,7 +5916,7 @@
         <v>2619982.836677229</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6667,7 +5949,7 @@
         <v>2414399.075877229</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6700,7 +5982,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6733,7 +6015,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6766,7 +6048,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6799,7 +6081,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6832,7 +6114,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6865,7 +6147,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6898,7 +6180,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6931,7 +6213,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6964,7 +6246,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6997,7 +6279,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7030,7 +6312,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7063,7 +6345,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7096,7 +6378,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7129,7 +6411,7 @@
         <v>2363406.271977229</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7162,7 +6444,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7195,7 +6477,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7228,7 +6510,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7261,7 +6543,7 @@
         <v>2341285.865377228</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7294,7 +6576,7 @@
         <v>2352400.012777228</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7327,7 +6609,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7360,7 +6642,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7393,7 +6675,7 @@
         <v>2381802.525577229</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7426,7 +6708,7 @@
         <v>2381002.525577229</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7459,7 +6741,7 @@
         <v>2381012.525577229</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7492,7 +6774,7 @@
         <v>2378223.431477229</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7525,7 +6807,7 @@
         <v>2266071.711177228</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7558,7 +6840,7 @@
         <v>2266081.711177228</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7591,7 +6873,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7789,7 +7071,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7822,7 +7104,7 @@
         <v>2137206.443377228</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7855,7 +7137,7 @@
         <v>2126026.799477228</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7888,7 +7170,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7921,7 +7203,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7954,7 +7236,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7987,7 +7269,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8020,7 +7302,7 @@
         <v>2038055.655177228</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8053,7 +7335,7 @@
         <v>2029958.682977228</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8086,7 +7368,7 @@
         <v>2030026.587877228</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8119,7 +7401,7 @@
         <v>2004266.323277228</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8152,7 +7434,7 @@
         <v>2004266.323277228</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8185,7 +7467,7 @@
         <v>2014494.892677228</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8218,7 +7500,7 @@
         <v>1954510.808777228</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8251,7 +7533,7 @@
         <v>1946382.730277228</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8284,7 +7566,7 @@
         <v>1946382.730277228</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8317,7 +7599,7 @@
         <v>1991687.150722238</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8350,7 +7632,7 @@
         <v>2062092.205323018</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8383,7 +7665,7 @@
         <v>2120505.265310728</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8416,7 +7698,7 @@
         <v>2120244.168710728</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8449,7 +7731,7 @@
         <v>2105993.433310728</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8482,7 +7764,7 @@
         <v>2105993.433310728</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8515,7 +7797,7 @@
         <v>2228820.908986538</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8548,7 +7830,7 @@
         <v>2309224.357929148</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8581,7 +7863,7 @@
         <v>2371727.041876538</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8614,7 +7896,7 @@
         <v>2572026.046105908</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8647,7 +7929,7 @@
         <v>2572016.046105908</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8944,7 +8226,7 @@
         <v>2425285.131270347</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8977,7 +8259,7 @@
         <v>2186990.656670347</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9010,7 +8292,7 @@
         <v>2096051.219170347</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9043,7 +8325,7 @@
         <v>2313834.494897967</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9076,7 +8358,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9109,7 +8391,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9142,7 +8424,7 @@
         <v>2114674.971872567</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9175,7 +8457,7 @@
         <v>2274229.348043987</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9208,7 +8490,7 @@
         <v>2269282.413943987</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9241,7 +8523,7 @@
         <v>2243041.844343987</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9274,7 +8556,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9307,7 +8589,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9340,7 +8622,7 @@
         <v>2364428.585014547</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9373,7 +8655,7 @@
         <v>2361428.585014547</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9406,7 +8688,7 @@
         <v>2249812.017214547</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9439,7 +8721,7 @@
         <v>2137620.790514547</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9450,6 +8732,6 @@
       <c r="M246" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -1013,9 +1013,11 @@
         <v>-96484.60336923998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32.6</v>
+      </c>
       <c r="J16" t="n">
         <v>31.9</v>
       </c>
@@ -1339,9 +1341,11 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J24" t="n">
         <v>31.9</v>
       </c>
@@ -1378,9 +1382,11 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J25" t="n">
         <v>31.9</v>
       </c>
@@ -1417,9 +1423,11 @@
         <v>-34240.70770478998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J26" t="n">
         <v>31.9</v>
       </c>
@@ -1456,9 +1464,11 @@
         <v>-34093.73810478998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
       <c r="J27" t="n">
         <v>31.9</v>
       </c>
@@ -1495,9 +1505,11 @@
         <v>-34154.90460478998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
       <c r="J28" t="n">
         <v>31.9</v>
       </c>
@@ -1534,9 +1546,11 @@
         <v>135584.44709566</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
       <c r="J29" t="n">
         <v>31.9</v>
       </c>
@@ -1651,1343 +1665,1583 @@
         <v>467513.45238562</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>31.9</v>
       </c>
       <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35</v>
+      </c>
+      <c r="D33" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>35</v>
+      </c>
+      <c r="F33" t="n">
+        <v>164867.50980081</v>
+      </c>
+      <c r="G33" t="n">
+        <v>302645.94258481</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>77725.73535004001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>380371.67793485</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>36</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>35</v>
+      </c>
+      <c r="F35" t="n">
+        <v>22614.54</v>
+      </c>
+      <c r="G35" t="n">
+        <v>357757.13793485</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>27184.86500551</v>
+      </c>
+      <c r="G36" t="n">
+        <v>384942.00294036</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2258</v>
+      </c>
+      <c r="G37" t="n">
+        <v>384942.00294036</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>35</v>
+      </c>
+      <c r="F38" t="n">
+        <v>55265.9069</v>
+      </c>
+      <c r="G38" t="n">
+        <v>329676.09604036</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2074.8028</v>
+      </c>
+      <c r="G39" t="n">
+        <v>331750.89884036</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>36</v>
+      </c>
+      <c r="F40" t="n">
+        <v>34522.71540976</v>
+      </c>
+      <c r="G40" t="n">
+        <v>366273.61425012</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>35</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>35</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3074.333</v>
+      </c>
+      <c r="G41" t="n">
+        <v>369347.94725012</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>152113.03564176</v>
+      </c>
+      <c r="G42" t="n">
+        <v>521460.98289188</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>37</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30148.04884502</v>
+      </c>
+      <c r="G43" t="n">
+        <v>521460.98289188</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>169241.04129224</v>
+      </c>
+      <c r="G44" t="n">
+        <v>690702.02418412</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>77802.98817993001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>690702.02418412</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>52244.27218717</v>
+      </c>
+      <c r="G46" t="n">
+        <v>742946.29637129</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D47" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>16306.1816</v>
+      </c>
+      <c r="G47" t="n">
+        <v>726640.11477129</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>40</v>
+      </c>
+      <c r="E48" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>55315.53781283</v>
+      </c>
+      <c r="G48" t="n">
+        <v>781955.6525841199</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>40</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40</v>
+      </c>
+      <c r="E49" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>22450.9293</v>
+      </c>
+      <c r="G49" t="n">
+        <v>804406.5818841199</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5542.66058717</v>
+      </c>
+      <c r="G50" t="n">
+        <v>798863.9212969498</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>51743.46010776</v>
+      </c>
+      <c r="G51" t="n">
+        <v>747120.4611891898</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>40305.43360794</v>
+      </c>
+      <c r="G52" t="n">
+        <v>787425.8947971298</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9355.248545590001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>778070.6462515398</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10723.91994721</v>
+      </c>
+      <c r="G54" t="n">
+        <v>778070.6462515398</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>753.4247</v>
+      </c>
+      <c r="G55" t="n">
+        <v>777317.2215515398</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3774.3664</v>
+      </c>
+      <c r="G56" t="n">
+        <v>773542.8551515398</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>132513.3833735</v>
+      </c>
+      <c r="G57" t="n">
+        <v>906056.2385250397</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>120318.15952405</v>
+      </c>
+      <c r="G58" t="n">
+        <v>785738.0790009898</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>795738.0790009898</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>56343.65878168</v>
+      </c>
+      <c r="G60" t="n">
+        <v>739394.4202193097</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4616.3091</v>
+      </c>
+      <c r="G61" t="n">
+        <v>734778.1111193098</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9332.308199999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>725445.8029193098</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="n">
+        <v>40</v>
+      </c>
+      <c r="E63" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>76599.30708925</v>
+      </c>
+      <c r="G63" t="n">
+        <v>802045.1100085598</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>40</v>
+      </c>
+      <c r="C64" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>40</v>
+      </c>
+      <c r="E64" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7556.7375</v>
+      </c>
+      <c r="G64" t="n">
+        <v>794488.3725085597</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C65" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>51096.5501</v>
+      </c>
+      <c r="G65" t="n">
+        <v>743391.8224085597</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7164.6753</v>
+      </c>
+      <c r="G66" t="n">
+        <v>750556.4977085597</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>199758.84459104</v>
+      </c>
+      <c r="G67" t="n">
+        <v>950315.3422995997</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>40</v>
+      </c>
+      <c r="F68" t="n">
+        <v>253282.41317447</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1203597.75547407</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>107154.43902028</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1310752.19449435</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>223980.59732784</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1534732.79182219</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>41</v>
+      </c>
+      <c r="D71" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>41</v>
+      </c>
+      <c r="F71" t="n">
+        <v>22690.3373</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1512042.45452219</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F72" t="n">
+        <v>104026.47043497</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1408015.98408722</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1.114122257053292</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="L72" t="n">
+        <v>1.267727272727273</v>
+      </c>
+      <c r="M72" t="n">
         <v>1.018808777429467</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C33" t="n">
-        <v>35</v>
-      </c>
-      <c r="D33" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>35</v>
-      </c>
-      <c r="F33" t="n">
-        <v>164867.50980081</v>
-      </c>
-      <c r="G33" t="n">
-        <v>302645.94258481</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>77725.73535004001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>380371.67793485</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>36</v>
-      </c>
-      <c r="C35" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>35</v>
-      </c>
-      <c r="F35" t="n">
-        <v>22614.54</v>
-      </c>
-      <c r="G35" t="n">
-        <v>357757.13793485</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>38</v>
-      </c>
-      <c r="C36" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>27184.86500551</v>
-      </c>
-      <c r="G36" t="n">
-        <v>384942.00294036</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2258</v>
-      </c>
-      <c r="G37" t="n">
-        <v>384942.00294036</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>36</v>
-      </c>
-      <c r="E38" t="n">
-        <v>35</v>
-      </c>
-      <c r="F38" t="n">
-        <v>55265.9069</v>
-      </c>
-      <c r="G38" t="n">
-        <v>329676.09604036</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2074.8028</v>
-      </c>
-      <c r="G39" t="n">
-        <v>331750.89884036</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>36</v>
-      </c>
-      <c r="D40" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>36</v>
-      </c>
-      <c r="F40" t="n">
-        <v>34522.71540976</v>
-      </c>
-      <c r="G40" t="n">
-        <v>366273.61425012</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>35</v>
-      </c>
-      <c r="C41" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>35</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3074.333</v>
-      </c>
-      <c r="G41" t="n">
-        <v>369347.94725012</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>152113.03564176</v>
-      </c>
-      <c r="G42" t="n">
-        <v>521460.98289188</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>37</v>
-      </c>
-      <c r="C43" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>37</v>
-      </c>
-      <c r="F43" t="n">
-        <v>30148.04884502</v>
-      </c>
-      <c r="G43" t="n">
-        <v>521460.98289188</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D44" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>169241.04129224</v>
-      </c>
-      <c r="G44" t="n">
-        <v>690702.02418412</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>77802.98817993001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>690702.02418412</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C46" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>52244.27218717</v>
-      </c>
-      <c r="G46" t="n">
-        <v>742946.29637129</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="C47" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="E47" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>16306.1816</v>
-      </c>
-      <c r="G47" t="n">
-        <v>726640.11477129</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="C48" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>40</v>
-      </c>
-      <c r="E48" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>55315.53781283</v>
-      </c>
-      <c r="G48" t="n">
-        <v>781955.6525841199</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>40</v>
-      </c>
-      <c r="D49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E49" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="F49" t="n">
-        <v>22450.9293</v>
-      </c>
-      <c r="G49" t="n">
-        <v>804406.5818841199</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="E50" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5542.66058717</v>
-      </c>
-      <c r="G50" t="n">
-        <v>798863.9212969498</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>51743.46010776</v>
-      </c>
-      <c r="G51" t="n">
-        <v>747120.4611891898</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>40305.43360794</v>
-      </c>
-      <c r="G52" t="n">
-        <v>787425.8947971298</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="D53" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="E53" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>9355.248545590001</v>
-      </c>
-      <c r="G53" t="n">
-        <v>778070.6462515398</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="C54" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="D54" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E54" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10723.91994721</v>
-      </c>
-      <c r="G54" t="n">
-        <v>778070.6462515398</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E55" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>753.4247</v>
-      </c>
-      <c r="G55" t="n">
-        <v>777317.2215515398</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3774.3664</v>
-      </c>
-      <c r="G56" t="n">
-        <v>773542.8551515398</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>132513.3833735</v>
-      </c>
-      <c r="G57" t="n">
-        <v>906056.2385250397</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D58" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>120318.15952405</v>
-      </c>
-      <c r="G58" t="n">
-        <v>785738.0790009898</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="C59" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="D59" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G59" t="n">
-        <v>795738.0790009898</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="C60" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D60" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F60" t="n">
-        <v>56343.65878168</v>
-      </c>
-      <c r="G60" t="n">
-        <v>739394.4202193097</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4616.3091</v>
-      </c>
-      <c r="G61" t="n">
-        <v>734778.1111193098</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C62" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E62" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F62" t="n">
-        <v>9332.308199999999</v>
-      </c>
-      <c r="G62" t="n">
-        <v>725445.8029193098</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>40</v>
-      </c>
-      <c r="D63" t="n">
-        <v>40</v>
-      </c>
-      <c r="E63" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>76599.30708925</v>
-      </c>
-      <c r="G63" t="n">
-        <v>802045.1100085598</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>40</v>
-      </c>
-      <c r="C64" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>40</v>
-      </c>
-      <c r="E64" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>7556.7375</v>
-      </c>
-      <c r="G64" t="n">
-        <v>794488.3725085597</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="C65" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D65" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E65" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>51096.5501</v>
-      </c>
-      <c r="G65" t="n">
-        <v>743391.8224085597</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C66" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E66" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>7164.6753</v>
-      </c>
-      <c r="G66" t="n">
-        <v>750556.4977085597</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C67" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F67" t="n">
-        <v>199758.84459104</v>
-      </c>
-      <c r="G67" t="n">
-        <v>950315.3422995997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D68" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E68" t="n">
-        <v>40</v>
-      </c>
-      <c r="F68" t="n">
-        <v>253282.41317447</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1203597.75547407</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C69" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E69" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F69" t="n">
-        <v>107154.43902028</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1310752.19449435</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F70" t="n">
-        <v>223980.59732784</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1534732.79182219</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C71" t="n">
-        <v>41</v>
-      </c>
-      <c r="D71" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E71" t="n">
-        <v>41</v>
-      </c>
-      <c r="F71" t="n">
-        <v>22690.3373</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1512042.45452219</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E72" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F72" t="n">
-        <v>104026.47043497</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1408015.98408722</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,7 +3266,7 @@
         <v>1640993.99353794</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3045,7 +3299,7 @@
         <v>1524311.45430453</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3078,7 +3332,7 @@
         <v>1469879.63730453</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3111,7 +3365,7 @@
         <v>1353537.41460453</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3144,7 +3398,7 @@
         <v>828162.3871627295</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3177,7 +3431,7 @@
         <v>1017159.027662729</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3210,7 +3464,7 @@
         <v>1529415.14907037</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3243,7 +3497,7 @@
         <v>737680.0038703695</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3375,7 +3629,7 @@
         <v>1306025.0845494</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4629,7 +4883,7 @@
         <v>1844373.756297819</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4662,7 +4916,7 @@
         <v>2044720.284595429</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5025,7 +5279,7 @@
         <v>2499101.003802489</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5058,7 +5312,7 @@
         <v>2515672.596071798</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5091,7 +5345,7 @@
         <v>2614465.928300958</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5124,7 +5378,7 @@
         <v>2614455.928300958</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5190,7 +5444,7 @@
         <v>2583710.612500958</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5223,7 +5477,7 @@
         <v>2590469.515100958</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5256,7 +5510,7 @@
         <v>2606250.262300958</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5289,7 +5543,7 @@
         <v>2603435.884800958</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5322,7 +5576,7 @@
         <v>2603425.884800958</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5355,7 +5609,7 @@
         <v>2603435.884800958</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5388,7 +5642,7 @@
         <v>2624651.857100958</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5421,7 +5675,7 @@
         <v>2624651.857100958</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5454,7 +5708,7 @@
         <v>2623120.207800958</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5487,7 +5741,7 @@
         <v>2623803.727300958</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5520,7 +5774,7 @@
         <v>2628256.879200958</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5553,7 +5807,7 @@
         <v>2627007.386400958</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5586,7 +5840,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5619,7 +5873,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5652,7 +5906,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5685,7 +5939,7 @@
         <v>2639419.153100958</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5718,7 +5972,7 @@
         <v>2665984.291759608</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5751,7 +6005,7 @@
         <v>2575610.778718258</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5784,7 +6038,7 @@
         <v>2582276.373218258</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5817,7 +6071,7 @@
         <v>2647747.122052808</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5850,7 +6104,7 @@
         <v>2648352.694477228</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5883,7 +6137,7 @@
         <v>2619972.836677229</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5916,7 +6170,7 @@
         <v>2619982.836677229</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5949,7 +6203,7 @@
         <v>2414399.075877229</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5982,7 +6236,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6015,7 +6269,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6048,7 +6302,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6081,7 +6335,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6114,7 +6368,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6147,7 +6401,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6180,7 +6434,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6213,7 +6467,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6246,7 +6500,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6279,7 +6533,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6312,7 +6566,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6345,7 +6599,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6378,7 +6632,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6411,7 +6665,7 @@
         <v>2363406.271977229</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6444,7 +6698,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6477,7 +6731,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6510,7 +6764,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6543,7 +6797,7 @@
         <v>2341285.865377228</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6576,7 +6830,7 @@
         <v>2352400.012777228</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6609,7 +6863,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6642,7 +6896,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6675,7 +6929,7 @@
         <v>2381802.525577229</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6708,7 +6962,7 @@
         <v>2381002.525577229</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6741,7 +6995,7 @@
         <v>2381012.525577229</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6774,7 +7028,7 @@
         <v>2378223.431477229</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6807,7 +7061,7 @@
         <v>2266071.711177228</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6840,7 +7094,7 @@
         <v>2266081.711177228</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6873,7 +7127,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6906,7 +7160,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6939,7 +7193,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6972,7 +7226,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7005,7 +7259,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7038,7 +7292,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7071,7 +7325,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7698,7 +7952,7 @@
         <v>2120244.168710728</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7863,7 +8117,7 @@
         <v>2371727.041876538</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7896,7 +8150,7 @@
         <v>2572026.046105908</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7929,7 +8183,7 @@
         <v>2572016.046105908</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7962,7 +8216,7 @@
         <v>2384560.138659358</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7995,7 +8249,7 @@
         <v>2386815.009050767</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8028,7 +8282,7 @@
         <v>2230830.571915417</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8061,7 +8315,7 @@
         <v>2230810.571915417</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8094,7 +8348,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8127,7 +8381,7 @@
         <v>2229545.940415417</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8160,7 +8414,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8193,7 +8447,7 @@
         <v>2225682.324815417</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8226,7 +8480,7 @@
         <v>2425285.131270347</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8259,7 +8513,7 @@
         <v>2186990.656670347</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8292,7 +8546,7 @@
         <v>2096051.219170347</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8325,7 +8579,7 @@
         <v>2313834.494897967</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8358,7 +8612,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8391,7 +8645,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8424,7 +8678,7 @@
         <v>2114674.971872567</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8457,7 +8711,7 @@
         <v>2274229.348043987</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8490,7 +8744,7 @@
         <v>2269282.413943987</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8523,7 +8777,7 @@
         <v>2243041.844343987</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8556,7 +8810,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8589,7 +8843,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8622,7 +8876,7 @@
         <v>2364428.585014547</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8655,7 +8909,7 @@
         <v>2361428.585014547</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8688,7 +8942,7 @@
         <v>2249812.017214547</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8721,7 +8975,7 @@
         <v>2137620.790514547</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>

--- a/BackTest/2019-10-10 BackTest CHR.xlsx
+++ b/BackTest/2019-10-10 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>17933.1601</v>
       </c>
       <c r="G2" t="n">
-        <v>-119492.26176924</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>17.8769</v>
       </c>
       <c r="G3" t="n">
-        <v>-119474.38486924</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>31.9</v>
       </c>
       <c r="I3" t="n">
         <v>31.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>1572</v>
       </c>
       <c r="G4" t="n">
-        <v>-119474.38486924</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>32.5</v>
       </c>
       <c r="I4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>10530.7475</v>
       </c>
       <c r="G5" t="n">
-        <v>-130005.13236924</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>32.5</v>
       </c>
       <c r="I5" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>10530.7475</v>
       </c>
       <c r="G6" t="n">
-        <v>-130005.13236924</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>31.9</v>
       </c>
       <c r="I6" t="n">
         <v>31.9</v>
       </c>
-      <c r="J6" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>8153.866</v>
       </c>
       <c r="G7" t="n">
-        <v>-130005.13236924</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>31.9</v>
       </c>
       <c r="I7" t="n">
         <v>31.9</v>
       </c>
-      <c r="J7" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>29785.496</v>
       </c>
       <c r="G8" t="n">
-        <v>-130005.13236924</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>31.9</v>
       </c>
       <c r="I8" t="n">
         <v>31.9</v>
       </c>
-      <c r="J8" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>175.4639</v>
       </c>
       <c r="G9" t="n">
-        <v>-129829.66846924</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>31.9</v>
       </c>
       <c r="I9" t="n">
         <v>31.9</v>
       </c>
-      <c r="J9" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,23 @@
         <v>33349.6012</v>
       </c>
       <c r="G10" t="n">
-        <v>-96480.06726923998</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>32.5</v>
       </c>
       <c r="I10" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +773,23 @@
         <v>4507.9143</v>
       </c>
       <c r="G11" t="n">
-        <v>-96480.06726923998</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>32.6</v>
       </c>
       <c r="I11" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +811,23 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>-96480.06726923998</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>32.6</v>
       </c>
       <c r="I12" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +849,23 @@
         <v>5587.2507</v>
       </c>
       <c r="G13" t="n">
-        <v>-96480.06726923998</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>32.6</v>
       </c>
       <c r="I13" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +887,23 @@
         <v>323.657</v>
       </c>
       <c r="G14" t="n">
-        <v>-96480.06726923998</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>32.6</v>
       </c>
       <c r="I14" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +925,21 @@
         <v>53869</v>
       </c>
       <c r="G15" t="n">
-        <v>-96480.06726923998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +961,21 @@
         <v>4.5361</v>
       </c>
       <c r="G16" t="n">
-        <v>-96484.60336923998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +997,21 @@
         <v>1720</v>
       </c>
       <c r="G17" t="n">
-        <v>-94764.60336923998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1033,23 @@
         <v>24.4062</v>
       </c>
       <c r="G18" t="n">
-        <v>-94789.00956923998</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>32.6</v>
       </c>
       <c r="I18" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,26 +1071,21 @@
         <v>913.0938</v>
       </c>
       <c r="G19" t="n">
-        <v>-94789.00956923998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>32</v>
-      </c>
-      <c r="J19" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,26 +1107,23 @@
         <v>1567.3981</v>
       </c>
       <c r="G20" t="n">
-        <v>-96356.40766923998</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1215,26 +1145,21 @@
         <v>63875.44386445</v>
       </c>
       <c r="G21" t="n">
-        <v>-32480.96380478999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>31.9</v>
       </c>
-      <c r="J21" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1256,26 +1181,21 @@
         <v>3344.5525</v>
       </c>
       <c r="G22" t="n">
-        <v>-35825.51630478998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1297,26 +1217,21 @@
         <v>1621.8286</v>
       </c>
       <c r="G23" t="n">
-        <v>-34203.68770478998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,26 +1253,21 @@
         <v>86.13290000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-34203.68770478998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1379,26 +1289,21 @@
         <v>2292.0241</v>
       </c>
       <c r="G25" t="n">
-        <v>-34203.68770478998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1420,26 +1325,21 @@
         <v>37.02</v>
       </c>
       <c r="G26" t="n">
-        <v>-34240.70770478998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1461,26 +1361,21 @@
         <v>146.9696</v>
       </c>
       <c r="G27" t="n">
-        <v>-34093.73810478998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>32</v>
-      </c>
-      <c r="J27" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,26 +1397,21 @@
         <v>61.1665</v>
       </c>
       <c r="G28" t="n">
-        <v>-34154.90460478998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1543,26 +1433,21 @@
         <v>169739.35170045</v>
       </c>
       <c r="G29" t="n">
-        <v>135584.44709566</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>32</v>
-      </c>
-      <c r="J29" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>31.9</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,24 +1469,21 @@
         <v>246909.99086154</v>
       </c>
       <c r="G30" t="n">
-        <v>382494.4379572</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1623,24 +1505,21 @@
         <v>563.38</v>
       </c>
       <c r="G31" t="n">
-        <v>382494.4379572</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1662,24 +1541,21 @@
         <v>85019.01442842001</v>
       </c>
       <c r="G32" t="n">
-        <v>467513.45238562</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1701,24 +1577,21 @@
         <v>164867.50980081</v>
       </c>
       <c r="G33" t="n">
-        <v>302645.94258481</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1740,24 +1613,21 @@
         <v>77725.73535004001</v>
       </c>
       <c r="G34" t="n">
-        <v>380371.67793485</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1779,24 +1649,21 @@
         <v>22614.54</v>
       </c>
       <c r="G35" t="n">
-        <v>357757.13793485</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1818,24 +1685,21 @@
         <v>27184.86500551</v>
       </c>
       <c r="G36" t="n">
-        <v>384942.00294036</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1857,24 +1721,21 @@
         <v>2258</v>
       </c>
       <c r="G37" t="n">
-        <v>384942.00294036</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,24 +1757,21 @@
         <v>55265.9069</v>
       </c>
       <c r="G38" t="n">
-        <v>329676.09604036</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1935,24 +1793,21 @@
         <v>2074.8028</v>
       </c>
       <c r="G39" t="n">
-        <v>331750.89884036</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1974,24 +1829,21 @@
         <v>34522.71540976</v>
       </c>
       <c r="G40" t="n">
-        <v>366273.61425012</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2013,24 +1865,21 @@
         <v>3074.333</v>
       </c>
       <c r="G41" t="n">
-        <v>369347.94725012</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2052,24 +1901,21 @@
         <v>152113.03564176</v>
       </c>
       <c r="G42" t="n">
-        <v>521460.98289188</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2091,24 +1937,21 @@
         <v>30148.04884502</v>
       </c>
       <c r="G43" t="n">
-        <v>521460.98289188</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2130,24 +1973,21 @@
         <v>169241.04129224</v>
       </c>
       <c r="G44" t="n">
-        <v>690702.02418412</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2169,24 +2009,21 @@
         <v>77802.98817993001</v>
       </c>
       <c r="G45" t="n">
-        <v>690702.02418412</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2208,24 +2045,21 @@
         <v>52244.27218717</v>
       </c>
       <c r="G46" t="n">
-        <v>742946.29637129</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2247,24 +2081,21 @@
         <v>16306.1816</v>
       </c>
       <c r="G47" t="n">
-        <v>726640.11477129</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2286,24 +2117,21 @@
         <v>55315.53781283</v>
       </c>
       <c r="G48" t="n">
-        <v>781955.6525841199</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2325,24 +2153,21 @@
         <v>22450.9293</v>
       </c>
       <c r="G49" t="n">
-        <v>804406.5818841199</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2364,24 +2189,21 @@
         <v>5542.66058717</v>
       </c>
       <c r="G50" t="n">
-        <v>798863.9212969498</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2403,24 +2225,21 @@
         <v>51743.46010776</v>
       </c>
       <c r="G51" t="n">
-        <v>747120.4611891898</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2442,24 +2261,21 @@
         <v>40305.43360794</v>
       </c>
       <c r="G52" t="n">
-        <v>787425.8947971298</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2481,24 +2297,21 @@
         <v>9355.248545590001</v>
       </c>
       <c r="G53" t="n">
-        <v>778070.6462515398</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,24 +2333,21 @@
         <v>10723.91994721</v>
       </c>
       <c r="G54" t="n">
-        <v>778070.6462515398</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2559,24 +2369,21 @@
         <v>753.4247</v>
       </c>
       <c r="G55" t="n">
-        <v>777317.2215515398</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2598,24 +2405,21 @@
         <v>3774.3664</v>
       </c>
       <c r="G56" t="n">
-        <v>773542.8551515398</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2637,24 +2441,21 @@
         <v>132513.3833735</v>
       </c>
       <c r="G57" t="n">
-        <v>906056.2385250397</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2676,24 +2477,21 @@
         <v>120318.15952405</v>
       </c>
       <c r="G58" t="n">
-        <v>785738.0790009898</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2715,24 +2513,21 @@
         <v>10000</v>
       </c>
       <c r="G59" t="n">
-        <v>795738.0790009898</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2754,24 +2549,21 @@
         <v>56343.65878168</v>
       </c>
       <c r="G60" t="n">
-        <v>739394.4202193097</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2793,24 +2585,21 @@
         <v>4616.3091</v>
       </c>
       <c r="G61" t="n">
-        <v>734778.1111193098</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2832,24 +2621,21 @@
         <v>9332.308199999999</v>
       </c>
       <c r="G62" t="n">
-        <v>725445.8029193098</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2871,24 +2657,21 @@
         <v>76599.30708925</v>
       </c>
       <c r="G63" t="n">
-        <v>802045.1100085598</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2910,24 +2693,21 @@
         <v>7556.7375</v>
       </c>
       <c r="G64" t="n">
-        <v>794488.3725085597</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2949,24 +2729,21 @@
         <v>51096.5501</v>
       </c>
       <c r="G65" t="n">
-        <v>743391.8224085597</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2988,24 +2765,21 @@
         <v>7164.6753</v>
       </c>
       <c r="G66" t="n">
-        <v>750556.4977085597</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3027,24 +2801,21 @@
         <v>199758.84459104</v>
       </c>
       <c r="G67" t="n">
-        <v>950315.3422995997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3066,24 +2837,21 @@
         <v>253282.41317447</v>
       </c>
       <c r="G68" t="n">
-        <v>1203597.75547407</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3105,24 +2873,21 @@
         <v>107154.43902028</v>
       </c>
       <c r="G69" t="n">
-        <v>1310752.19449435</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3144,24 +2909,23 @@
         <v>223980.59732784</v>
       </c>
       <c r="G70" t="n">
-        <v>1534732.79182219</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K70" t="n">
+        <v>1.295940438871473</v>
+      </c>
       <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>1.018808777429467</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3183,24 +2947,15 @@
         <v>22690.3373</v>
       </c>
       <c r="G71" t="n">
-        <v>1512042.45452219</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3222,26 +2977,15 @@
         <v>104026.47043497</v>
       </c>
       <c r="G72" t="n">
-        <v>1408015.98408722</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1.267727272727273</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.018808777429467</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3263,18 +3007,15 @@
         <v>232978.00945072</v>
       </c>
       <c r="G73" t="n">
-        <v>1640993.99353794</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3296,18 +3037,15 @@
         <v>116682.53923341</v>
       </c>
       <c r="G74" t="n">
-        <v>1524311.45430453</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3329,18 +3067,15 @@
         <v>54431.817</v>
       </c>
       <c r="G75" t="n">
-        <v>1469879.63730453</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3362,18 +3097,15 @@
         <v>116342.2227</v>
       </c>
       <c r="G76" t="n">
-        <v>1353537.41460453</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3395,18 +3127,15 @@
         <v>525375.0274418</v>
       </c>
       <c r="G77" t="n">
-        <v>828162.3871627295</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3428,18 +3157,15 @@
         <v>188996.6405</v>
       </c>
       <c r="G78" t="n">
-        <v>1017159.027662729</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3461,18 +3187,15 @@
         <v>512256.12140764</v>
       </c>
       <c r="G79" t="n">
-        <v>1529415.14907037</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3494,18 +3217,15 @@
         <v>791735.1452</v>
       </c>
       <c r="G80" t="n">
-        <v>737680.0038703695</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3527,18 +3247,15 @@
         <v>295185.2788</v>
       </c>
       <c r="G81" t="n">
-        <v>1032865.282670369</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3560,18 +3277,15 @@
         <v>71528.7325</v>
       </c>
       <c r="G82" t="n">
-        <v>1104394.01517037</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3593,18 +3307,15 @@
         <v>230266.54725396</v>
       </c>
       <c r="G83" t="n">
-        <v>1334660.56242433</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3626,18 +3337,15 @@
         <v>28635.47787493</v>
       </c>
       <c r="G84" t="n">
-        <v>1306025.0845494</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3659,18 +3367,15 @@
         <v>237894.2505</v>
       </c>
       <c r="G85" t="n">
-        <v>1068130.834049399</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3692,18 +3397,15 @@
         <v>458572.42980122</v>
       </c>
       <c r="G86" t="n">
-        <v>1526703.26385062</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3725,18 +3427,15 @@
         <v>12074.0652</v>
       </c>
       <c r="G87" t="n">
-        <v>1514629.198650619</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3758,18 +3457,15 @@
         <v>247224.86238988</v>
       </c>
       <c r="G88" t="n">
-        <v>1267404.336260739</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3791,18 +3487,15 @@
         <v>28955.68852634</v>
       </c>
       <c r="G89" t="n">
-        <v>1296360.02478708</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3824,18 +3517,15 @@
         <v>28363.7017</v>
       </c>
       <c r="G90" t="n">
-        <v>1267996.323087079</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3857,18 +3547,15 @@
         <v>145274.6708</v>
       </c>
       <c r="G91" t="n">
-        <v>1122721.652287079</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3890,18 +3577,15 @@
         <v>161725.775</v>
       </c>
       <c r="G92" t="n">
-        <v>1284447.427287079</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3923,18 +3607,15 @@
         <v>54852.0855</v>
       </c>
       <c r="G93" t="n">
-        <v>1229595.341787079</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3956,18 +3637,15 @@
         <v>61357.1426</v>
       </c>
       <c r="G94" t="n">
-        <v>1168238.199187079</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3989,18 +3667,15 @@
         <v>87514.0793</v>
       </c>
       <c r="G95" t="n">
-        <v>1255752.27848708</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4022,18 +3697,15 @@
         <v>713980.07380338</v>
       </c>
       <c r="G96" t="n">
-        <v>541772.2046836995</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4055,18 +3727,15 @@
         <v>1766477.39972362</v>
       </c>
       <c r="G97" t="n">
-        <v>2308249.604407319</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4088,18 +3757,15 @@
         <v>612652.7502475301</v>
       </c>
       <c r="G98" t="n">
-        <v>1695596.854159789</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4121,18 +3787,15 @@
         <v>176918.14913726</v>
       </c>
       <c r="G99" t="n">
-        <v>1872515.003297049</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4154,18 +3817,15 @@
         <v>213850.14906483</v>
       </c>
       <c r="G100" t="n">
-        <v>1658664.854232219</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4187,18 +3847,15 @@
         <v>10491.1379</v>
       </c>
       <c r="G101" t="n">
-        <v>1648173.716332219</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4220,18 +3877,15 @@
         <v>81365.1076</v>
       </c>
       <c r="G102" t="n">
-        <v>1729538.823932219</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4253,18 +3907,15 @@
         <v>27479.09925613</v>
       </c>
       <c r="G103" t="n">
-        <v>1757017.923188349</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4286,18 +3937,15 @@
         <v>293367.86080587</v>
       </c>
       <c r="G104" t="n">
-        <v>1463650.062382479</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4319,18 +3967,15 @@
         <v>82962.17905727999</v>
       </c>
       <c r="G105" t="n">
-        <v>1546612.241439759</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,18 +3997,15 @@
         <v>73</v>
       </c>
       <c r="G106" t="n">
-        <v>1546539.241439759</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4385,18 +4027,15 @@
         <v>34756.57051852</v>
       </c>
       <c r="G107" t="n">
-        <v>1511782.670921239</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4418,18 +4057,15 @@
         <v>76655.36159320999</v>
       </c>
       <c r="G108" t="n">
-        <v>1588438.032514449</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4451,18 +4087,15 @@
         <v>170139.4495709</v>
       </c>
       <c r="G109" t="n">
-        <v>1758577.482085349</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4484,18 +4117,15 @@
         <v>56778.5026378</v>
       </c>
       <c r="G110" t="n">
-        <v>1815355.984723149</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4517,18 +4147,15 @@
         <v>1225.4434</v>
       </c>
       <c r="G111" t="n">
-        <v>1814130.541323149</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4550,18 +4177,15 @@
         <v>20953.24191979</v>
       </c>
       <c r="G112" t="n">
-        <v>1835083.783242939</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4583,18 +4207,15 @@
         <v>55</v>
       </c>
       <c r="G113" t="n">
-        <v>1835083.783242939</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4616,18 +4237,15 @@
         <v>79712.44215488</v>
       </c>
       <c r="G114" t="n">
-        <v>1914796.225397819</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4649,18 +4267,15 @@
         <v>30</v>
       </c>
       <c r="G115" t="n">
-        <v>1914766.225397819</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4682,18 +4297,15 @@
         <v>386.6196</v>
       </c>
       <c r="G116" t="n">
-        <v>1914379.605797819</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4715,18 +4327,15 @@
         <v>1054.9172</v>
       </c>
       <c r="G117" t="n">
-        <v>1915434.522997819</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4748,18 +4357,15 @@
         <v>2939.3556</v>
       </c>
       <c r="G118" t="n">
-        <v>1915434.522997819</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4781,18 +4387,15 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>1915424.522997819</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4814,18 +4417,15 @@
         <v>39780.6196</v>
       </c>
       <c r="G120" t="n">
-        <v>1915424.522997819</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4847,18 +4447,15 @@
         <v>36836.4827</v>
       </c>
       <c r="G121" t="n">
-        <v>1878588.040297819</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4880,18 +4477,15 @@
         <v>34214.284</v>
       </c>
       <c r="G122" t="n">
-        <v>1844373.756297819</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4913,18 +4507,15 @@
         <v>200346.52829761</v>
       </c>
       <c r="G123" t="n">
-        <v>2044720.284595429</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4946,18 +4537,15 @@
         <v>275112.02764118</v>
       </c>
       <c r="G124" t="n">
-        <v>2319832.312236609</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4979,18 +4567,15 @@
         <v>20</v>
       </c>
       <c r="G125" t="n">
-        <v>2319812.312236609</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5012,18 +4597,15 @@
         <v>21</v>
       </c>
       <c r="G126" t="n">
-        <v>2319812.312236609</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5045,18 +4627,15 @@
         <v>4102.2917</v>
       </c>
       <c r="G127" t="n">
-        <v>2323914.603936609</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5078,18 +4657,15 @@
         <v>20</v>
       </c>
       <c r="G128" t="n">
-        <v>2323894.603936609</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5111,18 +4687,15 @@
         <v>28913.9658</v>
       </c>
       <c r="G129" t="n">
-        <v>2352808.569736609</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5144,18 +4717,15 @@
         <v>52010.1663</v>
       </c>
       <c r="G130" t="n">
-        <v>2300798.403436609</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5177,18 +4747,15 @@
         <v>44</v>
       </c>
       <c r="G131" t="n">
-        <v>2300842.403436609</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5210,18 +4777,15 @@
         <v>199341.12668166</v>
       </c>
       <c r="G132" t="n">
-        <v>2500183.530118268</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5243,18 +4807,15 @@
         <v>1082.52631578</v>
       </c>
       <c r="G133" t="n">
-        <v>2499101.003802489</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5276,18 +4837,15 @@
         <v>2005.4881</v>
       </c>
       <c r="G134" t="n">
-        <v>2499101.003802489</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5309,18 +4867,15 @@
         <v>16571.59226931</v>
       </c>
       <c r="G135" t="n">
-        <v>2515672.596071798</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5342,18 +4897,15 @@
         <v>98793.33222916001</v>
       </c>
       <c r="G136" t="n">
-        <v>2614465.928300958</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5375,18 +4927,15 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>2614455.928300958</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5408,18 +4957,15 @@
         <v>2274.6842</v>
       </c>
       <c r="G138" t="n">
-        <v>2616730.612500958</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5441,18 +4987,15 @@
         <v>33020</v>
       </c>
       <c r="G139" t="n">
-        <v>2583710.612500958</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5474,18 +5017,15 @@
         <v>6758.9026</v>
       </c>
       <c r="G140" t="n">
-        <v>2590469.515100958</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5507,18 +5047,15 @@
         <v>15780.7472</v>
       </c>
       <c r="G141" t="n">
-        <v>2606250.262300958</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5540,18 +5077,15 @@
         <v>2814.3775</v>
       </c>
       <c r="G142" t="n">
-        <v>2603435.884800958</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5573,18 +5107,15 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>2603425.884800958</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5606,18 +5137,15 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>2603435.884800958</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5639,18 +5167,15 @@
         <v>21215.9723</v>
       </c>
       <c r="G145" t="n">
-        <v>2624651.857100958</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5672,18 +5197,15 @@
         <v>10360.4305</v>
       </c>
       <c r="G146" t="n">
-        <v>2624651.857100958</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5705,18 +5227,15 @@
         <v>1531.6493</v>
       </c>
       <c r="G147" t="n">
-        <v>2623120.207800958</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5738,18 +5257,15 @@
         <v>683.5195</v>
       </c>
       <c r="G148" t="n">
-        <v>2623803.727300958</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5771,18 +5287,15 @@
         <v>4453.1519</v>
       </c>
       <c r="G149" t="n">
-        <v>2628256.879200958</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5804,18 +5317,15 @@
         <v>1249.4928</v>
       </c>
       <c r="G150" t="n">
-        <v>2627007.386400958</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5837,18 +5347,15 @@
         <v>38373.3854</v>
       </c>
       <c r="G151" t="n">
-        <v>2665380.771800958</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5870,18 +5377,15 @@
         <v>16744.63748062</v>
       </c>
       <c r="G152" t="n">
-        <v>2665380.771800958</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5903,18 +5407,15 @@
         <v>19799.622</v>
       </c>
       <c r="G153" t="n">
-        <v>2665380.771800958</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5936,18 +5437,15 @@
         <v>25961.6187</v>
       </c>
       <c r="G154" t="n">
-        <v>2639419.153100958</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5969,18 +5467,15 @@
         <v>26565.13865865</v>
       </c>
       <c r="G155" t="n">
-        <v>2665984.291759608</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,18 +5497,15 @@
         <v>90373.51304135</v>
       </c>
       <c r="G156" t="n">
-        <v>2575610.778718258</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6035,18 +5527,15 @@
         <v>6665.5945</v>
       </c>
       <c r="G157" t="n">
-        <v>2582276.373218258</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6068,18 +5557,15 @@
         <v>65470.74883455</v>
       </c>
       <c r="G158" t="n">
-        <v>2647747.122052808</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6101,18 +5587,15 @@
         <v>605.5724244199999</v>
       </c>
       <c r="G159" t="n">
-        <v>2648352.694477228</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6134,18 +5617,15 @@
         <v>28379.8578</v>
       </c>
       <c r="G160" t="n">
-        <v>2619972.836677229</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6167,18 +5647,15 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>2619982.836677229</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6200,18 +5677,15 @@
         <v>205583.7608</v>
       </c>
       <c r="G162" t="n">
-        <v>2414399.075877229</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6233,18 +5707,15 @@
         <v>24730.9669</v>
       </c>
       <c r="G163" t="n">
-        <v>2439130.042777229</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6266,18 +5737,15 @@
         <v>21552.6463</v>
       </c>
       <c r="G164" t="n">
-        <v>2439130.042777229</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6299,18 +5767,15 @@
         <v>69787.13340000001</v>
       </c>
       <c r="G165" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6332,18 +5797,15 @@
         <v>677.3587</v>
       </c>
       <c r="G166" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6365,18 +5827,15 @@
         <v>96.0668</v>
       </c>
       <c r="G167" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6398,18 +5857,15 @@
         <v>9029.933199999999</v>
       </c>
       <c r="G168" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6431,18 +5887,15 @@
         <v>4428.4241</v>
       </c>
       <c r="G169" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6464,18 +5917,15 @@
         <v>42638.94594241</v>
       </c>
       <c r="G170" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6497,18 +5947,15 @@
         <v>100</v>
       </c>
       <c r="G171" t="n">
-        <v>2369342.909377228</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6530,18 +5977,15 @@
         <v>5946.6374</v>
       </c>
       <c r="G172" t="n">
-        <v>2363396.271977229</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6563,18 +6007,15 @@
         <v>843.4366</v>
       </c>
       <c r="G173" t="n">
-        <v>2363396.271977229</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6596,18 +6037,15 @@
         <v>2583.97932816</v>
       </c>
       <c r="G174" t="n">
-        <v>2363396.271977229</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6629,18 +6067,15 @@
         <v>83832.96567183999</v>
       </c>
       <c r="G175" t="n">
-        <v>2363396.271977229</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6662,18 +6097,15 @@
         <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>2363406.271977229</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6695,18 +6127,15 @@
         <v>21275.8626</v>
       </c>
       <c r="G177" t="n">
-        <v>2342130.409377228</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6728,18 +6157,15 @@
         <v>85700.1197</v>
       </c>
       <c r="G178" t="n">
-        <v>2342130.409377228</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6761,18 +6187,15 @@
         <v>259.948</v>
       </c>
       <c r="G179" t="n">
-        <v>2342130.409377228</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6794,18 +6217,15 @@
         <v>844.544</v>
       </c>
       <c r="G180" t="n">
-        <v>2341285.865377228</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6827,18 +6247,15 @@
         <v>11114.1474</v>
       </c>
       <c r="G181" t="n">
-        <v>2352400.012777228</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6860,18 +6277,15 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>2352410.012777228</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6893,18 +6307,15 @@
         <v>37483.9358</v>
       </c>
       <c r="G183" t="n">
-        <v>2352410.012777228</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6926,18 +6337,15 @@
         <v>29392.5128</v>
       </c>
       <c r="G184" t="n">
-        <v>2381802.525577229</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6959,18 +6367,15 @@
         <v>800</v>
       </c>
       <c r="G185" t="n">
-        <v>2381002.525577229</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6992,18 +6397,15 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>2381012.525577229</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7025,18 +6427,15 @@
         <v>2789.0941</v>
       </c>
       <c r="G187" t="n">
-        <v>2378223.431477229</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7058,18 +6457,15 @@
         <v>112151.7203</v>
       </c>
       <c r="G188" t="n">
-        <v>2266071.711177228</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7091,18 +6487,15 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>2266081.711177228</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7124,18 +6517,15 @@
         <v>6824.0641</v>
       </c>
       <c r="G190" t="n">
-        <v>2259257.647077228</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7157,18 +6547,15 @@
         <v>1300.8049</v>
       </c>
       <c r="G191" t="n">
-        <v>2259257.647077228</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7190,18 +6577,15 @@
         <v>21470.1298</v>
       </c>
       <c r="G192" t="n">
-        <v>2237787.517277228</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7223,18 +6607,15 @@
         <v>1607.7165</v>
       </c>
       <c r="G193" t="n">
-        <v>2237787.517277228</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7256,18 +6637,15 @@
         <v>23107.5978</v>
       </c>
       <c r="G194" t="n">
-        <v>2237787.517277228</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7289,18 +6667,15 @@
         <v>148472.5803</v>
       </c>
       <c r="G195" t="n">
-        <v>2089314.936977228</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7322,18 +6697,15 @@
         <v>72730.16959999999</v>
       </c>
       <c r="G196" t="n">
-        <v>2089314.936977228</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7355,18 +6727,15 @@
         <v>47891.5064</v>
       </c>
       <c r="G197" t="n">
-        <v>2137206.443377228</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7388,18 +6757,15 @@
         <v>11179.6439</v>
       </c>
       <c r="G198" t="n">
-        <v>2126026.799477228</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7421,18 +6787,15 @@
         <v>52232.7958</v>
       </c>
       <c r="G199" t="n">
-        <v>2073794.003677228</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7454,18 +6817,15 @@
         <v>2131.4412</v>
       </c>
       <c r="G200" t="n">
-        <v>2073794.003677228</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7487,18 +6847,15 @@
         <v>39912.4226</v>
       </c>
       <c r="G201" t="n">
-        <v>2073794.003677228</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7520,18 +6877,15 @@
         <v>20017.3189</v>
       </c>
       <c r="G202" t="n">
-        <v>2073794.003677228</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7553,18 +6907,15 @@
         <v>35738.3485</v>
       </c>
       <c r="G203" t="n">
-        <v>2038055.655177228</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7586,18 +6937,15 @@
         <v>8096.9722</v>
       </c>
       <c r="G204" t="n">
-        <v>2029958.682977228</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7619,18 +6967,15 @@
         <v>67.9049</v>
       </c>
       <c r="G205" t="n">
-        <v>2030026.587877228</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7652,18 +6997,15 @@
         <v>25760.2646</v>
       </c>
       <c r="G206" t="n">
-        <v>2004266.323277228</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7685,18 +7027,15 @@
         <v>26344.7727</v>
       </c>
       <c r="G207" t="n">
-        <v>2004266.323277228</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7718,18 +7057,15 @@
         <v>10228.5694</v>
       </c>
       <c r="G208" t="n">
-        <v>2014494.892677228</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7751,18 +7087,15 @@
         <v>59984.0839</v>
       </c>
       <c r="G209" t="n">
-        <v>1954510.808777228</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7784,18 +7117,15 @@
         <v>8128.0785</v>
       </c>
       <c r="G210" t="n">
-        <v>1946382.730277228</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7817,18 +7147,15 @@
         <v>4156.8924</v>
       </c>
       <c r="G211" t="n">
-        <v>1946382.730277228</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7850,18 +7177,15 @@
         <v>45304.42044501</v>
       </c>
       <c r="G212" t="n">
-        <v>1991687.150722238</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7883,18 +7207,15 @@
         <v>70405.05460078</v>
       </c>
       <c r="G213" t="n">
-        <v>2062092.205323018</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7916,18 +7237,15 @@
         <v>58413.05998771</v>
       </c>
       <c r="G214" t="n">
-        <v>2120505.265310728</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7949,18 +7267,15 @@
         <v>261.0966</v>
       </c>
       <c r="G215" t="n">
-        <v>2120244.168710728</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7982,18 +7297,15 @@
         <v>14250.7354</v>
       </c>
       <c r="G216" t="n">
-        <v>2105993.433310728</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8015,18 +7327,15 @@
         <v>11792.5565</v>
       </c>
       <c r="G217" t="n">
-        <v>2105993.433310728</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8048,18 +7357,15 @@
         <v>122827.47567581</v>
       </c>
       <c r="G218" t="n">
-        <v>2228820.908986538</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8081,18 +7387,15 @@
         <v>80403.44894261</v>
       </c>
       <c r="G219" t="n">
-        <v>2309224.357929148</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8114,18 +7417,15 @@
         <v>62502.68394739</v>
       </c>
       <c r="G220" t="n">
-        <v>2371727.041876538</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8147,18 +7447,15 @@
         <v>200299.00422937</v>
       </c>
       <c r="G221" t="n">
-        <v>2572026.046105908</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8180,18 +7477,15 @@
         <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>2572016.046105908</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8213,18 +7507,15 @@
         <v>187455.90744655</v>
       </c>
       <c r="G223" t="n">
-        <v>2384560.138659358</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8246,18 +7537,15 @@
         <v>2254.87039141</v>
       </c>
       <c r="G224" t="n">
-        <v>2386815.009050767</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8279,18 +7567,15 @@
         <v>155984.43713535</v>
       </c>
       <c r="G225" t="n">
-        <v>2230830.571915417</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8312,18 +7597,15 @@
         <v>20</v>
       </c>
       <c r="G226" t="n">
-        <v>2230810.571915417</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8345,18 +7627,15 @@
         <v>1274.6315</v>
       </c>
       <c r="G227" t="n">
-        <v>2229535.940415417</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8378,18 +7657,15 @@
         <v>10</v>
       </c>
       <c r="G228" t="n">
-        <v>2229545.940415417</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8411,18 +7687,15 @@
         <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>2229535.940415417</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8444,18 +7717,15 @@
         <v>3853.6156</v>
       </c>
       <c r="G230" t="n">
-        <v>2225682.324815417</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8477,18 +7747,15 @@
         <v>199602.80645493</v>
       </c>
       <c r="G231" t="n">
-        <v>2425285.131270347</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8510,18 +7777,15 @@
         <v>238294.4746</v>
       </c>
       <c r="G232" t="n">
-        <v>2186990.656670347</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8543,18 +7807,15 @@
         <v>90939.4375</v>
       </c>
       <c r="G233" t="n">
-        <v>2096051.219170347</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8576,18 +7837,15 @@
         <v>217783.27572762</v>
       </c>
       <c r="G234" t="n">
-        <v>2313834.494897967</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8609,18 +7867,15 @@
         <v>584.2592</v>
       </c>
       <c r="G235" t="n">
-        <v>2313250.235697967</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8642,18 +7897,15 @@
         <v>71889.2328</v>
       </c>
       <c r="G236" t="n">
-        <v>2313250.235697967</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8675,18 +7927,15 @@
         <v>198575.2638254</v>
       </c>
       <c r="G237" t="n">
-        <v>2114674.971872567</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8708,18 +7957,15 @@
         <v>159554.37617142</v>
       </c>
       <c r="G238" t="n">
-        <v>2274229.348043987</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8741,18 +7987,15 @@
         <v>4946.9341</v>
       </c>
       <c r="G239" t="n">
-        <v>2269282.413943987</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8774,18 +8017,15 @@
         <v>26240.5696</v>
       </c>
       <c r="G240" t="n">
-        <v>2243041.844343987</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8807,18 +8047,15 @@
         <v>63461.70568333</v>
       </c>
       <c r="G241" t="n">
-        <v>2306503.550027317</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8840,18 +8077,15 @@
         <v>46594.3563</v>
       </c>
       <c r="G242" t="n">
-        <v>2306503.550027317</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8873,18 +8107,15 @@
         <v>57925.03498723</v>
       </c>
       <c r="G243" t="n">
-        <v>2364428.585014547</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8906,18 +8137,15 @@
         <v>3000</v>
       </c>
       <c r="G244" t="n">
-        <v>2361428.585014547</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8939,18 +8167,15 @@
         <v>111616.5678</v>
       </c>
       <c r="G245" t="n">
-        <v>2249812.017214547</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8972,18 +8197,15 @@
         <v>112191.2267</v>
       </c>
       <c r="G246" t="n">
-        <v>2137620.790514547</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
